--- a/QuantLibXL/Data2/XLS/EUR/EUR_ITALY.xlsx
+++ b/QuantLibXL/Data2/XLS/EUR/EUR_ITALY.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-28995" yWindow="1755" windowWidth="38235" windowHeight="10875"/>
+    <workbookView xWindow="-28995" yWindow="1755" windowWidth="19440" windowHeight="10875"/>
   </bookViews>
   <sheets>
     <sheet name="General Settings" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="BTP Infl Strip" sheetId="10" r:id="rId10"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">BTP!$A$7:$S$105</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">BTP!$A$7:$S$107</definedName>
     <definedName name="BondSettlementDate">BTP!$I$6</definedName>
     <definedName name="BondType" localSheetId="2">BTP!$B$2</definedName>
     <definedName name="BondType" localSheetId="8">'BTP Infl'!$C$2</definedName>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1146" uniqueCount="464">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1148" uniqueCount="466">
   <si>
     <t>General Settings</t>
   </si>
@@ -1441,6 +1441,12 @@
   </si>
   <si>
     <t>IT0005023459</t>
+  </si>
+  <si>
+    <t>IT0005127086</t>
+  </si>
+  <si>
+    <t>IT0005135840</t>
   </si>
 </sst>
 </file>
@@ -2512,7 +2518,7 @@
     <row r="1" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="str">
         <f>_xll.qlxlVersion(TRUE,Trigger)</f>
-        <v>QuantLibXL 1.6.0 - MS VC++ (version unknown) - Multithreaded Dynamic Runtime library - Release Configuration - Jun 26 2015 16:11:30</v>
+        <v>QuantLibXL 1.7.0 - MS VC++ (version unknown) - Multithreaded Dynamic Runtime library - Release Configuration - Sep 24 2015 15:39:48</v>
       </c>
     </row>
     <row r="2" spans="1:5" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -2538,7 +2544,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="9">
-        <v>42213.752303240741</v>
+        <v>42276.427199074074</v>
       </c>
       <c r="E4" s="10"/>
     </row>
@@ -4560,7 +4566,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:S105"/>
+  <dimension ref="A1:S107"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="8" ySplit="7" topLeftCell="I8" activePane="bottomRight" state="frozen"/>
@@ -4575,10 +4581,10 @@
     <col min="2" max="2" width="25" style="28" customWidth="1"/>
     <col min="3" max="3" width="14.140625" style="28" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.28515625" style="28" customWidth="1"/>
-    <col min="5" max="5" width="8" style="28" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="6" max="6" width="11" style="28" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="7" max="8" width="17.28515625" style="28" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="9" max="9" width="20.28515625" style="28" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="8" style="28" customWidth="1" outlineLevel="1"/>
+    <col min="6" max="6" width="11" style="28" customWidth="1" outlineLevel="1"/>
+    <col min="7" max="8" width="17.28515625" style="28" customWidth="1" outlineLevel="1"/>
+    <col min="9" max="9" width="20.28515625" style="28" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="20.28515625" style="28" customWidth="1"/>
     <col min="11" max="11" width="15.140625" style="28" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="17.28515625" style="28" bestFit="1" customWidth="1"/>
@@ -4654,7 +4660,7 @@
     <row r="4" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="62"/>
       <c r="B4" s="21" t="str">
-        <f>IF(Serialize,_xll.ohObjectSave(I8:I105,SerializationPath&amp;FileName,FileOverwrite,Serialize),"---")</f>
+        <f>IF(Serialize,_xll.ohObjectSave(I8:I107,SerializationPath&amp;FileName,FileOverwrite,Serialize),"---")</f>
         <v>---</v>
       </c>
       <c r="C4" s="25" t="s">
@@ -4688,7 +4694,7 @@
       <c r="I5" s="22"/>
       <c r="J5" s="135">
         <f>_xll.qlSettingsEvaluationDate(Trigger)+365</f>
-        <v>42578</v>
+        <v>42641</v>
       </c>
       <c r="K5" s="22"/>
       <c r="L5" s="22"/>
@@ -4707,7 +4713,7 @@
       <c r="H6" s="22"/>
       <c r="I6" s="50">
         <f>_xll.qlBondSettlementDate(I8,)</f>
-        <v>42215</v>
+        <v>42278</v>
       </c>
       <c r="J6" s="135">
         <v>41275</v>
@@ -4785,7 +4791,7 @@
       </c>
       <c r="I8" s="88" t="str">
         <f>_xll.qlBTP2(C8,,D8,E8,F8,G8,H8,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0003799597#0002</v>
+        <v>IT0003799597#0000</v>
       </c>
       <c r="J8" s="88" t="b">
         <f>IF(AND(H8&gt;$J$6,D8&gt;$J$5),TRUE,FALSE)</f>
@@ -4837,7 +4843,7 @@
       </c>
       <c r="I9" s="88" t="str">
         <f>_xll.qlBTP2(C9,,D9,E9,F9,G9,H9,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0004196918#0002</v>
+        <v>IT0004196918#0000</v>
       </c>
       <c r="J9" s="88" t="b">
         <f t="shared" ref="J9:J72" si="0">IF(AND(H9&gt;$J$6,D9&gt;$J$5),TRUE,FALSE)</f>
@@ -4847,7 +4853,7 @@
         <v>0</v>
       </c>
       <c r="L9" s="121" t="str">
-        <f t="shared" ref="L9:L81" si="1">IF(AND(K9,ISNA(M9),ISNA(N9)),"Residual Missing","--")</f>
+        <f t="shared" ref="L9:L82" si="1">IF(AND(K9,ISNA(M9),ISNA(N9)),"Residual Missing","--")</f>
         <v>--</v>
       </c>
       <c r="M9" s="48" t="e">
@@ -4886,7 +4892,7 @@
       </c>
       <c r="I10" s="88" t="str">
         <f>_xll.qlBTP2(C10,,D10,E10,F10,G10,H10,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0003872923#0002</v>
+        <v>IT0003872923#0000</v>
       </c>
       <c r="J10" s="88" t="b">
         <f t="shared" si="0"/>
@@ -4935,7 +4941,7 @@
       </c>
       <c r="I11" s="88" t="str">
         <f>_xll.qlBTP2(C11,,D11,E11,F11,G11,H11,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0004254352#0002</v>
+        <v>IT0004254352#0000</v>
       </c>
       <c r="J11" s="88" t="b">
         <f t="shared" si="0"/>
@@ -4984,7 +4990,7 @@
       </c>
       <c r="I12" s="88" t="str">
         <f>_xll.qlBTP2(C12,,D12,E12,F12,G12,H12,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0001448619#0002</v>
+        <v>IT0001448619#0000</v>
       </c>
       <c r="J12" s="88" t="b">
         <f t="shared" si="0"/>
@@ -5036,7 +5042,7 @@
       </c>
       <c r="I13" s="88" t="str">
         <f>_xll.qlBTP2(C13,,D13,E13,F13,G13,H13,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0004332521#0002</v>
+        <v>IT0004332521#0000</v>
       </c>
       <c r="J13" s="88" t="b">
         <f t="shared" si="0"/>
@@ -5085,7 +5091,7 @@
       </c>
       <c r="I14" s="88" t="str">
         <f>_xll.qlBTP2(C14,,D14,E14,F14,G14,H14,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0004026297#0002</v>
+        <v>IT0004026297#0000</v>
       </c>
       <c r="J14" s="88" t="b">
         <f t="shared" si="0"/>
@@ -5134,7 +5140,7 @@
       </c>
       <c r="I15" s="88" t="str">
         <f>_xll.qlBTP2(C15,,D15,E15,F15,G15,H15,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0003080402#0002</v>
+        <v>IT0003080402#0000</v>
       </c>
       <c r="J15" s="88" t="b">
         <f t="shared" si="0"/>
@@ -5183,7 +5189,7 @@
       </c>
       <c r="I16" s="88" t="str">
         <f>_xll.qlBTP2(C16,,D16,E16,F16,G16,H16,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0004404973#0002</v>
+        <v>IT0004404973#0000</v>
       </c>
       <c r="J16" s="88" t="b">
         <f t="shared" si="0"/>
@@ -5232,7 +5238,7 @@
       </c>
       <c r="I17" s="88" t="str">
         <f>_xll.qlBTP2(C17,,D17,E17,F17,G17,H17,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0004112816#0002</v>
+        <v>IT0004112816#0000</v>
       </c>
       <c r="J17" s="88" t="b">
         <f t="shared" si="0"/>
@@ -5281,7 +5287,7 @@
       </c>
       <c r="I18" s="88" t="str">
         <f>_xll.qlBTP2(C18,,D18,E18,F18,G18,H18,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0003190912#0002</v>
+        <v>IT0003190912#0000</v>
       </c>
       <c r="J18" s="88" t="b">
         <f t="shared" si="0"/>
@@ -5330,14 +5336,14 @@
       </c>
       <c r="I19" s="88" t="str">
         <f>_xll.qlBTP2(C19,,D19,E19,F19,G19,H19,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0004467483#0002</v>
+        <v>IT0004467483#0000</v>
       </c>
       <c r="J19" s="88" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K19" s="123" t="b">
-        <f t="shared" ref="K19:K97" si="2">NOT(ISNA(VLOOKUP(LEFT($I19,12),LatestStrippable,1,FALSE)))</f>
+        <f t="shared" ref="K19:K99" si="2">NOT(ISNA(VLOOKUP(LEFT($I19,12),LatestStrippable,1,FALSE)))</f>
         <v>0</v>
       </c>
       <c r="L19" s="121" t="str">
@@ -5380,7 +5386,7 @@
       </c>
       <c r="I20" s="88" t="str">
         <f>_xll.qlBTP2(C20,,D20,E20,F20,G20,H20,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0004220627#0002</v>
+        <v>IT0004220627#0000</v>
       </c>
       <c r="J20" s="88" t="b">
         <f t="shared" si="0"/>
@@ -5430,7 +5436,7 @@
       </c>
       <c r="I21" s="88" t="str">
         <f>_xll.qlBTP2(C21,,D21,E21,F21,G21,H21,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0004508971#0002</v>
+        <v>IT0004508971#0000</v>
       </c>
       <c r="J21" s="88" t="b">
         <f t="shared" si="0"/>
@@ -5480,7 +5486,7 @@
       </c>
       <c r="I22" s="88" t="str">
         <f>_xll.qlBTP2(C22,,D22,E22,F22,G22,H22,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0004284334#0002</v>
+        <v>IT0004284334#0000</v>
       </c>
       <c r="J22" s="88" t="b">
         <f t="shared" si="0"/>
@@ -5530,7 +5536,7 @@
       </c>
       <c r="I23" s="88" t="str">
         <f>_xll.qlBTP2(C23,,D23,E23,F23,G23,H23,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0004564636#0002</v>
+        <v>IT0004564636#0000</v>
       </c>
       <c r="J23" s="88" t="b">
         <f t="shared" si="0"/>
@@ -5580,7 +5586,7 @@
       </c>
       <c r="I24" s="88" t="str">
         <f>_xll.qlBTP2(C24,,D24,E24,F24,G24,H24,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0003357982#0002</v>
+        <v>IT0003357982#0000</v>
       </c>
       <c r="J24" s="88" t="b">
         <f t="shared" si="0"/>
@@ -5630,7 +5636,7 @@
       </c>
       <c r="I25" s="88" t="str">
         <f>_xll.qlBTP2(C25,,D25,E25,F25,G25,H25,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0004365554#0002</v>
+        <v>IT0004365554#0000</v>
       </c>
       <c r="J25" s="88" t="b">
         <f t="shared" si="0"/>
@@ -5680,7 +5686,7 @@
       </c>
       <c r="I26" s="88" t="str">
         <f>_xll.qlBTP2(C26,,D26,E26,F26,G26,H26,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0004612179#0002</v>
+        <v>IT0004612179#0000</v>
       </c>
       <c r="J26" s="88" t="b">
         <f t="shared" si="0"/>
@@ -5730,7 +5736,7 @@
       </c>
       <c r="I27" s="88" t="str">
         <f>_xll.qlBTP2(C27,,D27,E27,F27,G27,H27,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0003472336#0002</v>
+        <v>IT0003472336#0000</v>
       </c>
       <c r="J27" s="88" t="b">
         <f t="shared" si="0"/>
@@ -5780,7 +5786,7 @@
       </c>
       <c r="I28" s="88" t="str">
         <f>_xll.qlBTP2(C28,,D28,E28,F28,G28,H28,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0004653108#0002</v>
+        <v>IT0004653108#0000</v>
       </c>
       <c r="J28" s="88" t="b">
         <f t="shared" si="0"/>
@@ -5830,7 +5836,7 @@
       </c>
       <c r="I29" s="88" t="str">
         <f>_xll.qlBTP2(C29,,D29,E29,F29,G29,H29,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0004448863#0002</v>
+        <v>IT0004448863#0000</v>
       </c>
       <c r="J29" s="88" t="b">
         <f t="shared" si="0"/>
@@ -5880,7 +5886,7 @@
       </c>
       <c r="I30" s="116" t="str">
         <f>_xll.qlBTP2(C30,,D30,E30,F30,G30,H30,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0004707995#0002</v>
+        <v>IT0004707995#0000</v>
       </c>
       <c r="J30" s="116" t="b">
         <f t="shared" si="0"/>
@@ -5930,7 +5936,7 @@
       </c>
       <c r="I31" s="116" t="str">
         <f>_xll.qlBTP2(C31,,D31,E31,F31,G31,H31,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0004505076#0002</v>
+        <v>IT0004505076#0000</v>
       </c>
       <c r="J31" s="116" t="b">
         <f t="shared" si="0"/>
@@ -5980,7 +5986,7 @@
       </c>
       <c r="I32" s="116" t="str">
         <f>_xll.qlBTP2(C32,,D32,E32,F32,G32,H32,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0004750409#0002</v>
+        <v>IT0004750409#0000</v>
       </c>
       <c r="J32" s="116" t="b">
         <f t="shared" si="0"/>
@@ -6030,7 +6036,7 @@
       </c>
       <c r="I33" s="116" t="str">
         <f>_xll.qlBTP2(C33,,D33,E33,F33,G33,H33,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0003618383#0002</v>
+        <v>IT0003618383#0000</v>
       </c>
       <c r="J33" s="116" t="b">
         <f t="shared" si="0"/>
@@ -6080,7 +6086,7 @@
       </c>
       <c r="I34" s="116" t="str">
         <f>_xll.qlBTP2(C34,,D34,E34,F34,G34,H34,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0004780380#0002</v>
+        <v>IT0004780380#0000</v>
       </c>
       <c r="J34" s="116" t="b">
         <f t="shared" si="0"/>
@@ -6130,7 +6136,7 @@
       </c>
       <c r="I35" s="116" t="str">
         <f>_xll.qlBTP2(C35,,D35,E35,F35,G35,H35,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0003719918#0002</v>
+        <v>IT0003719918#0000</v>
       </c>
       <c r="J35" s="116" t="b">
         <f t="shared" si="0"/>
@@ -6180,7 +6186,7 @@
       </c>
       <c r="I36" s="116" t="str">
         <f>_xll.qlBTP2(C36,,D36,E36,F36,G36,H36,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0004805070#0002</v>
+        <v>IT0004805070#0000</v>
       </c>
       <c r="J36" s="116" t="b">
         <f t="shared" si="0"/>
@@ -6206,37 +6212,37 @@
     </row>
     <row r="37" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="19"/>
-      <c r="B37" s="126" t="str">
+      <c r="B37" s="124" t="str">
         <f>_xll.ohRangeRetrieveError(I37)</f>
         <v/>
       </c>
-      <c r="C37" s="40" t="s">
+      <c r="C37" s="112" t="s">
         <v>350</v>
       </c>
-      <c r="D37" s="85">
+      <c r="D37" s="113">
         <v>42109</v>
       </c>
-      <c r="E37" s="86">
+      <c r="E37" s="114">
         <v>0.03</v>
       </c>
-      <c r="F37" s="87">
-        <v>100</v>
-      </c>
-      <c r="G37" s="85">
+      <c r="F37" s="115">
+        <v>100</v>
+      </c>
+      <c r="G37" s="113">
         <v>40193</v>
       </c>
-      <c r="H37" s="85">
+      <c r="H37" s="113">
         <v>40193</v>
       </c>
-      <c r="I37" s="119" t="str">
+      <c r="I37" s="116" t="str">
         <f>_xll.qlBTP2(C37,,D37,E37,F37,G37,H37,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0004568272#0002</v>
-      </c>
-      <c r="J37" s="119" t="b">
+        <v>IT0004568272#0000</v>
+      </c>
+      <c r="J37" s="116" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K37" s="127" t="b">
+      <c r="K37" s="125" t="b">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -6256,37 +6262,37 @@
     </row>
     <row r="38" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="19"/>
-      <c r="B38" s="126" t="str">
+      <c r="B38" s="124" t="str">
         <f>_xll.ohRangeRetrieveError(I38)</f>
         <v/>
       </c>
-      <c r="C38" s="40" t="s">
+      <c r="C38" s="112" t="s">
         <v>353</v>
       </c>
-      <c r="D38" s="85">
+      <c r="D38" s="113">
         <v>42170</v>
       </c>
-      <c r="E38" s="86">
+      <c r="E38" s="114">
         <v>0.03</v>
       </c>
-      <c r="F38" s="87">
-        <v>100</v>
-      </c>
-      <c r="G38" s="85">
+      <c r="F38" s="115">
+        <v>100</v>
+      </c>
+      <c r="G38" s="113">
         <v>40344</v>
       </c>
-      <c r="H38" s="85">
+      <c r="H38" s="113">
         <v>40344</v>
       </c>
-      <c r="I38" s="119" t="str">
+      <c r="I38" s="116" t="str">
         <f>_xll.qlBTP2(C38,,D38,E38,F38,G38,H38,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0004615917#0002</v>
-      </c>
-      <c r="J38" s="119" t="b">
+        <v>IT0004615917#0000</v>
+      </c>
+      <c r="J38" s="116" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K38" s="127" t="b">
+      <c r="K38" s="125" t="b">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -6306,37 +6312,37 @@
     </row>
     <row r="39" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="19"/>
-      <c r="B39" s="126" t="str">
+      <c r="B39" s="124" t="str">
         <f>_xll.ohRangeRetrieveError(I39)</f>
         <v/>
       </c>
-      <c r="C39" s="40" t="s">
+      <c r="C39" s="112" t="s">
         <v>432</v>
       </c>
-      <c r="D39" s="85">
+      <c r="D39" s="113">
         <v>42200</v>
       </c>
-      <c r="E39" s="86">
+      <c r="E39" s="114">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="F39" s="87">
-        <v>100</v>
-      </c>
-      <c r="G39" s="85">
+      <c r="F39" s="115">
+        <v>100</v>
+      </c>
+      <c r="G39" s="113">
         <v>41105</v>
       </c>
-      <c r="H39" s="85">
+      <c r="H39" s="113">
         <v>41107</v>
       </c>
-      <c r="I39" s="119" t="str">
+      <c r="I39" s="116" t="str">
         <f>_xll.qlBTP2(C39,,D39,E39,F39,G39,H39,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0004840788#0002</v>
-      </c>
-      <c r="J39" s="119" t="b">
+        <v>IT0004840788#0000</v>
+      </c>
+      <c r="J39" s="116" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K39" s="127" t="b">
+      <c r="K39" s="125" t="b">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -6356,37 +6362,37 @@
     </row>
     <row r="40" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="19"/>
-      <c r="B40" s="126" t="str">
+      <c r="B40" s="124" t="str">
         <f>_xll.ohRangeRetrieveError(I40)</f>
         <v/>
       </c>
-      <c r="C40" s="40" t="s">
+      <c r="C40" s="112" t="s">
         <v>40</v>
       </c>
-      <c r="D40" s="85">
+      <c r="D40" s="113">
         <v>42217</v>
       </c>
-      <c r="E40" s="86">
+      <c r="E40" s="114">
         <v>3.7499999999999999E-2</v>
       </c>
-      <c r="F40" s="87">
-        <v>100</v>
-      </c>
-      <c r="G40" s="85">
+      <c r="F40" s="115">
+        <v>100</v>
+      </c>
+      <c r="G40" s="113">
         <v>38384</v>
       </c>
-      <c r="H40" s="85">
+      <c r="H40" s="113">
         <v>38474</v>
       </c>
-      <c r="I40" s="119" t="str">
+      <c r="I40" s="116" t="str">
         <f>_xll.qlBTP2(C40,,D40,E40,F40,G40,H40,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0003844534#0002</v>
-      </c>
-      <c r="J40" s="119" t="b">
+        <v>IT0003844534#0000</v>
+      </c>
+      <c r="J40" s="116" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K40" s="127" t="b">
+      <c r="K40" s="125" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -6430,7 +6436,7 @@
       </c>
       <c r="I41" s="119" t="str">
         <f>_xll.qlBTP2(C41,,D41,E41,F41,G41,H41,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0004656275#0002</v>
+        <v>IT0004656275#0000</v>
       </c>
       <c r="J41" s="119" t="b">
         <f t="shared" si="0"/>
@@ -6479,7 +6485,7 @@
       </c>
       <c r="I42" s="119" t="str">
         <f>_xll.qlBTP2(C42,,D42,E42,F42,G42,H42,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0004880990#0002</v>
+        <v>IT0004880990#0000</v>
       </c>
       <c r="J42" s="119" t="b">
         <f t="shared" si="0"/>
@@ -6529,7 +6535,7 @@
       </c>
       <c r="I43" s="119" t="str">
         <f>_xll.qlBTP2(C43,,D43,E43,F43,G43,H43,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0004712748#0002</v>
+        <v>IT0004712748#0000</v>
       </c>
       <c r="J43" s="119" t="b">
         <f t="shared" si="0"/>
@@ -6578,7 +6584,7 @@
       </c>
       <c r="I44" s="119" t="str">
         <f>_xll.qlBTP2(C44,,D44,E44,F44,G44,H44,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0004917792#0002</v>
+        <v>IT0004917792#0000</v>
       </c>
       <c r="J44" s="119" t="b">
         <f t="shared" si="0"/>
@@ -6628,7 +6634,7 @@
       </c>
       <c r="I45" s="119" t="str">
         <f>_xll.qlBTP2(C45,,D45,E45,F45,G45,H45,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0004019581#0002</v>
+        <v>IT0004019581#0000</v>
       </c>
       <c r="J45" s="119" t="b">
         <f t="shared" si="0"/>
@@ -6678,7 +6684,7 @@
       </c>
       <c r="I46" s="119" t="str">
         <f>_xll.qlBTP2(C46,,D46,E46,F46,G46,H46,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0004761950#0002</v>
+        <v>IT0004761950#0000</v>
       </c>
       <c r="J46" s="119" t="b">
         <f t="shared" si="0"/>
@@ -6727,7 +6733,7 @@
       </c>
       <c r="I47" s="119" t="str">
         <f>_xll.qlBTP2(C47,,D47,E47,F47,G47,H47,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0004960826#0002</v>
+        <v>IT0004960826#0000</v>
       </c>
       <c r="J47" s="119" t="b">
         <f t="shared" si="0"/>
@@ -6777,7 +6783,7 @@
       </c>
       <c r="I48" s="119" t="str">
         <f>_xll.qlBTP2(C48,,D48,E48,F48,G48,H48,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0004987191#0002</v>
+        <v>IT0004987191#0000</v>
       </c>
       <c r="J48" s="119" t="b">
         <f t="shared" si="0"/>
@@ -6827,7 +6833,7 @@
       </c>
       <c r="I49" s="119" t="str">
         <f>_xll.qlBTP2(C49,,D49,E49,F49,G49,H49,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0004164775#0002</v>
+        <v>IT0004164775#0000</v>
       </c>
       <c r="J49" s="119" t="b">
         <f t="shared" si="0"/>
@@ -6877,7 +6883,7 @@
       </c>
       <c r="I50" s="119" t="str">
         <f>_xll.qlBTP2(C50,,D50,E50,F50,G50,H50,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0004793474#0002</v>
+        <v>IT0004793474#0000</v>
       </c>
       <c r="J50" s="119" t="b">
         <f t="shared" si="0"/>
@@ -6926,7 +6932,7 @@
       </c>
       <c r="I51" s="119" t="str">
         <f>_xll.qlBTP2(C51,,D51,E51,F51,G51,H51,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0005023459#0002</v>
+        <v>IT0005023459#0000</v>
       </c>
       <c r="J51" s="119" t="b">
         <f t="shared" si="0"/>
@@ -6975,7 +6981,7 @@
       </c>
       <c r="I52" s="119" t="str">
         <f>_xll.qlBTP2(C52,,D52,E52,F52,G52,H52,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0004820426#0002</v>
+        <v>IT0004820426#0000</v>
       </c>
       <c r="J52" s="119" t="b">
         <f t="shared" si="0"/>
@@ -7024,7 +7030,7 @@
       </c>
       <c r="I53" s="119" t="str">
         <f>_xll.qlBTP2(C53,,D53,E53,F53,G53,H53,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0003242747#0002</v>
+        <v>IT0003242747#0000</v>
       </c>
       <c r="J53" s="119" t="b">
         <f t="shared" si="0"/>
@@ -7074,7 +7080,7 @@
       </c>
       <c r="I54" s="119" t="str">
         <f>_xll.qlBTP2(C54,,D54,E54,F54,G54,H54,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0004867070#0002</v>
+        <v>IT0004867070#0000</v>
       </c>
       <c r="J54" s="119" t="b">
         <f t="shared" si="0"/>
@@ -7123,7 +7129,7 @@
       </c>
       <c r="I55" s="119" t="str">
         <f>_xll.qlBTP2(C55,,D55,E55,F55,G55,H55,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0005058463#0002</v>
+        <v>IT0005058463#0000</v>
       </c>
       <c r="J55" s="119" t="b">
         <f t="shared" si="0"/>
@@ -7172,7 +7178,7 @@
       </c>
       <c r="I56" s="119" t="str">
         <f>_xll.qlBTP2(C56,,D56,E56,F56,G56,H56,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0004273493#0002</v>
+        <v>IT0004273493#0000</v>
       </c>
       <c r="J56" s="119" t="b">
         <f t="shared" si="0"/>
@@ -7222,7 +7228,7 @@
       </c>
       <c r="I57" s="119" t="str">
         <f>_xll.qlBTP2(C57,,D57,E57,F57,G57,H57,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0005106049#0002</v>
+        <v>IT0005106049#0000</v>
       </c>
       <c r="J57" s="119" t="b">
         <f t="shared" si="0"/>
@@ -7272,7 +7278,7 @@
       </c>
       <c r="I58" s="119" t="str">
         <f>_xll.qlBTP2(C58,,D58,E58,F58,G58,H58,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0004907843#0002</v>
+        <v>IT0004907843#0000</v>
       </c>
       <c r="J58" s="119" t="b">
         <f t="shared" si="0"/>
@@ -7321,7 +7327,7 @@
       </c>
       <c r="I59" s="119" t="str">
         <f>_xll.qlBTP2(C59,,D59,E59,F59,G59,H59,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0004361041#0002</v>
+        <v>IT0004361041#0000</v>
       </c>
       <c r="J59" s="119" t="b">
         <f t="shared" si="0"/>
@@ -7371,7 +7377,7 @@
       </c>
       <c r="I60" s="119" t="str">
         <f>_xll.qlBTP2(C60,,D60,E60,F60,G60,H60,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0004957574#0002</v>
+        <v>IT0004957574#0000</v>
       </c>
       <c r="J60" s="119" t="b">
         <f t="shared" si="0"/>
@@ -7420,7 +7426,7 @@
       </c>
       <c r="I61" s="119" t="str">
         <f>_xll.qlBTP2(C61,,D61,E61,F61,G61,H61,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0003493258#0002</v>
+        <v>IT0003493258#0000</v>
       </c>
       <c r="J61" s="119" t="b">
         <f t="shared" si="0"/>
@@ -7470,7 +7476,7 @@
       </c>
       <c r="I62" s="119" t="str">
         <f>_xll.qlBTP2(C62,,D62,E62,F62,G62,H62,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0004423957#0002</v>
+        <v>IT0004423957#0000</v>
       </c>
       <c r="J62" s="119" t="b">
         <f t="shared" si="0"/>
@@ -7520,7 +7526,7 @@
       </c>
       <c r="I63" s="119" t="str">
         <f>_xll.qlBTP2(C63,,D63,E63,F63,G63,H63,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0004992308#0002</v>
+        <v>IT0004992308#0000</v>
       </c>
       <c r="J63" s="119" t="b">
         <f t="shared" si="0"/>
@@ -7570,7 +7576,7 @@
       </c>
       <c r="I64" s="119" t="str">
         <f>_xll.qlBTP2(C64,,D64,E64,F64,G64,H64,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0005030504#0002</v>
+        <v>IT0005030504#0000</v>
       </c>
       <c r="J64" s="119" t="b">
         <f t="shared" si="0"/>
@@ -7619,7 +7625,7 @@
       </c>
       <c r="I65" s="119" t="str">
         <f>_xll.qlBTP2(C65,,D65,E65,F65,G65,H65,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0004489610#0002</v>
+        <v>IT0004489610#0000</v>
       </c>
       <c r="J65" s="119" t="b">
         <f t="shared" si="0"/>
@@ -7669,7 +7675,7 @@
       </c>
       <c r="I66" s="119" t="str">
         <f>_xll.qlBTP2(C66,,D66,E66,F66,G66,H66,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0005069395#0002</v>
+        <v>IT0005069395#0000</v>
       </c>
       <c r="J66" s="119" t="b">
         <f t="shared" si="0"/>
@@ -7718,7 +7724,7 @@
       </c>
       <c r="I67" s="119" t="str">
         <f>_xll.qlBTP2(C67,,D67,E67,F67,G67,H67,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0003644769#0002</v>
+        <v>IT0003644769#0000</v>
       </c>
       <c r="J67" s="119" t="b">
         <f t="shared" si="0"/>
@@ -7768,7 +7774,7 @@
       </c>
       <c r="I68" s="119" t="str">
         <f>_xll.qlBTP2(C68,,D68,E68,F68,G68,H68,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0004536949#0002</v>
+        <v>IT0004536949#0000</v>
       </c>
       <c r="J68" s="119" t="b">
         <f t="shared" si="0"/>
@@ -7818,7 +7824,7 @@
       </c>
       <c r="I69" s="119" t="str">
         <f>_xll.qlBTP2(C69,,D69,E69,F69,G69,H69,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0005107708#0002</v>
+        <v>IT0005107708#0000</v>
       </c>
       <c r="J69" s="119" t="b">
         <f t="shared" si="0"/>
@@ -7868,7 +7874,7 @@
       </c>
       <c r="I70" s="119" t="str">
         <f>_xll.qlBTP2(C70,,D70,E70,F70,G70,H70,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0004594930#0002</v>
+        <v>IT0004594930#0000</v>
       </c>
       <c r="J70" s="119" t="b">
         <f t="shared" si="0"/>
@@ -7917,7 +7923,7 @@
       </c>
       <c r="I71" s="119" t="str">
         <f>_xll.qlBTP2(C71,,D71,E71,F71,G71,H71,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0004634132#0002</v>
+        <v>IT0004634132#0000</v>
       </c>
       <c r="J71" s="119" t="b">
         <f t="shared" si="0"/>
@@ -7968,7 +7974,7 @@
       </c>
       <c r="I72" s="119" t="str">
         <f>_xll.qlBTP2(C72,,D72,E72,F72,G72,H72,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0004966401#0002</v>
+        <v>IT0004966401#0000</v>
       </c>
       <c r="J72" s="119" t="b">
         <f t="shared" si="0"/>
@@ -8018,10 +8024,10 @@
       </c>
       <c r="I73" s="119" t="str">
         <f>_xll.qlBTP2(C73,,D73,E73,F73,G73,H73,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0004009673#0002</v>
+        <v>IT0004009673#0000</v>
       </c>
       <c r="J73" s="119" t="b">
-        <f t="shared" ref="J73:J102" si="8">IF(AND(H73&gt;$J$6,D73&gt;$J$5),TRUE,FALSE)</f>
+        <f t="shared" ref="J73:J104" si="8">IF(AND(H73&gt;$J$6,D73&gt;$J$5),TRUE,FALSE)</f>
         <v>0</v>
       </c>
       <c r="K73" s="127" t="b">
@@ -8069,7 +8075,7 @@
       </c>
       <c r="I74" s="119" t="str">
         <f>_xll.qlBTP2(C74,,D74,E74,F74,G74,H74,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0004695075#0002</v>
+        <v>IT0004695075#0000</v>
       </c>
       <c r="J74" s="119" t="b">
         <f t="shared" si="8"/>
@@ -8120,7 +8126,7 @@
       </c>
       <c r="I75" s="119" t="str">
         <f>_xll.qlBTP2(C75,,D75,E75,F75,G75,H75,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0005028003#0002</v>
+        <v>IT0005028003#0000</v>
       </c>
       <c r="J75" s="119" t="b">
         <f t="shared" si="8"/>
@@ -8170,7 +8176,7 @@
       </c>
       <c r="I76" s="119" t="str">
         <f>_xll.qlBTP2(C76,,D76,E76,F76,G76,H76,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0004759673#0002</v>
+        <v>IT0004759673#0000</v>
       </c>
       <c r="J76" s="119" t="b">
         <f t="shared" si="8"/>
@@ -8221,7 +8227,7 @@
       </c>
       <c r="I77" s="119" t="str">
         <f>_xll.qlBTP2(C77,,D77,E77,F77,G77,H77,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0005086886#0002</v>
+        <v>IT0005086886#0000</v>
       </c>
       <c r="J77" s="119" t="b">
         <f t="shared" si="8"/>
@@ -8272,7 +8278,7 @@
       </c>
       <c r="I78" s="119" t="str">
         <f>_xll.qlBTP2(C78,,D78,E78,F78,G78,H78,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0004801541#0002</v>
+        <v>IT0004801541#0000</v>
       </c>
       <c r="J78" s="119" t="b">
         <f t="shared" si="8"/>
@@ -8304,38 +8310,38 @@
         <v/>
       </c>
       <c r="C79" s="40" t="s">
-        <v>431</v>
+        <v>465</v>
       </c>
       <c r="D79" s="85">
-        <v>44866</v>
+        <v>44819</v>
       </c>
       <c r="E79" s="86">
-        <v>5.5E-2</v>
+        <v>1.4500000000000001E-2</v>
       </c>
       <c r="F79" s="87">
         <v>100</v>
       </c>
       <c r="G79" s="85">
-        <v>41030</v>
+        <v>42262</v>
       </c>
       <c r="H79" s="85">
-        <v>41155</v>
+        <v>42262</v>
       </c>
       <c r="I79" s="119" t="str">
         <f>_xll.qlBTP2(C79,,D79,E79,F79,G79,H79,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0004848831#0002</v>
+        <v>IT0005135840#0000</v>
       </c>
       <c r="J79" s="119" t="b">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" ref="J79" si="10">IF(AND(H79&gt;$J$6,D79&gt;$J$5),TRUE,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="K79" s="127" t="b">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L79" s="121" t="str">
-        <f t="shared" si="1"/>
-        <v>Residual Missing</v>
+        <f t="shared" ref="L79" si="11">IF(AND(K79,ISNA(M79),ISNA(N79)),"Residual Missing","--")</f>
+        <v>--</v>
       </c>
       <c r="M79" s="48" t="e">
         <f>LEFT(VLOOKUP($D79,'BTP Strip May-Nov'!$H$8:$M$13,6,FALSE),12)</f>
@@ -8355,32 +8361,33 @@
         <v/>
       </c>
       <c r="C80" s="40" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="D80" s="85">
-        <v>45047</v>
+        <v>44866</v>
       </c>
       <c r="E80" s="86">
-        <v>4.4999999999999998E-2</v>
+        <v>5.5E-2</v>
       </c>
       <c r="F80" s="87">
         <v>100</v>
       </c>
       <c r="G80" s="85">
-        <v>41334</v>
+        <v>41030</v>
       </c>
       <c r="H80" s="85">
-        <v>41334</v>
+        <v>41155</v>
       </c>
       <c r="I80" s="119" t="str">
         <f>_xll.qlBTP2(C80,,D80,E80,F80,G80,H80,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0004898034#0002</v>
+        <v>IT0004848831#0000</v>
       </c>
       <c r="J80" s="119" t="b">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K80" s="127" t="b">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="L80" s="121" t="str">
@@ -8405,46 +8412,45 @@
         <v/>
       </c>
       <c r="C81" s="40" t="s">
-        <v>50</v>
+        <v>438</v>
       </c>
       <c r="D81" s="85">
-        <v>45139</v>
+        <v>45047</v>
       </c>
       <c r="E81" s="86">
-        <v>4.7500000000000001E-2</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="F81" s="87">
         <v>100</v>
       </c>
       <c r="G81" s="85">
-        <v>39479</v>
+        <v>41334</v>
       </c>
       <c r="H81" s="85">
-        <v>39554</v>
+        <v>41334</v>
       </c>
       <c r="I81" s="119" t="str">
         <f>_xll.qlBTP2(C81,,D81,E81,F81,G81,H81,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0004356843#0002</v>
+        <v>IT0004898034#0000</v>
       </c>
       <c r="J81" s="119" t="b">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K81" s="127" t="b">
-        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="L81" s="121" t="str">
         <f t="shared" si="1"/>
-        <v>--</v>
+        <v>Residual Missing</v>
       </c>
       <c r="M81" s="48" t="e">
         <f>LEFT(VLOOKUP($D81,'BTP Strip May-Nov'!$H$8:$M$13,6,FALSE),12)</f>
         <v>#N/A</v>
       </c>
-      <c r="N81" s="120" t="str">
+      <c r="N81" s="120" t="e">
         <f>LEFT(VLOOKUP($D81,'BTP Strip Feb-Aug'!$H$8:$M$27,6,FALSE),12)</f>
-        <v>IT0004359029</v>
+        <v>#N/A</v>
       </c>
       <c r="O81" s="27"/>
       <c r="P81" s="18"/>
@@ -8456,26 +8462,26 @@
         <v/>
       </c>
       <c r="C82" s="40" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D82" s="85">
-        <v>45231</v>
+        <v>45139</v>
       </c>
       <c r="E82" s="86">
-        <v>0.09</v>
+        <v>4.7500000000000001E-2</v>
       </c>
       <c r="F82" s="87">
-        <v>99.909000000000006</v>
+        <v>100</v>
       </c>
       <c r="G82" s="85">
-        <v>34274</v>
+        <v>39479</v>
       </c>
       <c r="H82" s="85">
-        <v>34291</v>
+        <v>39554</v>
       </c>
       <c r="I82" s="119" t="str">
         <f>_xll.qlBTP2(C82,,D82,E82,F82,G82,H82,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0000366655#0002</v>
+        <v>IT0004356843#0000</v>
       </c>
       <c r="J82" s="119" t="b">
         <f t="shared" si="8"/>
@@ -8486,16 +8492,16 @@
         <v>1</v>
       </c>
       <c r="L82" s="121" t="str">
-        <f t="shared" ref="L82:L102" si="10">IF(AND(K82,ISNA(M82),ISNA(N82)),"Residual Missing","--")</f>
+        <f t="shared" si="1"/>
         <v>--</v>
       </c>
-      <c r="M82" s="48" t="str">
+      <c r="M82" s="48" t="e">
         <f>LEFT(VLOOKUP($D82,'BTP Strip May-Nov'!$H$8:$M$13,6,FALSE),12)</f>
-        <v>IT0001246799</v>
-      </c>
-      <c r="N82" s="120" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N82" s="120" t="str">
         <f>LEFT(VLOOKUP($D82,'BTP Strip Feb-Aug'!$H$8:$M$27,6,FALSE),12)</f>
-        <v>#N/A</v>
+        <v>IT0004359029</v>
       </c>
       <c r="O82" s="27"/>
       <c r="P82" s="18"/>
@@ -8507,41 +8513,42 @@
         <v/>
       </c>
       <c r="C83" s="40" t="s">
-        <v>441</v>
+        <v>46</v>
       </c>
       <c r="D83" s="85">
-        <v>45352</v>
+        <v>45231</v>
       </c>
       <c r="E83" s="86">
-        <v>4.4999999999999998E-2</v>
+        <v>0.09</v>
       </c>
       <c r="F83" s="87">
-        <v>100</v>
+        <v>99.909000000000006</v>
       </c>
       <c r="G83" s="85">
-        <v>41487</v>
+        <v>34274</v>
       </c>
       <c r="H83" s="85">
-        <v>41487</v>
+        <v>34291</v>
       </c>
       <c r="I83" s="119" t="str">
         <f>_xll.qlBTP2(C83,,D83,E83,F83,G83,H83,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0004953417#0002</v>
+        <v>IT0000366655#0000</v>
       </c>
       <c r="J83" s="119" t="b">
         <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K83" s="127" t="b">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="K83" s="127" t="b">
-        <v>1</v>
-      </c>
       <c r="L83" s="121" t="str">
-        <f>IF(AND(K83,ISNA(M83),ISNA(N83)),"Residual Missing","--")</f>
-        <v>Residual Missing</v>
-      </c>
-      <c r="M83" s="48" t="e">
+        <f t="shared" ref="L83:L104" si="12">IF(AND(K83,ISNA(M83),ISNA(N83)),"Residual Missing","--")</f>
+        <v>--</v>
+      </c>
+      <c r="M83" s="48" t="str">
         <f>LEFT(VLOOKUP($D83,'BTP Strip May-Nov'!$H$8:$M$13,6,FALSE),12)</f>
-        <v>#N/A</v>
+        <v>IT0001246799</v>
       </c>
       <c r="N83" s="120" t="e">
         <f>LEFT(VLOOKUP($D83,'BTP Strip Feb-Aug'!$H$8:$M$27,6,FALSE),12)</f>
@@ -8557,26 +8564,26 @@
         <v/>
       </c>
       <c r="C84" s="40" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="D84" s="85">
-        <v>45536</v>
+        <v>45352</v>
       </c>
       <c r="E84" s="86">
-        <v>3.7499999999999999E-2</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="F84" s="87">
         <v>100</v>
       </c>
       <c r="G84" s="85">
-        <v>41699</v>
+        <v>41487</v>
       </c>
       <c r="H84" s="85">
-        <v>41701</v>
+        <v>41487</v>
       </c>
       <c r="I84" s="119" t="str">
         <f>_xll.qlBTP2(C84,,D84,E84,F84,G84,H84,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0005001547#0002</v>
+        <v>IT0004953417#0000</v>
       </c>
       <c r="J84" s="119" t="b">
         <f t="shared" si="8"/>
@@ -8607,26 +8614,26 @@
         <v/>
       </c>
       <c r="C85" s="40" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="D85" s="85">
-        <v>45627</v>
+        <v>45536</v>
       </c>
       <c r="E85" s="86">
-        <v>2.5000000000000001E-2</v>
+        <v>3.7499999999999999E-2</v>
       </c>
       <c r="F85" s="87">
         <v>100</v>
       </c>
       <c r="G85" s="85">
-        <v>41883</v>
+        <v>41699</v>
       </c>
       <c r="H85" s="85">
-        <v>41883</v>
+        <v>41701</v>
       </c>
       <c r="I85" s="119" t="str">
         <f>_xll.qlBTP2(C85,,D85,E85,F85,G85,H85,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0005045270#0002</v>
+        <v>IT0005001547#0000</v>
       </c>
       <c r="J85" s="119" t="b">
         <f t="shared" si="8"/>
@@ -8657,36 +8664,36 @@
         <v/>
       </c>
       <c r="C86" s="40" t="s">
-        <v>70</v>
+        <v>451</v>
       </c>
       <c r="D86" s="85">
-        <v>45717</v>
+        <v>45627</v>
       </c>
       <c r="E86" s="86">
-        <v>0.05</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="F86" s="87">
         <v>100</v>
       </c>
       <c r="G86" s="85">
-        <v>39873</v>
+        <v>41883</v>
       </c>
       <c r="H86" s="85">
-        <v>40009</v>
+        <v>41883</v>
       </c>
       <c r="I86" s="119" t="str">
         <f>_xll.qlBTP2(C86,,D86,E86,F86,G86,H86,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0004513641#0002</v>
+        <v>IT0005045270#0000</v>
       </c>
       <c r="J86" s="119" t="b">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K86" s="127" t="b">
         <v>1</v>
       </c>
       <c r="L86" s="121" t="str">
-        <f t="shared" si="10"/>
+        <f>IF(AND(K86,ISNA(M86),ISNA(N86)),"Residual Missing","--")</f>
         <v>Residual Missing</v>
       </c>
       <c r="M86" s="48" t="e">
@@ -8707,38 +8714,37 @@
         <v/>
       </c>
       <c r="C87" s="40" t="s">
-        <v>455</v>
+        <v>70</v>
       </c>
       <c r="D87" s="85">
-        <v>45809</v>
+        <v>45717</v>
       </c>
       <c r="E87" s="86">
-        <v>1.4999999999999999E-2</v>
+        <v>0.05</v>
       </c>
       <c r="F87" s="87">
         <v>100</v>
       </c>
       <c r="G87" s="85">
-        <v>42065</v>
+        <v>39873</v>
       </c>
       <c r="H87" s="85">
-        <v>42065</v>
+        <v>40009</v>
       </c>
       <c r="I87" s="119" t="str">
         <f>_xll.qlBTP2(C87,,D87,E87,F87,G87,H87,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0005090318#0002</v>
+        <v>IT0004513641#0000</v>
       </c>
       <c r="J87" s="119" t="b">
         <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K87" s="127" t="b">
         <v>1</v>
       </c>
-      <c r="K87" s="127" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
       <c r="L87" s="121" t="str">
-        <f t="shared" ref="L87" si="11">IF(AND(K87,ISNA(M87),ISNA(N87)),"Residual Missing","--")</f>
-        <v>--</v>
+        <f t="shared" si="12"/>
+        <v>Residual Missing</v>
       </c>
       <c r="M87" s="48" t="e">
         <f>LEFT(VLOOKUP($D87,'BTP Strip May-Nov'!$H$8:$M$13,6,FALSE),12)</f>
@@ -8758,38 +8764,38 @@
         <v/>
       </c>
       <c r="C88" s="40" t="s">
-        <v>410</v>
+        <v>455</v>
       </c>
       <c r="D88" s="85">
-        <v>46082</v>
+        <v>45809</v>
       </c>
       <c r="E88" s="86">
-        <v>4.4999999999999998E-2</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="F88" s="87">
         <v>100</v>
       </c>
       <c r="G88" s="85">
-        <v>40422</v>
+        <v>42065</v>
       </c>
       <c r="H88" s="85">
-        <v>40450</v>
+        <v>42065</v>
       </c>
       <c r="I88" s="119" t="str">
         <f>_xll.qlBTP2(C88,,D88,E88,F88,G88,H88,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0004644735#0002</v>
+        <v>IT0005090318#0000</v>
       </c>
       <c r="J88" s="119" t="b">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K88" s="127" t="b">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L88" s="121" t="str">
-        <f t="shared" si="10"/>
-        <v>Residual Missing</v>
+        <f t="shared" ref="L88" si="13">IF(AND(K88,ISNA(M88),ISNA(N88)),"Residual Missing","--")</f>
+        <v>--</v>
       </c>
       <c r="M88" s="48" t="e">
         <f>LEFT(VLOOKUP($D88,'BTP Strip May-Nov'!$H$8:$M$13,6,FALSE),12)</f>
@@ -8802,55 +8808,56 @@
       <c r="O88" s="27"/>
       <c r="P88" s="18"/>
     </row>
-    <row r="89" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A89" s="19"/>
       <c r="B89" s="126" t="str">
         <f>_xll.ohRangeRetrieveError(I89)</f>
         <v/>
       </c>
       <c r="C89" s="40" t="s">
-        <v>47</v>
+        <v>464</v>
       </c>
       <c r="D89" s="85">
-        <v>46327</v>
+        <v>45992</v>
       </c>
       <c r="E89" s="86">
-        <v>7.2499999999999995E-2</v>
+        <v>0.02</v>
       </c>
       <c r="F89" s="87">
-        <v>99.999000000000009</v>
+        <v>100</v>
       </c>
       <c r="G89" s="85">
-        <v>35370</v>
+        <v>42248</v>
       </c>
       <c r="H89" s="85">
-        <v>35464</v>
+        <v>42248</v>
       </c>
       <c r="I89" s="119" t="str">
         <f>_xll.qlBTP2(C89,,D89,E89,F89,G89,H89,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0001086567#0002</v>
+        <v>IT0005127086#0000</v>
       </c>
       <c r="J89" s="119" t="b">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" ref="J89" si="14">IF(AND(H89&gt;$J$6,D89&gt;$J$5),TRUE,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="K89" s="127" t="b">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L89" s="121" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" ref="L89" si="15">IF(AND(K89,ISNA(M89),ISNA(N89)),"Residual Missing","--")</f>
         <v>--</v>
       </c>
-      <c r="M89" s="48" t="str">
+      <c r="M89" s="48" t="e">
         <f>LEFT(VLOOKUP($D89,'BTP Strip May-Nov'!$H$8:$M$13,6,FALSE),12)</f>
-        <v>IT0001246807</v>
+        <v>#N/A</v>
       </c>
       <c r="N89" s="120" t="e">
         <f>LEFT(VLOOKUP($D89,'BTP Strip Feb-Aug'!$H$8:$M$27,6,FALSE),12)</f>
         <v>#N/A</v>
       </c>
       <c r="O89" s="27"/>
+      <c r="P89" s="18"/>
     </row>
     <row r="90" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A90" s="19"/>
@@ -8859,26 +8866,26 @@
         <v/>
       </c>
       <c r="C90" s="40" t="s">
-        <v>31</v>
+        <v>410</v>
       </c>
       <c r="D90" s="85">
-        <v>46692</v>
+        <v>46082</v>
       </c>
       <c r="E90" s="86">
-        <v>6.5000000000000002E-2</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="F90" s="87">
         <v>100</v>
       </c>
       <c r="G90" s="85">
-        <v>35735</v>
+        <v>40422</v>
       </c>
       <c r="H90" s="85">
-        <v>35752</v>
+        <v>40450</v>
       </c>
       <c r="I90" s="119" t="str">
         <f>_xll.qlBTP2(C90,,D90,E90,F90,G90,H90,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0001174611#0002</v>
+        <v>IT0004644735#0000</v>
       </c>
       <c r="J90" s="119" t="b">
         <f t="shared" si="8"/>
@@ -8889,61 +8896,63 @@
         <v>1</v>
       </c>
       <c r="L90" s="121" t="str">
-        <f t="shared" si="10"/>
-        <v>--</v>
-      </c>
-      <c r="M90" s="48" t="str">
+        <f t="shared" si="12"/>
+        <v>Residual Missing</v>
+      </c>
+      <c r="M90" s="48" t="e">
         <f>LEFT(VLOOKUP($D90,'BTP Strip May-Nov'!$H$8:$M$13,6,FALSE),12)</f>
-        <v>IT0001246815</v>
+        <v>#N/A</v>
       </c>
       <c r="N90" s="120" t="e">
         <f>LEFT(VLOOKUP($D90,'BTP Strip Feb-Aug'!$H$8:$M$27,6,FALSE),12)</f>
         <v>#N/A</v>
       </c>
       <c r="O90" s="27"/>
-    </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P90" s="18"/>
+    </row>
+    <row r="91" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A91" s="19"/>
       <c r="B91" s="126" t="str">
         <f>_xll.ohRangeRetrieveError(I91)</f>
         <v/>
       </c>
       <c r="C91" s="40" t="s">
-        <v>439</v>
+        <v>47</v>
       </c>
       <c r="D91" s="85">
-        <v>46997</v>
+        <v>46327</v>
       </c>
       <c r="E91" s="86">
-        <v>4.7500000000000001E-2</v>
+        <v>7.2499999999999995E-2</v>
       </c>
       <c r="F91" s="87">
-        <v>100</v>
+        <v>99.999000000000009</v>
       </c>
       <c r="G91" s="85">
-        <v>41296</v>
+        <v>35370</v>
       </c>
       <c r="H91" s="85">
-        <v>41296</v>
+        <v>35464</v>
       </c>
       <c r="I91" s="119" t="str">
         <f>_xll.qlBTP2(C91,,D91,E91,F91,G91,H91,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0004889033#0002</v>
+        <v>IT0001086567#0000</v>
       </c>
       <c r="J91" s="119" t="b">
         <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K91" s="127" t="b">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="K91" s="127" t="b">
-        <v>1</v>
-      </c>
       <c r="L91" s="121" t="str">
-        <f t="shared" si="10"/>
-        <v>Residual Missing</v>
-      </c>
-      <c r="M91" s="48" t="e">
+        <f t="shared" si="12"/>
+        <v>--</v>
+      </c>
+      <c r="M91" s="48" t="str">
         <f>LEFT(VLOOKUP($D91,'BTP Strip May-Nov'!$H$8:$M$13,6,FALSE),12)</f>
-        <v>#N/A</v>
+        <v>IT0001246807</v>
       </c>
       <c r="N91" s="120" t="e">
         <f>LEFT(VLOOKUP($D91,'BTP Strip Feb-Aug'!$H$8:$M$27,6,FALSE),12)</f>
@@ -8958,26 +8967,26 @@
         <v/>
       </c>
       <c r="C92" s="40" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D92" s="85">
-        <v>47423</v>
+        <v>46692</v>
       </c>
       <c r="E92" s="86">
-        <v>5.2499999999999998E-2</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="F92" s="87">
         <v>100</v>
       </c>
       <c r="G92" s="85">
-        <v>36100</v>
+        <v>35735</v>
       </c>
       <c r="H92" s="85">
-        <v>36117</v>
+        <v>35752</v>
       </c>
       <c r="I92" s="119" t="str">
         <f>_xll.qlBTP2(C92,,D92,E92,F92,G92,H92,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0001278511#0002</v>
+        <v>IT0001174611#0000</v>
       </c>
       <c r="J92" s="119" t="b">
         <f t="shared" si="8"/>
@@ -8988,12 +8997,12 @@
         <v>1</v>
       </c>
       <c r="L92" s="121" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>--</v>
       </c>
       <c r="M92" s="48" t="str">
         <f>LEFT(VLOOKUP($D92,'BTP Strip May-Nov'!$H$8:$M$13,6,FALSE),12)</f>
-        <v>IT0001312773</v>
+        <v>IT0001246815</v>
       </c>
       <c r="N92" s="120" t="e">
         <f>LEFT(VLOOKUP($D92,'BTP Strip Feb-Aug'!$H$8:$M$27,6,FALSE),12)</f>
@@ -9008,37 +9017,37 @@
         <v/>
       </c>
       <c r="C93" s="40" t="s">
-        <v>450</v>
+        <v>439</v>
       </c>
       <c r="D93" s="85">
-        <v>47543</v>
+        <v>46997</v>
       </c>
       <c r="E93" s="86">
-        <v>3.5000000000000003E-2</v>
+        <v>4.7500000000000001E-2</v>
       </c>
       <c r="F93" s="87">
         <v>100</v>
       </c>
       <c r="G93" s="85">
-        <v>41699</v>
+        <v>41296</v>
       </c>
       <c r="H93" s="85">
-        <v>41699</v>
+        <v>41296</v>
       </c>
       <c r="I93" s="119" t="str">
         <f>_xll.qlBTP2(C93,,D93,E93,F93,G93,H93,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0005024234#0002</v>
+        <v>IT0004889033#0000</v>
       </c>
       <c r="J93" s="119" t="b">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="K93" s="127" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L93" s="121" t="str">
-        <f>IF(AND(K93,ISNA(M93),ISNA(N93)),"Residual Missing","--")</f>
-        <v>--</v>
+        <f t="shared" si="12"/>
+        <v>Residual Missing</v>
       </c>
       <c r="M93" s="48" t="e">
         <f>LEFT(VLOOKUP($D93,'BTP Strip May-Nov'!$H$8:$M$13,6,FALSE),12)</f>
@@ -9057,26 +9066,26 @@
         <v/>
       </c>
       <c r="C94" s="40" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D94" s="85">
-        <v>47969</v>
+        <v>47423</v>
       </c>
       <c r="E94" s="86">
-        <v>0.06</v>
+        <v>5.2499999999999998E-2</v>
       </c>
       <c r="F94" s="87">
         <v>100</v>
       </c>
       <c r="G94" s="85">
-        <v>36465</v>
+        <v>36100</v>
       </c>
       <c r="H94" s="85">
-        <v>36602</v>
+        <v>36117</v>
       </c>
       <c r="I94" s="119" t="str">
         <f>_xll.qlBTP2(C94,,D94,E94,F94,G94,H94,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0001444378#0002</v>
+        <v>IT0001278511#0000</v>
       </c>
       <c r="J94" s="119" t="b">
         <f t="shared" si="8"/>
@@ -9087,12 +9096,12 @@
         <v>1</v>
       </c>
       <c r="L94" s="121" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>--</v>
       </c>
       <c r="M94" s="48" t="str">
         <f>LEFT(VLOOKUP($D94,'BTP Strip May-Nov'!$H$8:$M$13,6,FALSE),12)</f>
-        <v>IT0001464186</v>
+        <v>IT0001312773</v>
       </c>
       <c r="N94" s="120" t="e">
         <f>LEFT(VLOOKUP($D94,'BTP Strip Feb-Aug'!$H$8:$M$27,6,FALSE),12)</f>
@@ -9107,37 +9116,36 @@
         <v/>
       </c>
       <c r="C95" s="40" t="s">
-        <v>459</v>
+        <v>450</v>
       </c>
       <c r="D95" s="85">
-        <v>48274</v>
+        <v>47543</v>
       </c>
       <c r="E95" s="86">
-        <v>1.6500000000000001E-2</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="F95" s="87">
         <v>100</v>
       </c>
       <c r="G95" s="85">
-        <v>42064</v>
+        <v>41699</v>
       </c>
       <c r="H95" s="85">
-        <v>42087</v>
+        <v>41699</v>
       </c>
       <c r="I95" s="119" t="str">
         <f>_xll.qlBTP2(C95,,D95,E95,F95,G95,H95,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0005094088#0002</v>
+        <v>IT0005024234#0000</v>
       </c>
       <c r="J95" s="119" t="b">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="K95" s="127" t="b">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L95" s="121" t="str">
-        <f t="shared" ref="L95" si="12">IF(AND(K95,ISNA(M95),ISNA(N95)),"Residual Missing","--")</f>
+        <f>IF(AND(K95,ISNA(M95),ISNA(N95)),"Residual Missing","--")</f>
         <v>--</v>
       </c>
       <c r="M95" s="48" t="e">
@@ -9157,26 +9165,26 @@
         <v/>
       </c>
       <c r="C96" s="40" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D96" s="85">
-        <v>48611</v>
+        <v>47969</v>
       </c>
       <c r="E96" s="86">
-        <v>5.7500000000000002E-2</v>
+        <v>0.06</v>
       </c>
       <c r="F96" s="87">
         <v>100</v>
       </c>
       <c r="G96" s="85">
-        <v>37288</v>
+        <v>36465</v>
       </c>
       <c r="H96" s="85">
-        <v>37333</v>
+        <v>36602</v>
       </c>
       <c r="I96" s="119" t="str">
         <f>_xll.qlBTP2(C96,,D96,E96,F96,G96,H96,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0003256820#0002</v>
+        <v>IT0001444378#0000</v>
       </c>
       <c r="J96" s="119" t="b">
         <f t="shared" si="8"/>
@@ -9187,16 +9195,16 @@
         <v>1</v>
       </c>
       <c r="L96" s="121" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>--</v>
       </c>
-      <c r="M96" s="48" t="e">
+      <c r="M96" s="48" t="str">
         <f>LEFT(VLOOKUP($D96,'BTP Strip May-Nov'!$H$8:$M$13,6,FALSE),12)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N96" s="120" t="str">
+        <v>IT0001464186</v>
+      </c>
+      <c r="N96" s="120" t="e">
         <f>LEFT(VLOOKUP($D96,'BTP Strip Feb-Aug'!$H$8:$M$27,6,FALSE),12)</f>
-        <v>IT0003268460</v>
+        <v>#N/A</v>
       </c>
       <c r="O96" s="27"/>
     </row>
@@ -9207,46 +9215,46 @@
         <v/>
       </c>
       <c r="C97" s="40" t="s">
-        <v>49</v>
+        <v>459</v>
       </c>
       <c r="D97" s="85">
-        <v>49157</v>
+        <v>48274</v>
       </c>
       <c r="E97" s="86">
-        <v>0.05</v>
+        <v>1.6500000000000001E-2</v>
       </c>
       <c r="F97" s="87">
         <v>100</v>
       </c>
       <c r="G97" s="85">
-        <v>37834</v>
+        <v>42064</v>
       </c>
       <c r="H97" s="85">
-        <v>37888</v>
+        <v>42087</v>
       </c>
       <c r="I97" s="119" t="str">
         <f>_xll.qlBTP2(C97,,D97,E97,F97,G97,H97,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0003535157#0002</v>
+        <v>IT0005094088#0000</v>
       </c>
       <c r="J97" s="119" t="b">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K97" s="127" t="b">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L97" s="121" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" ref="L97" si="16">IF(AND(K97,ISNA(M97),ISNA(N97)),"Residual Missing","--")</f>
         <v>--</v>
       </c>
       <c r="M97" s="48" t="e">
         <f>LEFT(VLOOKUP($D97,'BTP Strip May-Nov'!$H$8:$M$13,6,FALSE),12)</f>
         <v>#N/A</v>
       </c>
-      <c r="N97" s="120" t="str">
+      <c r="N97" s="120" t="e">
         <f>LEFT(VLOOKUP($D97,'BTP Strip Feb-Aug'!$H$8:$M$27,6,FALSE),12)</f>
-        <v>IT0003540371</v>
+        <v>#N/A</v>
       </c>
       <c r="O97" s="27"/>
     </row>
@@ -9257,37 +9265,37 @@
         <v/>
       </c>
       <c r="C98" s="40" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="D98" s="85">
-        <v>50072</v>
+        <v>48611</v>
       </c>
       <c r="E98" s="86">
-        <v>0.04</v>
+        <v>5.7500000000000002E-2</v>
       </c>
       <c r="F98" s="87">
         <v>100</v>
       </c>
       <c r="G98" s="85">
-        <v>38565</v>
+        <v>37288</v>
       </c>
       <c r="H98" s="85">
-        <v>38644</v>
+        <v>37333</v>
       </c>
       <c r="I98" s="119" t="str">
         <f>_xll.qlBTP2(C98,,D98,E98,F98,G98,H98,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0003934657#0002</v>
+        <v>IT0003256820#0000</v>
       </c>
       <c r="J98" s="119" t="b">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K98" s="127" t="b">
-        <f>NOT(ISNA(VLOOKUP(LEFT($I98,12),LatestStrippable,1,FALSE)))</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="L98" s="121" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>--</v>
       </c>
       <c r="M98" s="48" t="e">
@@ -9296,7 +9304,7 @@
       </c>
       <c r="N98" s="120" t="str">
         <f>LEFT(VLOOKUP($D98,'BTP Strip Feb-Aug'!$H$8:$M$27,6,FALSE),12)</f>
-        <v>IT0004002801</v>
+        <v>IT0003268460</v>
       </c>
       <c r="O98" s="27"/>
     </row>
@@ -9307,10 +9315,10 @@
         <v/>
       </c>
       <c r="C99" s="40" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="D99" s="85">
-        <v>50983</v>
+        <v>49157</v>
       </c>
       <c r="E99" s="86">
         <v>0.05</v>
@@ -9319,25 +9327,25 @@
         <v>100</v>
       </c>
       <c r="G99" s="85">
-        <v>39295</v>
+        <v>37834</v>
       </c>
       <c r="H99" s="85">
-        <v>39378</v>
+        <v>37888</v>
       </c>
       <c r="I99" s="119" t="str">
         <f>_xll.qlBTP2(C99,,D99,E99,F99,G99,H99,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0004286966#0002</v>
+        <v>IT0003535157#0000</v>
       </c>
       <c r="J99" s="119" t="b">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K99" s="127" t="b">
-        <f>NOT(ISNA(VLOOKUP(LEFT($I99,12),LatestStrippable,1,FALSE)))</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="L99" s="121" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>--</v>
       </c>
       <c r="M99" s="48" t="e">
@@ -9346,7 +9354,7 @@
       </c>
       <c r="N99" s="120" t="str">
         <f>LEFT(VLOOKUP($D99,'BTP Strip Feb-Aug'!$H$8:$M$27,6,FALSE),12)</f>
-        <v>IT0004288574</v>
+        <v>IT0003540371</v>
       </c>
       <c r="O99" s="27"/>
     </row>
@@ -9357,26 +9365,26 @@
         <v/>
       </c>
       <c r="C100" s="40" t="s">
-        <v>71</v>
+        <v>15</v>
       </c>
       <c r="D100" s="85">
-        <v>51380</v>
+        <v>50072</v>
       </c>
       <c r="E100" s="86">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="F100" s="87">
         <v>100</v>
       </c>
       <c r="G100" s="85">
-        <v>40057</v>
+        <v>38565</v>
       </c>
       <c r="H100" s="85">
-        <v>40072</v>
+        <v>38644</v>
       </c>
       <c r="I100" s="119" t="str">
         <f>_xll.qlBTP2(C100,,D100,E100,F100,G100,H100,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0004532559#0002</v>
+        <v>IT0003934657#0000</v>
       </c>
       <c r="J100" s="119" t="b">
         <f t="shared" si="8"/>
@@ -9387,16 +9395,16 @@
         <v>1</v>
       </c>
       <c r="L100" s="121" t="str">
-        <f>IF(AND(K100,ISNA(M100),ISNA(N100)),"Residual Missing","--")</f>
-        <v>Residual Missing</v>
+        <f t="shared" si="12"/>
+        <v>--</v>
       </c>
       <c r="M100" s="48" t="e">
         <f>LEFT(VLOOKUP($D100,'BTP Strip May-Nov'!$H$8:$M$13,6,FALSE),12)</f>
         <v>#N/A</v>
       </c>
-      <c r="N100" s="120" t="e">
+      <c r="N100" s="120" t="str">
         <f>LEFT(VLOOKUP($D100,'BTP Strip Feb-Aug'!$H$8:$M$27,6,FALSE),12)</f>
-        <v>#N/A</v>
+        <v>IT0004002801</v>
       </c>
       <c r="O100" s="27"/>
     </row>
@@ -9407,87 +9415,88 @@
         <v/>
       </c>
       <c r="C101" s="40" t="s">
-        <v>440</v>
+        <v>29</v>
       </c>
       <c r="D101" s="85">
-        <v>52841</v>
+        <v>50983</v>
       </c>
       <c r="E101" s="86">
-        <v>4.7500000000000001E-2</v>
+        <v>0.05</v>
       </c>
       <c r="F101" s="87">
         <v>100</v>
       </c>
       <c r="G101" s="85">
-        <v>41334</v>
+        <v>39295</v>
       </c>
       <c r="H101" s="85">
-        <v>41416</v>
+        <v>39378</v>
       </c>
       <c r="I101" s="119" t="str">
         <f>_xll.qlBTP2(C101,,D101,E101,F101,G101,H101,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0004923998#0002</v>
+        <v>IT0004286966#0000</v>
       </c>
       <c r="J101" s="119" t="b">
         <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K101" s="127" t="b">
+        <f>NOT(ISNA(VLOOKUP(LEFT($I101,12),LatestStrippable,1,FALSE)))</f>
         <v>1</v>
       </c>
-      <c r="K101" s="127" t="b">
-        <v>1</v>
-      </c>
       <c r="L101" s="121" t="str">
-        <f t="shared" si="10"/>
-        <v>Residual Missing</v>
+        <f t="shared" si="12"/>
+        <v>--</v>
       </c>
       <c r="M101" s="48" t="e">
         <f>LEFT(VLOOKUP($D101,'BTP Strip May-Nov'!$H$8:$M$13,6,FALSE),12)</f>
         <v>#N/A</v>
       </c>
-      <c r="N101" s="120" t="e">
+      <c r="N101" s="120" t="str">
         <f>LEFT(VLOOKUP($D101,'BTP Strip Feb-Aug'!$H$8:$M$27,6,FALSE),12)</f>
-        <v>#N/A</v>
+        <v>IT0004288574</v>
       </c>
       <c r="O101" s="27"/>
     </row>
     <row r="102" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A102" s="19"/>
-      <c r="B102" s="128" t="str">
+      <c r="B102" s="126" t="str">
         <f>_xll.ohRangeRetrieveError(I102)</f>
         <v/>
       </c>
-      <c r="C102" s="129" t="s">
-        <v>454</v>
-      </c>
-      <c r="D102" s="130">
-        <v>53571</v>
-      </c>
-      <c r="E102" s="131">
-        <v>3.2500000000000001E-2</v>
-      </c>
-      <c r="F102" s="132">
-        <v>100</v>
-      </c>
-      <c r="G102" s="130">
-        <v>41883</v>
-      </c>
-      <c r="H102" s="130">
-        <v>42026</v>
+      <c r="C102" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="D102" s="85">
+        <v>51380</v>
+      </c>
+      <c r="E102" s="86">
+        <v>0.05</v>
+      </c>
+      <c r="F102" s="87">
+        <v>100</v>
+      </c>
+      <c r="G102" s="85">
+        <v>40057</v>
+      </c>
+      <c r="H102" s="85">
+        <v>40072</v>
       </c>
       <c r="I102" s="119" t="str">
         <f>_xll.qlBTP2(C102,,D102,E102,F102,G102,H102,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0005083057#0002</v>
+        <v>IT0004532559#0000</v>
       </c>
       <c r="J102" s="119" t="b">
         <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K102" s="127" t="b">
+        <f>NOT(ISNA(VLOOKUP(LEFT($I102,12),LatestStrippable,1,FALSE)))</f>
         <v>1</v>
       </c>
-      <c r="K102" s="133" t="b">
-        <f>NOT(ISNA(VLOOKUP(LEFT($I102,12),LatestStrippable,1,FALSE)))</f>
-        <v>0</v>
-      </c>
       <c r="L102" s="121" t="str">
-        <f t="shared" si="10"/>
-        <v>--</v>
+        <f>IF(AND(K102,ISNA(M102),ISNA(N102)),"Residual Missing","--")</f>
+        <v>Residual Missing</v>
       </c>
       <c r="M102" s="48" t="e">
         <f>LEFT(VLOOKUP($D102,'BTP Strip May-Nov'!$H$8:$M$13,6,FALSE),12)</f>
@@ -9501,69 +9510,168 @@
     </row>
     <row r="103" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A103" s="19"/>
-      <c r="B103" s="49"/>
-      <c r="C103" s="49"/>
-      <c r="D103" s="49"/>
-      <c r="E103" s="49"/>
-      <c r="F103" s="49"/>
-      <c r="G103" s="49"/>
-      <c r="H103" s="49"/>
-      <c r="I103" s="49"/>
-      <c r="J103" s="49" t="str">
-        <f>_xll.ohGroup(K103,_xll.ohFilter(I8:I102,J8:J102),Permanent,,ObjectOverwrite)</f>
-        <v>CacBTPs#0004</v>
-      </c>
-      <c r="K103" s="49" t="s">
-        <v>461</v>
-      </c>
-      <c r="L103" s="22"/>
-      <c r="M103" s="49"/>
-      <c r="N103" s="49"/>
+      <c r="B103" s="126" t="str">
+        <f>_xll.ohRangeRetrieveError(I103)</f>
+        <v/>
+      </c>
+      <c r="C103" s="40" t="s">
+        <v>440</v>
+      </c>
+      <c r="D103" s="85">
+        <v>52841</v>
+      </c>
+      <c r="E103" s="86">
+        <v>4.7500000000000001E-2</v>
+      </c>
+      <c r="F103" s="87">
+        <v>100</v>
+      </c>
+      <c r="G103" s="85">
+        <v>41334</v>
+      </c>
+      <c r="H103" s="85">
+        <v>41416</v>
+      </c>
+      <c r="I103" s="119" t="str">
+        <f>_xll.qlBTP2(C103,,D103,E103,F103,G103,H103,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>IT0004923998#0000</v>
+      </c>
+      <c r="J103" s="119" t="b">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="K103" s="127" t="b">
+        <v>1</v>
+      </c>
+      <c r="L103" s="121" t="str">
+        <f t="shared" si="12"/>
+        <v>Residual Missing</v>
+      </c>
+      <c r="M103" s="48" t="e">
+        <f>LEFT(VLOOKUP($D103,'BTP Strip May-Nov'!$H$8:$M$13,6,FALSE),12)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="N103" s="120" t="e">
+        <f>LEFT(VLOOKUP($D103,'BTP Strip Feb-Aug'!$H$8:$M$27,6,FALSE),12)</f>
+        <v>#N/A</v>
+      </c>
       <c r="O103" s="27"/>
     </row>
     <row r="104" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A104" s="19"/>
-      <c r="B104" s="22"/>
-      <c r="C104" s="22"/>
-      <c r="D104" s="22"/>
-      <c r="E104" s="22"/>
-      <c r="F104" s="22"/>
-      <c r="G104" s="22"/>
-      <c r="H104" s="22"/>
-      <c r="I104" s="22"/>
-      <c r="J104" s="22" t="str">
-        <f>_xll.ohGroup(K104,_xll.ohFilter(I8:I102,K8:K102),Permanent,,ObjectOverwrite)</f>
-        <v>StrippableBTPs#0002</v>
-      </c>
-      <c r="K104" s="22" t="s">
+      <c r="B104" s="128" t="str">
+        <f>_xll.ohRangeRetrieveError(I104)</f>
+        <v/>
+      </c>
+      <c r="C104" s="129" t="s">
+        <v>454</v>
+      </c>
+      <c r="D104" s="130">
+        <v>53571</v>
+      </c>
+      <c r="E104" s="131">
+        <v>3.2500000000000001E-2</v>
+      </c>
+      <c r="F104" s="132">
+        <v>100</v>
+      </c>
+      <c r="G104" s="130">
+        <v>41883</v>
+      </c>
+      <c r="H104" s="130">
+        <v>42026</v>
+      </c>
+      <c r="I104" s="119" t="str">
+        <f>_xll.qlBTP2(C104,,D104,E104,F104,G104,H104,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>IT0005083057#0000</v>
+      </c>
+      <c r="J104" s="119" t="b">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="K104" s="133" t="b">
+        <f>NOT(ISNA(VLOOKUP(LEFT($I104,12),LatestStrippable,1,FALSE)))</f>
+        <v>0</v>
+      </c>
+      <c r="L104" s="121" t="str">
+        <f t="shared" si="12"/>
+        <v>--</v>
+      </c>
+      <c r="M104" s="48" t="e">
+        <f>LEFT(VLOOKUP($D104,'BTP Strip May-Nov'!$H$8:$M$13,6,FALSE),12)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="N104" s="120" t="e">
+        <f>LEFT(VLOOKUP($D104,'BTP Strip Feb-Aug'!$H$8:$M$27,6,FALSE),12)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O104" s="27"/>
+    </row>
+    <row r="105" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A105" s="19"/>
+      <c r="B105" s="49"/>
+      <c r="C105" s="49"/>
+      <c r="D105" s="49"/>
+      <c r="E105" s="49"/>
+      <c r="F105" s="49"/>
+      <c r="G105" s="49"/>
+      <c r="H105" s="49"/>
+      <c r="I105" s="49"/>
+      <c r="J105" s="49" t="str">
+        <f>_xll.ohGroup(K105,_xll.ohFilter(I8:I104,J8:J104),Permanent,,ObjectOverwrite)</f>
+        <v>CacBTPs#0000</v>
+      </c>
+      <c r="K105" s="49" t="s">
+        <v>461</v>
+      </c>
+      <c r="L105" s="22"/>
+      <c r="M105" s="49"/>
+      <c r="N105" s="49"/>
+      <c r="O105" s="27"/>
+    </row>
+    <row r="106" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A106" s="19"/>
+      <c r="B106" s="22"/>
+      <c r="C106" s="22"/>
+      <c r="D106" s="22"/>
+      <c r="E106" s="22"/>
+      <c r="F106" s="22"/>
+      <c r="G106" s="22"/>
+      <c r="H106" s="22"/>
+      <c r="I106" s="22"/>
+      <c r="J106" s="22" t="str">
+        <f>_xll.ohGroup(K106,_xll.ohFilter(I8:I104,K8:K104),Permanent,,ObjectOverwrite)</f>
+        <v>StrippableBTPs#0000</v>
+      </c>
+      <c r="K106" s="22" t="s">
         <v>357</v>
       </c>
-      <c r="L104" s="22"/>
-      <c r="M104" s="22"/>
-      <c r="N104" s="22"/>
-      <c r="O104" s="27"/>
-    </row>
-    <row r="105" spans="1:15" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="44"/>
-      <c r="B105" s="45"/>
-      <c r="C105" s="45"/>
-      <c r="D105" s="45"/>
-      <c r="E105" s="45"/>
-      <c r="F105" s="45"/>
-      <c r="G105" s="45"/>
-      <c r="H105" s="45"/>
-      <c r="I105" s="45"/>
-      <c r="J105" s="45" t="str">
-        <f>_xll.ohGroup(K105,I8:I102,Permanent,,ObjectOverwrite)</f>
-        <v>BTPs#0002</v>
-      </c>
-      <c r="K105" s="45" t="s">
+      <c r="L106" s="22"/>
+      <c r="M106" s="22"/>
+      <c r="N106" s="22"/>
+      <c r="O106" s="27"/>
+    </row>
+    <row r="107" spans="1:15" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="44"/>
+      <c r="B107" s="45"/>
+      <c r="C107" s="45"/>
+      <c r="D107" s="45"/>
+      <c r="E107" s="45"/>
+      <c r="F107" s="45"/>
+      <c r="G107" s="45"/>
+      <c r="H107" s="45"/>
+      <c r="I107" s="45"/>
+      <c r="J107" s="45" t="str">
+        <f>_xll.ohGroup(K107,I8:I104,Permanent,,ObjectOverwrite)</f>
+        <v>BTPs#0000</v>
+      </c>
+      <c r="K107" s="45" t="s">
         <v>356</v>
       </c>
-      <c r="L105" s="45"/>
-      <c r="M105" s="45"/>
-      <c r="N105" s="45"/>
-      <c r="O105" s="46"/>
+      <c r="L107" s="45"/>
+      <c r="M107" s="45"/>
+      <c r="N107" s="45"/>
+      <c r="O107" s="46"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -9614,7 +9722,7 @@
         <v>452</v>
       </c>
       <c r="B2" s="101" t="e">
-        <f>VLOOKUP(A2,BTP!$C$8:$C$101,1,FALSE)</f>
+        <f>VLOOKUP(A2,BTP!$C$8:$C$103,1,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -9623,7 +9731,7 @@
         <v>452</v>
       </c>
       <c r="B3" s="101" t="e">
-        <f>VLOOKUP(A3,BTP!$C$8:$C$101,1,FALSE)</f>
+        <f>VLOOKUP(A3,BTP!$C$8:$C$103,1,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -9632,7 +9740,7 @@
         <v>452</v>
       </c>
       <c r="B4" s="101" t="e">
-        <f>VLOOKUP(A4,BTP!$C$8:$C$101,1,FALSE)</f>
+        <f>VLOOKUP(A4,BTP!$C$8:$C$103,1,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -9641,7 +9749,7 @@
         <v>452</v>
       </c>
       <c r="B5" s="101" t="e">
-        <f>VLOOKUP(A5,BTP!$C$8:$C$101,1,FALSE)</f>
+        <f>VLOOKUP(A5,BTP!$C$8:$C$103,1,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -9650,7 +9758,7 @@
         <v>452</v>
       </c>
       <c r="B6" s="101" t="e">
-        <f>VLOOKUP(A6,BTP!$C$8:$C$101,1,FALSE)</f>
+        <f>VLOOKUP(A6,BTP!$C$8:$C$103,1,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -9659,7 +9767,7 @@
         <v>452</v>
       </c>
       <c r="B7" s="101" t="e">
-        <f>VLOOKUP(A7,BTP!$C$8:$C$101,1,FALSE)</f>
+        <f>VLOOKUP(A7,BTP!$C$8:$C$103,1,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -9668,7 +9776,7 @@
         <v>452</v>
       </c>
       <c r="B8" s="101" t="e">
-        <f>VLOOKUP(A8,BTP!$C$8:$C$101,1,FALSE)</f>
+        <f>VLOOKUP(A8,BTP!$C$8:$C$103,1,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -9677,7 +9785,7 @@
         <v>452</v>
       </c>
       <c r="B9" s="101" t="e">
-        <f>VLOOKUP(A9,BTP!$C$8:$C$101,1,FALSE)</f>
+        <f>VLOOKUP(A9,BTP!$C$8:$C$103,1,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -9686,7 +9794,7 @@
         <v>452</v>
       </c>
       <c r="B10" s="101" t="e">
-        <f>VLOOKUP(A10,BTP!$C$8:$C$101,1,FALSE)</f>
+        <f>VLOOKUP(A10,BTP!$C$8:$C$103,1,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -9695,7 +9803,7 @@
         <v>452</v>
       </c>
       <c r="B11" s="101" t="e">
-        <f>VLOOKUP(A11,BTP!$C$8:$C$101,1,FALSE)</f>
+        <f>VLOOKUP(A11,BTP!$C$8:$C$103,1,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -9704,7 +9812,7 @@
         <v>452</v>
       </c>
       <c r="B12" s="101" t="e">
-        <f>VLOOKUP(A12,BTP!$C$8:$C$101,1,FALSE)</f>
+        <f>VLOOKUP(A12,BTP!$C$8:$C$103,1,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -9713,7 +9821,7 @@
         <v>452</v>
       </c>
       <c r="B13" s="101" t="e">
-        <f>VLOOKUP(A13,BTP!$C$8:$C$101,1,FALSE)</f>
+        <f>VLOOKUP(A13,BTP!$C$8:$C$103,1,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -9722,7 +9830,7 @@
         <v>452</v>
       </c>
       <c r="B14" s="101" t="e">
-        <f>VLOOKUP(A14,BTP!$C$8:$C$101,1,FALSE)</f>
+        <f>VLOOKUP(A14,BTP!$C$8:$C$103,1,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -9731,7 +9839,7 @@
         <v>452</v>
       </c>
       <c r="B15" s="101" t="e">
-        <f>VLOOKUP(A15,BTP!$C$8:$C$101,1,FALSE)</f>
+        <f>VLOOKUP(A15,BTP!$C$8:$C$103,1,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -9740,7 +9848,7 @@
         <v>452</v>
       </c>
       <c r="B16" s="101" t="e">
-        <f>VLOOKUP(A16,BTP!$C$8:$C$101,1,FALSE)</f>
+        <f>VLOOKUP(A16,BTP!$C$8:$C$103,1,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -9749,7 +9857,7 @@
         <v>452</v>
       </c>
       <c r="B17" s="101" t="e">
-        <f>VLOOKUP(A17,BTP!$C$8:$C$101,1,FALSE)</f>
+        <f>VLOOKUP(A17,BTP!$C$8:$C$103,1,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -9758,7 +9866,7 @@
         <v>452</v>
       </c>
       <c r="B18" s="101" t="e">
-        <f>VLOOKUP(A18,BTP!$C$8:$C$101,1,FALSE)</f>
+        <f>VLOOKUP(A18,BTP!$C$8:$C$103,1,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -9767,7 +9875,7 @@
         <v>452</v>
       </c>
       <c r="B19" s="101" t="e">
-        <f>VLOOKUP(A19,BTP!$C$8:$C$101,1,FALSE)</f>
+        <f>VLOOKUP(A19,BTP!$C$8:$C$103,1,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -9776,7 +9884,7 @@
         <v>452</v>
       </c>
       <c r="B20" s="101" t="e">
-        <f>VLOOKUP(A20,BTP!$C$8:$C$101,1,FALSE)</f>
+        <f>VLOOKUP(A20,BTP!$C$8:$C$103,1,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -9785,7 +9893,7 @@
         <v>452</v>
       </c>
       <c r="B21" s="101" t="e">
-        <f>VLOOKUP(A21,BTP!$C$8:$C$101,1,FALSE)</f>
+        <f>VLOOKUP(A21,BTP!$C$8:$C$103,1,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -9794,7 +9902,7 @@
         <v>452</v>
       </c>
       <c r="B22" s="101" t="e">
-        <f>VLOOKUP(A22,BTP!$C$8:$C$101,1,FALSE)</f>
+        <f>VLOOKUP(A22,BTP!$C$8:$C$103,1,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -9803,7 +9911,7 @@
         <v>452</v>
       </c>
       <c r="B23" s="101" t="e">
-        <f>VLOOKUP(A23,BTP!$C$8:$C$101,1,FALSE)</f>
+        <f>VLOOKUP(A23,BTP!$C$8:$C$103,1,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -9812,7 +9920,7 @@
         <v>452</v>
       </c>
       <c r="B24" s="101" t="e">
-        <f>VLOOKUP(A24,BTP!$C$8:$C$101,1,FALSE)</f>
+        <f>VLOOKUP(A24,BTP!$C$8:$C$103,1,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -9821,7 +9929,7 @@
         <v>452</v>
       </c>
       <c r="B25" s="101" t="e">
-        <f>VLOOKUP(A25,BTP!$C$8:$C$101,1,FALSE)</f>
+        <f>VLOOKUP(A25,BTP!$C$8:$C$103,1,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -9830,7 +9938,7 @@
         <v>452</v>
       </c>
       <c r="B26" s="101" t="e">
-        <f>VLOOKUP(A26,BTP!$C$8:$C$101,1,FALSE)</f>
+        <f>VLOOKUP(A26,BTP!$C$8:$C$103,1,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -9839,7 +9947,7 @@
         <v>452</v>
       </c>
       <c r="B27" s="101" t="e">
-        <f>VLOOKUP(A27,BTP!$C$8:$C$101,1,FALSE)</f>
+        <f>VLOOKUP(A27,BTP!$C$8:$C$103,1,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -9848,7 +9956,7 @@
         <v>452</v>
       </c>
       <c r="B28" s="101" t="e">
-        <f>VLOOKUP(A28,BTP!$C$8:$C$101,1,FALSE)</f>
+        <f>VLOOKUP(A28,BTP!$C$8:$C$103,1,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -9857,7 +9965,7 @@
         <v>452</v>
       </c>
       <c r="B29" s="101" t="e">
-        <f>VLOOKUP(A29,BTP!$C$8:$C$101,1,FALSE)</f>
+        <f>VLOOKUP(A29,BTP!$C$8:$C$103,1,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -9866,7 +9974,7 @@
         <v>452</v>
       </c>
       <c r="B30" s="101" t="e">
-        <f>VLOOKUP(A30,BTP!$C$8:$C$101,1,FALSE)</f>
+        <f>VLOOKUP(A30,BTP!$C$8:$C$103,1,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -9875,7 +9983,7 @@
         <v>452</v>
       </c>
       <c r="B31" s="101" t="e">
-        <f>VLOOKUP(A31,BTP!$C$8:$C$101,1,FALSE)</f>
+        <f>VLOOKUP(A31,BTP!$C$8:$C$103,1,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -9884,7 +9992,7 @@
         <v>452</v>
       </c>
       <c r="B32" s="101" t="e">
-        <f>VLOOKUP(A32,BTP!$C$8:$C$101,1,FALSE)</f>
+        <f>VLOOKUP(A32,BTP!$C$8:$C$103,1,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -9893,7 +10001,7 @@
         <v>452</v>
       </c>
       <c r="B33" s="101" t="e">
-        <f>VLOOKUP(A33,BTP!$C$8:$C$101,1,FALSE)</f>
+        <f>VLOOKUP(A33,BTP!$C$8:$C$103,1,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -9902,7 +10010,7 @@
         <v>452</v>
       </c>
       <c r="B34" s="101" t="e">
-        <f>VLOOKUP(A34,BTP!$C$8:$C$101,1,FALSE)</f>
+        <f>VLOOKUP(A34,BTP!$C$8:$C$103,1,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -9911,7 +10019,7 @@
         <v>452</v>
       </c>
       <c r="B35" s="101" t="e">
-        <f>VLOOKUP(A35,BTP!$C$8:$C$101,1,FALSE)</f>
+        <f>VLOOKUP(A35,BTP!$C$8:$C$103,1,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="D35" s="102" t="str">
@@ -9969,7 +10077,7 @@
         <v>452</v>
       </c>
       <c r="B36" s="101" t="e">
-        <f>VLOOKUP(A36,BTP!$C$8:$C$101,1,FALSE)</f>
+        <f>VLOOKUP(A36,BTP!$C$8:$C$103,1,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="D36" s="103">
@@ -10039,7 +10147,7 @@
         <v>452</v>
       </c>
       <c r="B37" s="101" t="e">
-        <f>VLOOKUP(A37,BTP!$C$8:$C$101,1,FALSE)</f>
+        <f>VLOOKUP(A37,BTP!$C$8:$C$103,1,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="D37" s="103">
@@ -10109,7 +10217,7 @@
         <v>452</v>
       </c>
       <c r="B38" s="101" t="e">
-        <f>VLOOKUP(A38,BTP!$C$8:$C$101,1,FALSE)</f>
+        <f>VLOOKUP(A38,BTP!$C$8:$C$103,1,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="D38" s="103">
@@ -10179,7 +10287,7 @@
         <v>452</v>
       </c>
       <c r="B39" s="101" t="e">
-        <f>VLOOKUP(A39,BTP!$C$8:$C$101,1,FALSE)</f>
+        <f>VLOOKUP(A39,BTP!$C$8:$C$103,1,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="D39" s="103">
@@ -10249,7 +10357,7 @@
         <v>452</v>
       </c>
       <c r="B40" s="101" t="e">
-        <f>VLOOKUP(A40,BTP!$C$8:$C$101,1,FALSE)</f>
+        <f>VLOOKUP(A40,BTP!$C$8:$C$103,1,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="D40" s="103">
@@ -10319,7 +10427,7 @@
         <v>452</v>
       </c>
       <c r="B41" s="101" t="e">
-        <f>VLOOKUP(A41,BTP!$C$8:$C$101,1,FALSE)</f>
+        <f>VLOOKUP(A41,BTP!$C$8:$C$103,1,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="D41" s="103">
@@ -10389,7 +10497,7 @@
         <v>452</v>
       </c>
       <c r="B42" s="101" t="e">
-        <f>VLOOKUP(A42,BTP!$C$8:$C$101,1,FALSE)</f>
+        <f>VLOOKUP(A42,BTP!$C$8:$C$103,1,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="D42" s="103">
@@ -10459,7 +10567,7 @@
         <v>452</v>
       </c>
       <c r="B43" s="101" t="e">
-        <f>VLOOKUP(A43,BTP!$C$8:$C$101,1,FALSE)</f>
+        <f>VLOOKUP(A43,BTP!$C$8:$C$103,1,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="D43" s="103">
@@ -10529,7 +10637,7 @@
         <v>452</v>
       </c>
       <c r="B44" s="101" t="e">
-        <f>VLOOKUP(A44,BTP!$C$8:$C$101,1,FALSE)</f>
+        <f>VLOOKUP(A44,BTP!$C$8:$C$103,1,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="D44" s="103">
@@ -10599,7 +10707,7 @@
         <v>452</v>
       </c>
       <c r="B45" s="101" t="e">
-        <f>VLOOKUP(A45,BTP!$C$8:$C$101,1,FALSE)</f>
+        <f>VLOOKUP(A45,BTP!$C$8:$C$103,1,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="D45" s="103">
@@ -10669,7 +10777,7 @@
         <v>452</v>
       </c>
       <c r="B46" s="101" t="e">
-        <f>VLOOKUP(A46,BTP!$C$8:$C$101,1,FALSE)</f>
+        <f>VLOOKUP(A46,BTP!$C$8:$C$103,1,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="D46" s="103">
@@ -10739,7 +10847,7 @@
         <v>452</v>
       </c>
       <c r="B47" s="101" t="e">
-        <f>VLOOKUP(A47,BTP!$C$8:$C$101,1,FALSE)</f>
+        <f>VLOOKUP(A47,BTP!$C$8:$C$103,1,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="D47" s="103">
@@ -10809,7 +10917,7 @@
         <v>452</v>
       </c>
       <c r="B48" s="101" t="e">
-        <f>VLOOKUP(A48,BTP!$C$8:$C$101,1,FALSE)</f>
+        <f>VLOOKUP(A48,BTP!$C$8:$C$103,1,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="D48" s="103">
@@ -10879,7 +10987,7 @@
         <v>452</v>
       </c>
       <c r="B49" s="101" t="e">
-        <f>VLOOKUP(A49,BTP!$C$8:$C$101,1,FALSE)</f>
+        <f>VLOOKUP(A49,BTP!$C$8:$C$103,1,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="D49" s="103">
@@ -10949,7 +11057,7 @@
         <v>452</v>
       </c>
       <c r="B50" s="101" t="e">
-        <f>VLOOKUP(A50,BTP!$C$8:$C$101,1,FALSE)</f>
+        <f>VLOOKUP(A50,BTP!$C$8:$C$103,1,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="D50" s="103">
@@ -11019,7 +11127,7 @@
         <v>452</v>
       </c>
       <c r="B51" s="101" t="e">
-        <f>VLOOKUP(A51,BTP!$C$8:$C$101,1,FALSE)</f>
+        <f>VLOOKUP(A51,BTP!$C$8:$C$103,1,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="D51" s="103">
@@ -11089,7 +11197,7 @@
         <v>452</v>
       </c>
       <c r="B52" s="101" t="e">
-        <f>VLOOKUP(A52,BTP!$C$8:$C$101,1,FALSE)</f>
+        <f>VLOOKUP(A52,BTP!$C$8:$C$103,1,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="D52" s="103">
@@ -11159,7 +11267,7 @@
         <v>452</v>
       </c>
       <c r="B53" s="101" t="e">
-        <f>VLOOKUP(A53,BTP!$C$8:$C$101,1,FALSE)</f>
+        <f>VLOOKUP(A53,BTP!$C$8:$C$103,1,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="D53" s="103" t="e">
@@ -11210,7 +11318,7 @@
         <v>452</v>
       </c>
       <c r="B54" s="101" t="e">
-        <f>VLOOKUP(A54,BTP!$C$8:$C$101,1,FALSE)</f>
+        <f>VLOOKUP(A54,BTP!$C$8:$C$103,1,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="D54" s="103" t="e">
@@ -11261,7 +11369,7 @@
         <v>452</v>
       </c>
       <c r="B55" s="101" t="e">
-        <f>VLOOKUP(A55,BTP!$C$8:$C$101,1,FALSE)</f>
+        <f>VLOOKUP(A55,BTP!$C$8:$C$103,1,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="D55" s="103" t="e">
@@ -11312,7 +11420,7 @@
         <v>452</v>
       </c>
       <c r="B56" s="101" t="e">
-        <f>VLOOKUP(A56,BTP!$C$8:$C$101,1,FALSE)</f>
+        <f>VLOOKUP(A56,BTP!$C$8:$C$103,1,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="D56" s="103" t="e">
@@ -11363,7 +11471,7 @@
         <v>452</v>
       </c>
       <c r="B57" s="101" t="e">
-        <f>VLOOKUP(A57,BTP!$C$8:$C$101,1,FALSE)</f>
+        <f>VLOOKUP(A57,BTP!$C$8:$C$103,1,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="D57" s="103" t="e">
@@ -11414,7 +11522,7 @@
         <v>452</v>
       </c>
       <c r="B58" s="101" t="e">
-        <f>VLOOKUP(A58,BTP!$C$8:$C$101,1,FALSE)</f>
+        <f>VLOOKUP(A58,BTP!$C$8:$C$103,1,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="D58" s="103" t="e">
@@ -11465,7 +11573,7 @@
         <v>452</v>
       </c>
       <c r="B59" s="101" t="e">
-        <f>VLOOKUP(A59,BTP!$C$8:$C$101,1,FALSE)</f>
+        <f>VLOOKUP(A59,BTP!$C$8:$C$103,1,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="D59" s="103" t="e">
@@ -11516,7 +11624,7 @@
         <v>452</v>
       </c>
       <c r="B60" s="101" t="e">
-        <f>VLOOKUP(A60,BTP!$C$8:$C$101,1,FALSE)</f>
+        <f>VLOOKUP(A60,BTP!$C$8:$C$103,1,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="D60" s="103" t="e">
@@ -11567,7 +11675,7 @@
         <v>452</v>
       </c>
       <c r="B61" s="101" t="e">
-        <f>VLOOKUP(A61,BTP!$C$8:$C$101,1,FALSE)</f>
+        <f>VLOOKUP(A61,BTP!$C$8:$C$103,1,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="D61" s="103" t="e">
@@ -11618,7 +11726,7 @@
         <v>452</v>
       </c>
       <c r="B62" s="101" t="e">
-        <f>VLOOKUP(A62,BTP!$C$8:$C$101,1,FALSE)</f>
+        <f>VLOOKUP(A62,BTP!$C$8:$C$103,1,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="D62" s="103" t="e">
@@ -11669,7 +11777,7 @@
         <v>452</v>
       </c>
       <c r="B63" s="101" t="e">
-        <f>VLOOKUP(A63,BTP!$C$8:$C$101,1,FALSE)</f>
+        <f>VLOOKUP(A63,BTP!$C$8:$C$103,1,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="D63" s="103" t="e">
@@ -11720,7 +11828,7 @@
         <v>452</v>
       </c>
       <c r="B64" s="101" t="e">
-        <f>VLOOKUP(A64,BTP!$C$8:$C$101,1,FALSE)</f>
+        <f>VLOOKUP(A64,BTP!$C$8:$C$103,1,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="D64" s="103" t="e">
@@ -11771,7 +11879,7 @@
         <v>452</v>
       </c>
       <c r="B65" s="101" t="e">
-        <f>VLOOKUP(A65,BTP!$C$8:$C$101,1,FALSE)</f>
+        <f>VLOOKUP(A65,BTP!$C$8:$C$103,1,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="D65" s="103" t="e">
@@ -11822,7 +11930,7 @@
         <v>452</v>
       </c>
       <c r="B66" s="101" t="e">
-        <f>VLOOKUP(A66,BTP!$C$8:$C$101,1,FALSE)</f>
+        <f>VLOOKUP(A66,BTP!$C$8:$C$103,1,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="D66" s="103" t="e">
@@ -11873,7 +11981,7 @@
         <v>452</v>
       </c>
       <c r="B67" s="101" t="e">
-        <f>VLOOKUP(A67,BTP!$C$8:$C$101,1,FALSE)</f>
+        <f>VLOOKUP(A67,BTP!$C$8:$C$103,1,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="D67" s="103" t="e">
@@ -11924,7 +12032,7 @@
         <v>452</v>
       </c>
       <c r="B68" s="101" t="e">
-        <f>VLOOKUP(A68,BTP!$C$8:$C$101,1,FALSE)</f>
+        <f>VLOOKUP(A68,BTP!$C$8:$C$103,1,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="D68" s="103" t="e">
@@ -11975,7 +12083,7 @@
         <v>452</v>
       </c>
       <c r="B69" s="101" t="e">
-        <f>VLOOKUP(A69,BTP!$C$8:$C$101,1,FALSE)</f>
+        <f>VLOOKUP(A69,BTP!$C$8:$C$103,1,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="D69" s="103" t="e">
@@ -12026,7 +12134,7 @@
         <v>452</v>
       </c>
       <c r="B70" s="101" t="e">
-        <f>VLOOKUP(A70,BTP!$C$8:$C$101,1,FALSE)</f>
+        <f>VLOOKUP(A70,BTP!$C$8:$C$103,1,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="D70" s="103" t="e">
@@ -14008,7 +14116,7 @@
         <v>IT0003106595</v>
       </c>
       <c r="P8" s="48" t="str">
-        <f>_xll.qlBondMaturityLookup("StrippableBTPs",$H8,BTP!$J$104)</f>
+        <f>_xll.qlBondMaturityLookup("StrippableBTPs",$H8,BTP!$J$106)</f>
         <v>IT0003080402</v>
       </c>
       <c r="Q8" s="23"/>
@@ -14059,7 +14167,7 @@
         <v>IT0003204945</v>
       </c>
       <c r="P9" s="48" t="str">
-        <f>_xll.qlBondMaturityLookup("StrippableBTPs",$H9,BTP!$J$104)</f>
+        <f>_xll.qlBondMaturityLookup("StrippableBTPs",$H9,BTP!$J$106)</f>
         <v>IT0003190912</v>
       </c>
       <c r="Q9" s="23"/>
@@ -14110,7 +14218,7 @@
         <v>IT0003246391</v>
       </c>
       <c r="P10" s="48" t="str">
-        <f>_xll.qlBondMaturityLookup("StrippableBTPs",$H10,BTP!$J$104)</f>
+        <f>_xll.qlBondMaturityLookup("StrippableBTPs",$H10,BTP!$J$106)</f>
         <v>IT0003357982</v>
       </c>
       <c r="Q10" s="23"/>
@@ -14161,7 +14269,7 @@
         <v>IT0003246383</v>
       </c>
       <c r="P11" s="48" t="str">
-        <f>_xll.qlBondMaturityLookup("StrippableBTPs",$H11,BTP!$J$104)</f>
+        <f>_xll.qlBondMaturityLookup("StrippableBTPs",$H11,BTP!$J$106)</f>
         <v>IT0003472336</v>
       </c>
       <c r="Q11" s="23"/>
@@ -14212,7 +14320,7 @@
         <v>IT0003246359</v>
       </c>
       <c r="P12" s="48" t="str">
-        <f>_xll.qlBondMaturityLookup("StrippableBTPs",$H12,BTP!$J$104)</f>
+        <f>_xll.qlBondMaturityLookup("StrippableBTPs",$H12,BTP!$J$106)</f>
         <v>IT0003618383</v>
       </c>
       <c r="Q12" s="23"/>
@@ -14263,7 +14371,7 @@
         <v>IT0003246342</v>
       </c>
       <c r="P13" s="48" t="str">
-        <f>_xll.qlBondMaturityLookup("StrippableBTPs",$H13,BTP!$J$104)</f>
+        <f>_xll.qlBondMaturityLookup("StrippableBTPs",$H13,BTP!$J$106)</f>
         <v>IT0003719918</v>
       </c>
       <c r="Q13" s="23"/>
@@ -14314,7 +14422,7 @@
         <v>IT0003246326</v>
       </c>
       <c r="P14" s="48" t="str">
-        <f>_xll.qlBondMaturityLookup("StrippableBTPs",$H14,BTP!$J$104)</f>
+        <f>_xll.qlBondMaturityLookup("StrippableBTPs",$H14,BTP!$J$106)</f>
         <v>IT0003844534</v>
       </c>
       <c r="Q14" s="23"/>
@@ -14365,7 +14473,7 @@
         <v>IT0003246292</v>
       </c>
       <c r="P15" s="48" t="str">
-        <f>_xll.qlBondMaturityLookup("StrippableBTPs",$H15,BTP!$J$104)</f>
+        <f>_xll.qlBondMaturityLookup("StrippableBTPs",$H15,BTP!$J$106)</f>
         <v>IT0004019581</v>
       </c>
       <c r="Q15" s="23"/>
@@ -14416,7 +14524,7 @@
         <v>IT0003246284</v>
       </c>
       <c r="P16" s="48" t="str">
-        <f>_xll.qlBondMaturityLookup("StrippableBTPs",$H16,BTP!$J$104)</f>
+        <f>_xll.qlBondMaturityLookup("StrippableBTPs",$H16,BTP!$J$106)</f>
         <v>IT0004164775</v>
       </c>
       <c r="Q16" s="23"/>
@@ -14467,7 +14575,7 @@
         <v>IT0003246268</v>
       </c>
       <c r="P17" s="48" t="str">
-        <f>_xll.qlBondMaturityLookup("StrippableBTPs",$H17,BTP!$J$104)</f>
+        <f>_xll.qlBondMaturityLookup("StrippableBTPs",$H17,BTP!$J$106)</f>
         <v>IT0003242747</v>
       </c>
       <c r="Q17" s="23"/>
@@ -14518,7 +14626,7 @@
         <v>IT0003268486</v>
       </c>
       <c r="P18" s="48" t="str">
-        <f>_xll.qlBondMaturityLookup("StrippableBTPs",$H18,BTP!$J$104)</f>
+        <f>_xll.qlBondMaturityLookup("StrippableBTPs",$H18,BTP!$J$106)</f>
         <v>IT0004273493</v>
       </c>
       <c r="Q18" s="23"/>
@@ -14569,7 +14677,7 @@
         <v>IT0003268494</v>
       </c>
       <c r="P19" s="48" t="str">
-        <f>_xll.qlBondMaturityLookup("StrippableBTPs",$H19,BTP!$J$104)</f>
+        <f>_xll.qlBondMaturityLookup("StrippableBTPs",$H19,BTP!$J$106)</f>
         <v>IT0004361041</v>
       </c>
       <c r="Q19" s="23"/>
@@ -14620,7 +14728,7 @@
         <v>IT0003268544</v>
       </c>
       <c r="P20" s="48" t="str">
-        <f>_xll.qlBondMaturityLookup("StrippableBTPs",$H20,BTP!$J$104)</f>
+        <f>_xll.qlBondMaturityLookup("StrippableBTPs",$H20,BTP!$J$106)</f>
         <v>IT0003493258</v>
       </c>
       <c r="Q20" s="23"/>
@@ -14671,7 +14779,7 @@
         <v>IT0003268601</v>
       </c>
       <c r="P21" s="48" t="str">
-        <f>_xll.qlBondMaturityLookup("StrippableBTPs",$H21,BTP!$J$104)</f>
+        <f>_xll.qlBondMaturityLookup("StrippableBTPs",$H21,BTP!$J$106)</f>
         <v>IT0003644769</v>
       </c>
       <c r="Q21" s="23"/>
@@ -14722,7 +14830,7 @@
         <v>IT0003268700</v>
       </c>
       <c r="P22" s="48" t="str">
-        <f>_xll.qlBondMaturityLookup("StrippableBTPs",$H22,BTP!$J$104)</f>
+        <f>_xll.qlBondMaturityLookup("StrippableBTPs",$H22,BTP!$J$106)</f>
         <v>IT0004009673</v>
       </c>
       <c r="Q22" s="23"/>
@@ -14773,7 +14881,7 @@
         <v>IT0003268791</v>
       </c>
       <c r="P23" s="48" t="str">
-        <f>_xll.qlBondMaturityLookup("StrippableBTPs",$H23,BTP!$J$104)</f>
+        <f>_xll.qlBondMaturityLookup("StrippableBTPs",$H23,BTP!$J$106)</f>
         <v>IT0004356843</v>
       </c>
       <c r="Q23" s="23"/>
@@ -14824,7 +14932,7 @@
         <v>IT0003269062</v>
       </c>
       <c r="P24" s="48" t="str">
-        <f>_xll.qlBondMaturityLookup("StrippableBTPs",$H24,BTP!$J$104)</f>
+        <f>_xll.qlBondMaturityLookup("StrippableBTPs",$H24,BTP!$J$106)</f>
         <v>IT0003256820</v>
       </c>
       <c r="Q24" s="23"/>
@@ -14875,7 +14983,7 @@
         <v>IT0003540405</v>
       </c>
       <c r="P25" s="48" t="str">
-        <f>_xll.qlBondMaturityLookup("StrippableBTPs",$H25,BTP!$J$104)</f>
+        <f>_xll.qlBondMaturityLookup("StrippableBTPs",$H25,BTP!$J$106)</f>
         <v>IT0003535157</v>
       </c>
       <c r="Q25" s="23"/>
@@ -14926,7 +15034,7 @@
         <v>IT0004002850</v>
       </c>
       <c r="P26" s="48" t="str">
-        <f>_xll.qlBondMaturityLookup("StrippableBTPs",$H26,BTP!$J$104)</f>
+        <f>_xll.qlBondMaturityLookup("StrippableBTPs",$H26,BTP!$J$106)</f>
         <v>IT0003934657</v>
       </c>
       <c r="Q26" s="23"/>
@@ -14977,7 +15085,7 @@
         <v>IT0004288640</v>
       </c>
       <c r="P27" s="48" t="str">
-        <f>_xll.qlBondMaturityLookup("StrippableBTPs",$H27,BTP!$J$104)</f>
+        <f>_xll.qlBondMaturityLookup("StrippableBTPs",$H27,BTP!$J$106)</f>
         <v>IT0004286966</v>
       </c>
       <c r="Q27" s="23"/>
@@ -17998,7 +18106,7 @@
         <v>IT0001247060</v>
       </c>
       <c r="P8" s="48" t="str">
-        <f>_xll.qlBondMaturityLookup(BTP!$J$104,$H8)</f>
+        <f>_xll.qlBondMaturityLookup(BTP!$J$106,$H8)</f>
         <v>IT0001448619</v>
       </c>
       <c r="Q8" s="23"/>
@@ -18049,7 +18157,7 @@
         <v>IT0001247326</v>
       </c>
       <c r="P9" s="48" t="str">
-        <f>_xll.qlBondMaturityLookup(BTP!$J$104,$H9)</f>
+        <f>_xll.qlBondMaturityLookup(BTP!$J$106,$H9)</f>
         <v>IT0000366655</v>
       </c>
       <c r="Q9" s="23"/>
@@ -18100,7 +18208,7 @@
         <v>IT0001247383</v>
       </c>
       <c r="P10" s="48" t="str">
-        <f>_xll.qlBondMaturityLookup(BTP!$J$104,$H10)</f>
+        <f>_xll.qlBondMaturityLookup(BTP!$J$106,$H10)</f>
         <v>IT0001086567</v>
       </c>
       <c r="Q10" s="23"/>
@@ -18151,7 +18259,7 @@
         <v>IT0001247409</v>
       </c>
       <c r="P11" s="48" t="str">
-        <f>_xll.qlBondMaturityLookup(BTP!$J$104,$H11)</f>
+        <f>_xll.qlBondMaturityLookup(BTP!$J$106,$H11)</f>
         <v>IT0001174611</v>
       </c>
       <c r="Q11" s="23"/>
@@ -18202,7 +18310,7 @@
         <v>IT0001312815</v>
       </c>
       <c r="P12" s="48" t="str">
-        <f>_xll.qlBondMaturityLookup(BTP!$J$104,$H12)</f>
+        <f>_xll.qlBondMaturityLookup(BTP!$J$106,$H12)</f>
         <v>IT0001278511</v>
       </c>
       <c r="Q12" s="23"/>
@@ -18253,7 +18361,7 @@
         <v>IT0001464210</v>
       </c>
       <c r="P13" s="48" t="str">
-        <f>_xll.qlBondMaturityLookup(BTP!$J$104,$H13)</f>
+        <f>_xll.qlBondMaturityLookup(BTP!$J$106,$H13)</f>
         <v>IT0001444378</v>
       </c>
       <c r="Q13" s="23"/>

--- a/QuantLibXL/Data2/XLS/EUR/EUR_ITALY.xlsx
+++ b/QuantLibXL/Data2/XLS/EUR/EUR_ITALY.xlsx
@@ -19,7 +19,7 @@
     <sheet name="BTP Infl Strip" sheetId="10" r:id="rId10"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">BTP!$A$7:$S$107</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">BTP!$A$2:$N$110</definedName>
     <definedName name="BondSettlementDate">BTP!$I$6</definedName>
     <definedName name="BondType" localSheetId="2">BTP!$B$2</definedName>
     <definedName name="BondType" localSheetId="8">'BTP Infl'!$C$2</definedName>
@@ -37,7 +37,7 @@
     <definedName name="FileName" localSheetId="6">'BTP Strip May-Nov'!$C$3</definedName>
     <definedName name="FileName" localSheetId="1">CCT!$B$3</definedName>
     <definedName name="FileOverwrite">'General Settings'!$D$9</definedName>
-    <definedName name="LatestStrippable">'BTP Strippable'!$A$2:$A$37</definedName>
+    <definedName name="LatestStrippable">'BTP Strippable'!$A$2:$A$65</definedName>
     <definedName name="ObjectOverwrite">'General Settings'!$D$6</definedName>
     <definedName name="Permanent">'General Settings'!$D$5</definedName>
     <definedName name="SerializationPath">'General Settings'!$D$8</definedName>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1148" uniqueCount="466">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1179" uniqueCount="471">
   <si>
     <t>General Settings</t>
   </si>
@@ -1329,9 +1329,6 @@
     <t>IT0004716319</t>
   </si>
   <si>
-    <t>EuriborYC6M</t>
-  </si>
-  <si>
     <t>IT0004780380</t>
   </si>
   <si>
@@ -1447,6 +1444,24 @@
   </si>
   <si>
     <t>IT0005135840</t>
+  </si>
+  <si>
+    <t>IT0005142143</t>
+  </si>
+  <si>
+    <t>IT0005162828</t>
+  </si>
+  <si>
+    <t>IT0005170839</t>
+  </si>
+  <si>
+    <t>Eur6M</t>
+  </si>
+  <si>
+    <t>IT0004890882</t>
+  </si>
+  <si>
+    <t>IT0005004426</t>
   </si>
 </sst>
 </file>
@@ -1543,7 +1558,7 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1607,6 +1622,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1888,7 +1909,7 @@
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="139">
+  <cellXfs count="140">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="4" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="4" applyFont="1" applyFill="1"/>
@@ -2118,6 +2139,7 @@
     <xf numFmtId="0" fontId="6" fillId="9" borderId="18" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="10">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2518,7 +2540,7 @@
     <row r="1" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="str">
         <f>_xll.qlxlVersion(TRUE,Trigger)</f>
-        <v>QuantLibXL 1.7.0 - MS VC++ (version unknown) - Multithreaded Dynamic Runtime library - Release Configuration - Sep 24 2015 15:39:48</v>
+        <v>QuantLibXL 1.8.0 - MS VC++ (version unknown) - Multithreaded Dynamic Runtime library - Release Configuration - Feb 29 2016 17:10:22</v>
       </c>
     </row>
     <row r="2" spans="1:5" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -2543,9 +2565,7 @@
       <c r="C4" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="9">
-        <v>42276.427199074074</v>
-      </c>
+      <c r="D4" s="9"/>
       <c r="E4" s="10"/>
     </row>
     <row r="5" spans="1:5" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
@@ -2791,10 +2811,10 @@
   <dimension ref="A1:AF23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="7" topLeftCell="K8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="7" topLeftCell="Z8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -3229,11 +3249,11 @@
       </c>
       <c r="AC8" s="69" t="str">
         <f>_xll.qlSchedule(C8&amp;"_Sch",D8,E8,F8,G8,H8,I8,J8,K8,L8,M8,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0003605380_Sch#0000</v>
+        <v>IT0003605380_Sch#0001</v>
       </c>
       <c r="AD8" s="51" t="str">
         <f>IF(AE8,_xll.qlCCTEU(C8,,E8,X8,W8,D8,,Permanent,Trigger,ObjectOverwrite),_xll.qlFloatingRateBond(C8,AB8,N8,O8,P8,Q8,AC8,R8,S8,T8,U8,V8,W8,X8,Y8,Z8,AA8,Permanent,Trigger,ObjectOverwrite))</f>
-        <v>IT0003605380#0000</v>
+        <v>IT0003605380#0001</v>
       </c>
       <c r="AE8" s="51" t="b">
         <v>0</v>
@@ -3323,11 +3343,11 @@
       </c>
       <c r="AC9" s="69" t="str">
         <f>_xll.qlSchedule(C9&amp;"_Sch",D9,E9,F9,G9,H9,I9,J9,K9,L9,M9,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0003658009_Sch#0000</v>
+        <v>IT0003658009_Sch#0001</v>
       </c>
       <c r="AD9" s="51" t="str">
         <f>IF(AE9,_xll.qlCCTEU(C9,,E9,X9,W9,D9,,Permanent,Trigger,ObjectOverwrite),_xll.qlFloatingRateBond(C9,AB9,N9,O9,P9,Q9,AC9,R9,S9,T9,U9,V9,W9,X9,Y9,Z9,AA9,Permanent,Trigger,ObjectOverwrite))</f>
-        <v>IT0003658009#0000</v>
+        <v>IT0003658009#0001</v>
       </c>
       <c r="AE9" s="51" t="b">
         <v>0</v>
@@ -3417,11 +3437,11 @@
       </c>
       <c r="AC10" s="69" t="str">
         <f>_xll.qlSchedule(C10&amp;"_Sch",D10,E10,F10,G10,H10,I10,J10,K10,L10,M10,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0003746366_Sch#0000</v>
+        <v>IT0003746366_Sch#0001</v>
       </c>
       <c r="AD10" s="51" t="str">
         <f>IF(AE10,_xll.qlCCTEU(C10,,E10,X10,W10,D10,,Permanent,Trigger,ObjectOverwrite),_xll.qlFloatingRateBond(C10,AB10,N10,O10,P10,Q10,AC10,R10,S10,T10,U10,V10,W10,X10,Y10,Z10,AA10,Permanent,Trigger,ObjectOverwrite))</f>
-        <v>IT0003746366#0000</v>
+        <v>IT0003746366#0001</v>
       </c>
       <c r="AE10" s="51" t="b">
         <v>0</v>
@@ -3511,11 +3531,11 @@
       </c>
       <c r="AC11" s="55" t="str">
         <f>_xll.qlSchedule(C11&amp;"_Sch",D11,E11,F11,G11,H11,I11,J11,K11,L11,M11,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0003858856_Sch#0000</v>
+        <v>IT0003858856_Sch#0001</v>
       </c>
       <c r="AD11" s="31" t="str">
         <f>IF(AE11,_xll.qlCCTEU(C11,,E11,X11,W11,D11,,Permanent,Trigger,ObjectOverwrite),_xll.qlFloatingRateBond(C11,AB11,N11,O11,P11,Q11,AC11,R11,S11,T11,U11,V11,W11,X11,Y11,Z11,AA11,Permanent,Trigger,ObjectOverwrite))</f>
-        <v>IT0003858856#0000</v>
+        <v>IT0003858856#0001</v>
       </c>
       <c r="AE11" s="31" t="b">
         <v>0</v>
@@ -3605,11 +3625,11 @@
       </c>
       <c r="AC12" s="55" t="str">
         <f>_xll.qlSchedule(C12&amp;"_Sch",D12,E12,F12,G12,H12,I12,J12,K12,L12,M12,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0003993158_Sch#0000</v>
+        <v>IT0003993158_Sch#0001</v>
       </c>
       <c r="AD12" s="31" t="str">
         <f>IF(AE12,_xll.qlCCTEU(C12,,E12,X12,W12,D12,,Permanent,Trigger,ObjectOverwrite),_xll.qlFloatingRateBond(C12,AB12,N12,O12,P12,Q12,AC12,R12,S12,T12,U12,V12,W12,X12,Y12,Z12,AA12,Permanent,Trigger,ObjectOverwrite))</f>
-        <v>IT0003993158#0000</v>
+        <v>IT0003993158#0001</v>
       </c>
       <c r="AE12" s="31" t="b">
         <v>0</v>
@@ -3699,11 +3719,11 @@
       </c>
       <c r="AC13" s="55" t="str">
         <f>_xll.qlSchedule(C13&amp;"_Sch",D13,E13,F13,G13,H13,I13,J13,K13,L13,M13,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0004101447_Sch#0000</v>
+        <v>IT0004101447_Sch#0001</v>
       </c>
       <c r="AD13" s="31" t="str">
         <f>IF(AE13,_xll.qlCCTEU(C13,,E13,X13,W13,D13,,Permanent,Trigger,ObjectOverwrite),_xll.qlFloatingRateBond(C13,AB13,N13,O13,P13,Q13,AC13,R13,S13,T13,U13,V13,W13,X13,Y13,Z13,AA13,Permanent,Trigger,ObjectOverwrite))</f>
-        <v>IT0004101447#0000</v>
+        <v>IT0004101447#0001</v>
       </c>
       <c r="AE13" s="31" t="b">
         <v>0</v>
@@ -3793,11 +3813,11 @@
       </c>
       <c r="AC14" s="55" t="str">
         <f>_xll.qlSchedule(C14&amp;"_Sch",D14,E14,F14,G14,H14,I14,J14,K14,L14,M14,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0004224041_Sch#0000</v>
+        <v>IT0004224041_Sch#0001</v>
       </c>
       <c r="AD14" s="31" t="str">
         <f>IF(AE14,_xll.qlCCTEU(C14,,E14,X14,W14,D14,,Permanent,Trigger,ObjectOverwrite),_xll.qlFloatingRateBond(C14,AB14,N14,O14,P14,Q14,AC14,R14,S14,T14,U14,V14,W14,X14,Y14,Z14,AA14,Permanent,Trigger,ObjectOverwrite))</f>
-        <v>IT0004224041#0000</v>
+        <v>IT0004224041#0001</v>
       </c>
       <c r="AE14" s="31" t="b">
         <v>0</v>
@@ -3887,11 +3907,11 @@
       </c>
       <c r="AC15" s="55" t="str">
         <f>_xll.qlSchedule(C15&amp;"_Sch",D15,E15,F15,G15,H15,I15,J15,K15,L15,M15,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0004321813_Sch#0000</v>
+        <v>IT0004321813_Sch#0001</v>
       </c>
       <c r="AD15" s="31" t="str">
         <f>IF(AE15,_xll.qlCCTEU(C15,,E15,X15,W15,D15,,Permanent,Trigger,ObjectOverwrite),_xll.qlFloatingRateBond(C15,AB15,N15,O15,P15,Q15,AC15,R15,S15,T15,U15,V15,W15,X15,Y15,Z15,AA15,Permanent,Trigger,ObjectOverwrite))</f>
-        <v>IT0004321813#0000</v>
+        <v>IT0004321813#0001</v>
       </c>
       <c r="AE15" s="31" t="b">
         <v>0</v>
@@ -3981,11 +4001,11 @@
       </c>
       <c r="AC16" s="55" t="str">
         <f>_xll.qlSchedule(C16&amp;"_Sch",D16,E16,F16,G16,H16,I16,J16,K16,L16,M16,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0004404965_Sch#0000</v>
+        <v>IT0004404965_Sch#0001</v>
       </c>
       <c r="AD16" s="31" t="str">
         <f>IF(AE16,_xll.qlCCTEU(C16,,E16,X16,W16,D16,,Permanent,Trigger,ObjectOverwrite),_xll.qlFloatingRateBond(C16,AB16,N16,O16,P16,Q16,AC16,R16,S16,T16,U16,V16,W16,X16,Y16,Z16,AA16,Permanent,Trigger,ObjectOverwrite))</f>
-        <v>IT0004404965#0000</v>
+        <v>IT0004404965#0001</v>
       </c>
       <c r="AE16" s="31" t="b">
         <v>0</v>
@@ -4057,7 +4077,7 @@
         <v>#N/A</v>
       </c>
       <c r="W17" s="76" t="s">
-        <v>426</v>
+        <v>468</v>
       </c>
       <c r="X17" s="76">
         <v>8.0000000000000002E-3</v>
@@ -4071,14 +4091,14 @@
       <c r="AA17" s="78" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB17" s="79" t="e">
+      <c r="AB17" s="79" t="str">
         <f>_xll.qlBondDescription(AD17)</f>
-        <v>#VALUE!</v>
+        <v>CCTEU 2015-12-15 80bp</v>
       </c>
       <c r="AC17" s="80"/>
-      <c r="AD17" s="81" t="e">
+      <c r="AD17" s="81" t="str">
         <f>IF(AE17,_xll.qlCCTEU(C17,,E17,X17,W17,D17,,Permanent,Trigger,ObjectOverwrite),_xll.qlFloatingRateBond(C17,AB17,N17,O17,P17,Q17,AC17,R17,S17,T17,U17,V17,W17,X17,Y17,Z17,AA17,Permanent,Trigger,ObjectOverwrite))</f>
-        <v>#NUM!</v>
+        <v>IT0004620305#0001</v>
       </c>
       <c r="AE17" s="81" t="b">
         <v>1</v>
@@ -4168,11 +4188,11 @@
       </c>
       <c r="AC18" s="55" t="str">
         <f>_xll.qlSchedule(C18&amp;"_Sch",D18,E18,F18,G18,H18,I18,J18,K18,L18,M18,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0004518715_Sch#0000</v>
+        <v>IT0004518715_Sch#0001</v>
       </c>
       <c r="AD18" s="31" t="str">
         <f>IF(AE18,_xll.qlCCTEU(C18,,E18,X18,W18,D18,,Permanent,Trigger,ObjectOverwrite),_xll.qlFloatingRateBond(C18,AB18,N18,O18,P18,Q18,AC18,R18,S18,T18,U18,V18,W18,X18,Y18,Z18,AA18,Permanent,Trigger,ObjectOverwrite))</f>
-        <v>IT0004518715#0000</v>
+        <v>IT0004518715#0001</v>
       </c>
       <c r="AE18" s="31" t="b">
         <v>0</v>
@@ -4262,11 +4282,11 @@
       </c>
       <c r="AC19" s="55" t="str">
         <f>_xll.qlSchedule(C19&amp;"_Sch",D19,E19,F19,G19,H19,I19,J19,K19,L19,M19,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0004584204_Sch#0000</v>
+        <v>IT0004584204_Sch#0001</v>
       </c>
       <c r="AD19" s="31" t="str">
         <f>IF(AE19,_xll.qlCCTEU(C19,,E19,X19,W19,D19,,Permanent,Trigger,ObjectOverwrite),_xll.qlFloatingRateBond(C19,AB19,N19,O19,P19,Q19,AC19,R19,S19,T19,U19,V19,W19,X19,Y19,Z19,AA19,Permanent,Trigger,ObjectOverwrite))</f>
-        <v>IT0004584204#0000</v>
+        <v>IT0004584204#0001</v>
       </c>
       <c r="AE19" s="31" t="b">
         <v>0</v>
@@ -4339,7 +4359,7 @@
         <v>#N/A</v>
       </c>
       <c r="W20" s="76" t="s">
-        <v>426</v>
+        <v>468</v>
       </c>
       <c r="X20" s="76">
         <v>8.0000000000000002E-3</v>
@@ -4354,14 +4374,14 @@
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="AB20" s="79" t="e">
+      <c r="AB20" s="79" t="str">
         <f>_xll.qlBondDescription(AD20)</f>
-        <v>#VALUE!</v>
+        <v>CCTEU 2017-10-15 80bp</v>
       </c>
       <c r="AC20" s="80"/>
-      <c r="AD20" s="81" t="e">
+      <c r="AD20" s="81" t="str">
         <f>IF(AE20,_xll.qlCCTEU(C20,,E20,X20,W20,D20,,Permanent,Trigger,ObjectOverwrite),_xll.qlFloatingRateBond(C20,AB20,N20,O20,P20,Q20,AC20,R20,S20,T20,U20,V20,W20,X20,Y20,Z20,AA20,Permanent,Trigger,ObjectOverwrite))</f>
-        <v>#NUM!</v>
+        <v>IT0004652175#0001</v>
       </c>
       <c r="AE20" s="81" t="b">
         <v>1</v>
@@ -4434,7 +4454,7 @@
         <v>#N/A</v>
       </c>
       <c r="W21" s="76" t="s">
-        <v>426</v>
+        <v>468</v>
       </c>
       <c r="X21" s="76">
         <v>0.01</v>
@@ -4449,14 +4469,14 @@
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="AB21" s="79" t="e">
+      <c r="AB21" s="79" t="str">
         <f>_xll.qlBondDescription(AD21)</f>
-        <v>#VALUE!</v>
+        <v>CCTEU 2018-04-15 100bp</v>
       </c>
       <c r="AC21" s="80"/>
-      <c r="AD21" s="81" t="e">
+      <c r="AD21" s="81" t="str">
         <f>IF(AE21,_xll.qlCCTEU(C21,,E21,X21,W21,D21,,Permanent,Trigger,ObjectOverwrite),_xll.qlFloatingRateBond(C21,AB21,N21,O21,P21,Q21,AC21,R21,S21,T21,U21,V21,W21,X21,Y21,Z21,AA21,Permanent,Trigger,ObjectOverwrite))</f>
-        <v>#NUM!</v>
+        <v>IT0004716319#0001</v>
       </c>
       <c r="AE21" s="81" t="b">
         <v>1</v>
@@ -4493,9 +4513,9 @@
       <c r="AA22" s="22"/>
       <c r="AB22" s="22"/>
       <c r="AC22" s="22"/>
-      <c r="AD22" s="56" t="e">
+      <c r="AD22" s="56" t="str">
         <f>_xll.ohGroup(AE22,_xll.ohFilter(AD8:AD21,AE8:AE21),Permanent,,ObjectOverwrite)</f>
-        <v>#NUM!</v>
+        <v>CCTEUs#0001</v>
       </c>
       <c r="AE22" s="22" t="s">
         <v>419</v>
@@ -4532,9 +4552,9 @@
       <c r="AA23" s="45"/>
       <c r="AB23" s="45"/>
       <c r="AC23" s="45"/>
-      <c r="AD23" s="52" t="e">
+      <c r="AD23" s="52" t="str">
         <f>_xll.ohGroup(AE23,AD8:AD21,Permanent,,ObjectOverwrite)</f>
-        <v>#NUM!</v>
+        <v>CCTs#0001</v>
       </c>
       <c r="AE23" s="45" t="s">
         <v>417</v>
@@ -4566,13 +4586,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:S107"/>
+  <dimension ref="A1:S110"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="8" ySplit="7" topLeftCell="I8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="7" topLeftCell="I43" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -4660,7 +4680,7 @@
     <row r="4" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="62"/>
       <c r="B4" s="21" t="str">
-        <f>IF(Serialize,_xll.ohObjectSave(I8:I107,SerializationPath&amp;FileName,FileOverwrite,Serialize),"---")</f>
+        <f>IF(Serialize,_xll.ohObjectSave(I8:I110,SerializationPath&amp;FileName,FileOverwrite,Serialize),"---")</f>
         <v>---</v>
       </c>
       <c r="C4" s="25" t="s">
@@ -4694,7 +4714,7 @@
       <c r="I5" s="22"/>
       <c r="J5" s="135">
         <f>_xll.qlSettingsEvaluationDate(Trigger)+365</f>
-        <v>42641</v>
+        <v>42801</v>
       </c>
       <c r="K5" s="22"/>
       <c r="L5" s="22"/>
@@ -4713,7 +4733,7 @@
       <c r="H6" s="22"/>
       <c r="I6" s="50">
         <f>_xll.qlBondSettlementDate(I8,)</f>
-        <v>42278</v>
+        <v>42438</v>
       </c>
       <c r="J6" s="135">
         <v>41275</v>
@@ -4751,7 +4771,7 @@
         <v>25</v>
       </c>
       <c r="J7" s="82" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="K7" s="82" t="s">
         <v>355</v>
@@ -4791,13 +4811,14 @@
       </c>
       <c r="I8" s="88" t="str">
         <f>_xll.qlBTP2(C8,,D8,E8,F8,G8,H8,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0003799597#0000</v>
+        <v>IT0003799597#0004</v>
       </c>
       <c r="J8" s="88" t="b">
         <f>IF(AND(H8&gt;$J$6,D8&gt;$J$5),TRUE,FALSE)</f>
         <v>0</v>
       </c>
       <c r="K8" s="123" t="b">
+        <f t="shared" ref="K8:K71" si="0">NOT(ISNA(VLOOKUP(LEFT($I8,12),LatestStrippable,1,FALSE)))</f>
         <v>0</v>
       </c>
       <c r="L8" s="121" t="str">
@@ -4843,17 +4864,18 @@
       </c>
       <c r="I9" s="88" t="str">
         <f>_xll.qlBTP2(C9,,D9,E9,F9,G9,H9,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0004196918#0000</v>
+        <v>IT0004196918#0004</v>
       </c>
       <c r="J9" s="88" t="b">
-        <f t="shared" ref="J9:J72" si="0">IF(AND(H9&gt;$J$6,D9&gt;$J$5),TRUE,FALSE)</f>
+        <f t="shared" ref="J9:J73" si="1">IF(AND(H9&gt;$J$6,D9&gt;$J$5),TRUE,FALSE)</f>
         <v>0</v>
       </c>
       <c r="K9" s="123" t="b">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L9" s="121" t="str">
-        <f t="shared" ref="L9:L82" si="1">IF(AND(K9,ISNA(M9),ISNA(N9)),"Residual Missing","--")</f>
+        <f t="shared" ref="L9:L83" si="2">IF(AND(K9,ISNA(M9),ISNA(N9)),"Residual Missing","--")</f>
         <v>--</v>
       </c>
       <c r="M9" s="48" t="e">
@@ -4892,17 +4914,18 @@
       </c>
       <c r="I10" s="88" t="str">
         <f>_xll.qlBTP2(C10,,D10,E10,F10,G10,H10,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0003872923#0000</v>
+        <v>IT0003872923#0004</v>
       </c>
       <c r="J10" s="88" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K10" s="123" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K10" s="123" t="b">
-        <v>0</v>
-      </c>
       <c r="L10" s="121" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>--</v>
       </c>
       <c r="M10" s="48" t="e">
@@ -4941,17 +4964,18 @@
       </c>
       <c r="I11" s="88" t="str">
         <f>_xll.qlBTP2(C11,,D11,E11,F11,G11,H11,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0004254352#0000</v>
+        <v>IT0004254352#0004</v>
       </c>
       <c r="J11" s="88" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K11" s="123" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K11" s="123" t="b">
-        <v>0</v>
-      </c>
       <c r="L11" s="121" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>--</v>
       </c>
       <c r="M11" s="48" t="e">
@@ -4990,17 +5014,18 @@
       </c>
       <c r="I12" s="88" t="str">
         <f>_xll.qlBTP2(C12,,D12,E12,F12,G12,H12,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0001448619#0000</v>
+        <v>IT0001448619#0004</v>
       </c>
       <c r="J12" s="88" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K12" s="123" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K12" s="123" t="b">
-        <v>1</v>
-      </c>
       <c r="L12" s="121" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>--</v>
       </c>
       <c r="M12" s="48" t="str">
@@ -5042,17 +5067,18 @@
       </c>
       <c r="I13" s="88" t="str">
         <f>_xll.qlBTP2(C13,,D13,E13,F13,G13,H13,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0004332521#0000</v>
+        <v>IT0004332521#0004</v>
       </c>
       <c r="J13" s="88" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K13" s="123" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K13" s="123" t="b">
-        <v>0</v>
-      </c>
       <c r="L13" s="121" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>--</v>
       </c>
       <c r="M13" s="48" t="e">
@@ -5091,17 +5117,18 @@
       </c>
       <c r="I14" s="88" t="str">
         <f>_xll.qlBTP2(C14,,D14,E14,F14,G14,H14,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0004026297#0000</v>
+        <v>IT0004026297#0004</v>
       </c>
       <c r="J14" s="88" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K14" s="123" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K14" s="123" t="b">
-        <v>0</v>
-      </c>
       <c r="L14" s="121" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>--</v>
       </c>
       <c r="M14" s="48" t="e">
@@ -5140,17 +5167,18 @@
       </c>
       <c r="I15" s="88" t="str">
         <f>_xll.qlBTP2(C15,,D15,E15,F15,G15,H15,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0003080402#0000</v>
+        <v>IT0003080402#0004</v>
       </c>
       <c r="J15" s="88" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K15" s="123" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K15" s="123" t="b">
-        <v>1</v>
-      </c>
       <c r="L15" s="121" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>--</v>
       </c>
       <c r="M15" s="48" t="e">
@@ -5189,17 +5217,18 @@
       </c>
       <c r="I16" s="88" t="str">
         <f>_xll.qlBTP2(C16,,D16,E16,F16,G16,H16,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0004404973#0000</v>
+        <v>IT0004404973#0004</v>
       </c>
       <c r="J16" s="88" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K16" s="123" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K16" s="123" t="b">
-        <v>0</v>
-      </c>
       <c r="L16" s="121" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>--</v>
       </c>
       <c r="M16" s="48" t="e">
@@ -5238,17 +5267,18 @@
       </c>
       <c r="I17" s="88" t="str">
         <f>_xll.qlBTP2(C17,,D17,E17,F17,G17,H17,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0004112816#0000</v>
+        <v>IT0004112816#0004</v>
       </c>
       <c r="J17" s="88" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K17" s="123" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K17" s="123" t="b">
-        <v>0</v>
-      </c>
       <c r="L17" s="121" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>--</v>
       </c>
       <c r="M17" s="48" t="e">
@@ -5287,17 +5317,18 @@
       </c>
       <c r="I18" s="88" t="str">
         <f>_xll.qlBTP2(C18,,D18,E18,F18,G18,H18,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0003190912#0000</v>
+        <v>IT0003190912#0004</v>
       </c>
       <c r="J18" s="88" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K18" s="123" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K18" s="123" t="b">
-        <v>1</v>
-      </c>
       <c r="L18" s="121" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>--</v>
       </c>
       <c r="M18" s="48" t="e">
@@ -5336,18 +5367,18 @@
       </c>
       <c r="I19" s="88" t="str">
         <f>_xll.qlBTP2(C19,,D19,E19,F19,G19,H19,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0004467483#0000</v>
+        <v>IT0004467483#0004</v>
       </c>
       <c r="J19" s="88" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K19" s="123" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K19" s="123" t="b">
-        <f t="shared" ref="K19:K99" si="2">NOT(ISNA(VLOOKUP(LEFT($I19,12),LatestStrippable,1,FALSE)))</f>
-        <v>0</v>
-      </c>
       <c r="L19" s="121" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>--</v>
       </c>
       <c r="M19" s="96" t="e">
@@ -5386,18 +5417,18 @@
       </c>
       <c r="I20" s="88" t="str">
         <f>_xll.qlBTP2(C20,,D20,E20,F20,G20,H20,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0004220627#0000</v>
+        <v>IT0004220627#0004</v>
       </c>
       <c r="J20" s="88" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K20" s="123" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K20" s="123" t="b">
+      <c r="L20" s="121" t="str">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L20" s="121" t="str">
-        <f t="shared" si="1"/>
         <v>--</v>
       </c>
       <c r="M20" s="96" t="e">
@@ -5436,18 +5467,18 @@
       </c>
       <c r="I21" s="88" t="str">
         <f>_xll.qlBTP2(C21,,D21,E21,F21,G21,H21,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0004508971#0000</v>
+        <v>IT0004508971#0004</v>
       </c>
       <c r="J21" s="88" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K21" s="123" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K21" s="123" t="b">
+      <c r="L21" s="121" t="str">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L21" s="121" t="str">
-        <f t="shared" si="1"/>
         <v>--</v>
       </c>
       <c r="M21" s="48" t="e">
@@ -5486,18 +5517,18 @@
       </c>
       <c r="I22" s="88" t="str">
         <f>_xll.qlBTP2(C22,,D22,E22,F22,G22,H22,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0004284334#0000</v>
+        <v>IT0004284334#0004</v>
       </c>
       <c r="J22" s="88" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K22" s="123" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K22" s="123" t="b">
+      <c r="L22" s="121" t="str">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L22" s="121" t="str">
-        <f t="shared" si="1"/>
         <v>--</v>
       </c>
       <c r="M22" s="48" t="e">
@@ -5536,18 +5567,18 @@
       </c>
       <c r="I23" s="88" t="str">
         <f>_xll.qlBTP2(C23,,D23,E23,F23,G23,H23,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0004564636#0000</v>
+        <v>IT0004564636#0004</v>
       </c>
       <c r="J23" s="88" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K23" s="123" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K23" s="123" t="b">
+      <c r="L23" s="121" t="str">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L23" s="121" t="str">
-        <f t="shared" si="1"/>
         <v>--</v>
       </c>
       <c r="M23" s="48" t="e">
@@ -5586,18 +5617,18 @@
       </c>
       <c r="I24" s="88" t="str">
         <f>_xll.qlBTP2(C24,,D24,E24,F24,G24,H24,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0003357982#0000</v>
+        <v>IT0003357982#0004</v>
       </c>
       <c r="J24" s="88" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K24" s="123" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K24" s="123" t="b">
+      <c r="L24" s="121" t="str">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="L24" s="121" t="str">
-        <f t="shared" si="1"/>
         <v>--</v>
       </c>
       <c r="M24" s="48" t="e">
@@ -5636,18 +5667,18 @@
       </c>
       <c r="I25" s="88" t="str">
         <f>_xll.qlBTP2(C25,,D25,E25,F25,G25,H25,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0004365554#0000</v>
+        <v>IT0004365554#0004</v>
       </c>
       <c r="J25" s="88" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K25" s="123" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K25" s="123" t="b">
+      <c r="L25" s="121" t="str">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L25" s="121" t="str">
-        <f t="shared" si="1"/>
         <v>--</v>
       </c>
       <c r="M25" s="48" t="e">
@@ -5686,18 +5717,18 @@
       </c>
       <c r="I26" s="88" t="str">
         <f>_xll.qlBTP2(C26,,D26,E26,F26,G26,H26,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0004612179#0000</v>
+        <v>IT0004612179#0004</v>
       </c>
       <c r="J26" s="88" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K26" s="125" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K26" s="125" t="b">
+      <c r="L26" s="121" t="str">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L26" s="121" t="str">
-        <f t="shared" si="1"/>
         <v>--</v>
       </c>
       <c r="M26" s="48" t="e">
@@ -5736,18 +5767,18 @@
       </c>
       <c r="I27" s="88" t="str">
         <f>_xll.qlBTP2(C27,,D27,E27,F27,G27,H27,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0003472336#0000</v>
+        <v>IT0003472336#0004</v>
       </c>
       <c r="J27" s="88" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K27" s="125" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K27" s="125" t="b">
+      <c r="L27" s="121" t="str">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="L27" s="121" t="str">
-        <f t="shared" si="1"/>
         <v>--</v>
       </c>
       <c r="M27" s="48" t="e">
@@ -5786,18 +5817,18 @@
       </c>
       <c r="I28" s="88" t="str">
         <f>_xll.qlBTP2(C28,,D28,E28,F28,G28,H28,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0004653108#0000</v>
+        <v>IT0004653108#0004</v>
       </c>
       <c r="J28" s="88" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K28" s="125" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K28" s="125" t="b">
+      <c r="L28" s="121" t="str">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L28" s="121" t="str">
-        <f t="shared" si="1"/>
         <v>--</v>
       </c>
       <c r="M28" s="48" t="e">
@@ -5836,18 +5867,18 @@
       </c>
       <c r="I29" s="88" t="str">
         <f>_xll.qlBTP2(C29,,D29,E29,F29,G29,H29,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0004448863#0000</v>
+        <v>IT0004448863#0004</v>
       </c>
       <c r="J29" s="88" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K29" s="125" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K29" s="125" t="b">
+      <c r="L29" s="121" t="str">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L29" s="121" t="str">
-        <f t="shared" si="1"/>
         <v>--</v>
       </c>
       <c r="M29" s="48" t="e">
@@ -5886,18 +5917,18 @@
       </c>
       <c r="I30" s="116" t="str">
         <f>_xll.qlBTP2(C30,,D30,E30,F30,G30,H30,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0004707995#0000</v>
+        <v>IT0004707995#0004</v>
       </c>
       <c r="J30" s="116" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K30" s="125" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K30" s="125" t="b">
+      <c r="L30" s="121" t="str">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L30" s="121" t="str">
-        <f t="shared" si="1"/>
         <v>--</v>
       </c>
       <c r="M30" s="48" t="e">
@@ -5936,18 +5967,18 @@
       </c>
       <c r="I31" s="116" t="str">
         <f>_xll.qlBTP2(C31,,D31,E31,F31,G31,H31,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0004505076#0000</v>
+        <v>IT0004505076#0004</v>
       </c>
       <c r="J31" s="116" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K31" s="125" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K31" s="125" t="b">
+      <c r="L31" s="121" t="str">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L31" s="121" t="str">
-        <f t="shared" si="1"/>
         <v>--</v>
       </c>
       <c r="M31" s="48" t="e">
@@ -5986,18 +6017,18 @@
       </c>
       <c r="I32" s="116" t="str">
         <f>_xll.qlBTP2(C32,,D32,E32,F32,G32,H32,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0004750409#0000</v>
+        <v>IT0004750409#0004</v>
       </c>
       <c r="J32" s="116" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K32" s="125" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K32" s="125" t="b">
+      <c r="L32" s="121" t="str">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L32" s="121" t="str">
-        <f t="shared" si="1"/>
         <v>--</v>
       </c>
       <c r="M32" s="48" t="e">
@@ -6010,7 +6041,7 @@
       </c>
       <c r="O32" s="27"/>
     </row>
-    <row r="33" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:18" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="19"/>
       <c r="B33" s="124" t="str">
         <f>_xll.ohRangeRetrieveError(I33)</f>
@@ -6036,18 +6067,18 @@
       </c>
       <c r="I33" s="116" t="str">
         <f>_xll.qlBTP2(C33,,D33,E33,F33,G33,H33,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0003618383#0000</v>
+        <v>IT0003618383#0004</v>
       </c>
       <c r="J33" s="116" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K33" s="125" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K33" s="125" t="b">
+      <c r="L33" s="121" t="str">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="L33" s="121" t="str">
-        <f t="shared" si="1"/>
         <v>--</v>
       </c>
       <c r="M33" s="48" t="e">
@@ -6060,14 +6091,14 @@
       </c>
       <c r="O33" s="27"/>
     </row>
-    <row r="34" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:18" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="19"/>
       <c r="B34" s="124" t="str">
         <f>_xll.ohRangeRetrieveError(I34)</f>
         <v/>
       </c>
       <c r="C34" s="112" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D34" s="113">
         <v>41958</v>
@@ -6086,18 +6117,18 @@
       </c>
       <c r="I34" s="116" t="str">
         <f>_xll.qlBTP2(C34,,D34,E34,F34,G34,H34,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0004780380#0000</v>
+        <v>IT0004780380#0004</v>
       </c>
       <c r="J34" s="116" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K34" s="125" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K34" s="125" t="b">
+      <c r="L34" s="121" t="str">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L34" s="121" t="str">
-        <f t="shared" si="1"/>
         <v>--</v>
       </c>
       <c r="M34" s="48" t="e">
@@ -6110,7 +6141,7 @@
       </c>
       <c r="O34" s="27"/>
     </row>
-    <row r="35" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:18" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="19"/>
       <c r="B35" s="124" t="str">
         <f>_xll.ohRangeRetrieveError(I35)</f>
@@ -6136,18 +6167,18 @@
       </c>
       <c r="I35" s="116" t="str">
         <f>_xll.qlBTP2(C35,,D35,E35,F35,G35,H35,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0003719918#0000</v>
+        <v>IT0003719918#0004</v>
       </c>
       <c r="J35" s="116" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K35" s="125" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K35" s="125" t="b">
+      <c r="L35" s="121" t="str">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="L35" s="121" t="str">
-        <f t="shared" si="1"/>
         <v>--</v>
       </c>
       <c r="M35" s="48" t="e">
@@ -6160,14 +6191,14 @@
       </c>
       <c r="O35" s="27"/>
     </row>
-    <row r="36" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:18" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="19"/>
       <c r="B36" s="124" t="str">
         <f>_xll.ohRangeRetrieveError(I36)</f>
         <v/>
       </c>
       <c r="C36" s="112" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D36" s="113">
         <v>42064</v>
@@ -6186,18 +6217,18 @@
       </c>
       <c r="I36" s="116" t="str">
         <f>_xll.qlBTP2(C36,,D36,E36,F36,G36,H36,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0004805070#0000</v>
+        <v>IT0004805070#0004</v>
       </c>
       <c r="J36" s="116" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K36" s="125" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K36" s="125" t="b">
+      <c r="L36" s="121" t="str">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L36" s="121" t="str">
-        <f t="shared" si="1"/>
         <v>--</v>
       </c>
       <c r="M36" s="48" t="e">
@@ -6210,7 +6241,7 @@
       </c>
       <c r="O36" s="27"/>
     </row>
-    <row r="37" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:18" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="19"/>
       <c r="B37" s="124" t="str">
         <f>_xll.ohRangeRetrieveError(I37)</f>
@@ -6236,18 +6267,18 @@
       </c>
       <c r="I37" s="116" t="str">
         <f>_xll.qlBTP2(C37,,D37,E37,F37,G37,H37,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0004568272#0000</v>
+        <v>IT0004568272#0004</v>
       </c>
       <c r="J37" s="116" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K37" s="125" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K37" s="125" t="b">
+      <c r="L37" s="121" t="str">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L37" s="121" t="str">
-        <f t="shared" si="1"/>
         <v>--</v>
       </c>
       <c r="M37" s="48" t="e">
@@ -6260,7 +6291,7 @@
       </c>
       <c r="O37" s="27"/>
     </row>
-    <row r="38" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:18" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="19"/>
       <c r="B38" s="124" t="str">
         <f>_xll.ohRangeRetrieveError(I38)</f>
@@ -6286,18 +6317,18 @@
       </c>
       <c r="I38" s="116" t="str">
         <f>_xll.qlBTP2(C38,,D38,E38,F38,G38,H38,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0004615917#0000</v>
+        <v>IT0004615917#0004</v>
       </c>
       <c r="J38" s="116" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K38" s="125" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K38" s="125" t="b">
+      <c r="L38" s="121" t="str">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L38" s="121" t="str">
-        <f t="shared" si="1"/>
         <v>--</v>
       </c>
       <c r="M38" s="48" t="e">
@@ -6310,14 +6341,14 @@
       </c>
       <c r="O38" s="27"/>
     </row>
-    <row r="39" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:18" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="19"/>
       <c r="B39" s="124" t="str">
         <f>_xll.ohRangeRetrieveError(I39)</f>
         <v/>
       </c>
       <c r="C39" s="112" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D39" s="113">
         <v>42200</v>
@@ -6336,18 +6367,18 @@
       </c>
       <c r="I39" s="116" t="str">
         <f>_xll.qlBTP2(C39,,D39,E39,F39,G39,H39,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0004840788#0000</v>
+        <v>IT0004840788#0004</v>
       </c>
       <c r="J39" s="116" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K39" s="125" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K39" s="125" t="b">
+      <c r="L39" s="121" t="str">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L39" s="121" t="str">
-        <f t="shared" si="1"/>
         <v>--</v>
       </c>
       <c r="M39" s="48" t="e">
@@ -6360,7 +6391,7 @@
       </c>
       <c r="O39" s="27"/>
     </row>
-    <row r="40" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:18" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="19"/>
       <c r="B40" s="124" t="str">
         <f>_xll.ohRangeRetrieveError(I40)</f>
@@ -6386,18 +6417,18 @@
       </c>
       <c r="I40" s="116" t="str">
         <f>_xll.qlBTP2(C40,,D40,E40,F40,G40,H40,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0003844534#0000</v>
+        <v>IT0003844534#0004</v>
       </c>
       <c r="J40" s="116" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K40" s="125" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K40" s="125" t="b">
+      <c r="L40" s="121" t="str">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="L40" s="121" t="str">
-        <f t="shared" si="1"/>
         <v>--</v>
       </c>
       <c r="M40" s="48" t="e">
@@ -6410,44 +6441,45 @@
       </c>
       <c r="O40" s="27"/>
     </row>
-    <row r="41" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:18" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="19"/>
-      <c r="B41" s="126" t="str">
+      <c r="B41" s="124" t="str">
         <f>_xll.ohRangeRetrieveError(I41)</f>
         <v/>
       </c>
-      <c r="C41" s="40" t="s">
+      <c r="C41" s="112" t="s">
         <v>407</v>
       </c>
-      <c r="D41" s="85">
+      <c r="D41" s="113">
         <v>42309</v>
       </c>
-      <c r="E41" s="86">
+      <c r="E41" s="114">
         <v>0.03</v>
       </c>
-      <c r="F41" s="87">
-        <v>100</v>
-      </c>
-      <c r="G41" s="85">
+      <c r="F41" s="115">
+        <v>100</v>
+      </c>
+      <c r="G41" s="113">
         <v>40483</v>
       </c>
-      <c r="H41" s="85">
+      <c r="H41" s="113">
         <v>40498</v>
       </c>
-      <c r="I41" s="119" t="str">
+      <c r="I41" s="116" t="str">
         <f>_xll.qlBTP2(C41,,D41,E41,F41,G41,H41,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0004656275#0000</v>
-      </c>
-      <c r="J41" s="119" t="b">
+        <v>IT0004656275#0004</v>
+      </c>
+      <c r="J41" s="116" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K41" s="125" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K41" s="127" t="b">
-        <v>1</v>
-      </c>
       <c r="L41" s="121" t="str">
-        <f t="shared" si="1"/>
-        <v>Residual Missing</v>
+        <f t="shared" si="2"/>
+        <v>--</v>
       </c>
       <c r="M41" s="48" t="e">
         <f>LEFT(VLOOKUP($D41,'BTP Strip May-Nov'!$H$8:$M$13,6,FALSE),12)</f>
@@ -6459,44 +6491,44 @@
       </c>
       <c r="O41" s="27"/>
     </row>
-    <row r="42" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:18" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="19"/>
-      <c r="B42" s="126" t="str">
+      <c r="B42" s="124" t="str">
         <f>_xll.ohRangeRetrieveError(I42)</f>
         <v/>
       </c>
-      <c r="C42" s="40" t="s">
-        <v>433</v>
-      </c>
-      <c r="D42" s="85">
+      <c r="C42" s="112" t="s">
+        <v>432</v>
+      </c>
+      <c r="D42" s="113">
         <v>42339</v>
       </c>
-      <c r="E42" s="86">
+      <c r="E42" s="114">
         <v>2.75E-2</v>
       </c>
-      <c r="F42" s="87">
-        <v>100</v>
-      </c>
-      <c r="G42" s="85">
+      <c r="F42" s="115">
+        <v>100</v>
+      </c>
+      <c r="G42" s="113">
         <v>41244</v>
       </c>
-      <c r="H42" s="85">
+      <c r="H42" s="113">
         <v>41260</v>
       </c>
-      <c r="I42" s="119" t="str">
+      <c r="I42" s="116" t="str">
         <f>_xll.qlBTP2(C42,,D42,E42,F42,G42,H42,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0004880990#0000</v>
-      </c>
-      <c r="J42" s="119" t="b">
+        <v>IT0004880990#0004</v>
+      </c>
+      <c r="J42" s="116" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K42" s="125" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K42" s="127" t="b">
+      <c r="L42" s="121" t="str">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L42" s="121" t="str">
-        <f t="shared" si="1"/>
         <v>--</v>
       </c>
       <c r="M42" s="48" t="e">
@@ -6509,7 +6541,7 @@
       </c>
       <c r="O42" s="27"/>
     </row>
-    <row r="43" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:18" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="19"/>
       <c r="B43" s="126" t="str">
         <f>_xll.ohRangeRetrieveError(I43)</f>
@@ -6535,17 +6567,18 @@
       </c>
       <c r="I43" s="119" t="str">
         <f>_xll.qlBTP2(C43,,D43,E43,F43,G43,H43,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0004712748#0000</v>
+        <v>IT0004712748#0004</v>
       </c>
       <c r="J43" s="119" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K43" s="127" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K43" s="127" t="b">
         <v>1</v>
       </c>
       <c r="L43" s="121" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Residual Missing</v>
       </c>
       <c r="M43" s="48" t="e">
@@ -6557,15 +6590,22 @@
         <v>#N/A</v>
       </c>
       <c r="O43" s="27"/>
-    </row>
-    <row r="44" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q43" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="R43" s="18" t="b">
+        <f>(Q43=K43)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="19"/>
       <c r="B44" s="126" t="str">
         <f>_xll.ohRangeRetrieveError(I44)</f>
         <v/>
       </c>
       <c r="C44" s="40" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D44" s="85">
         <v>42505</v>
@@ -6584,18 +6624,18 @@
       </c>
       <c r="I44" s="119" t="str">
         <f>_xll.qlBTP2(C44,,D44,E44,F44,G44,H44,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0004917792#0000</v>
+        <v>IT0004917792#0004</v>
       </c>
       <c r="J44" s="119" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K44" s="127" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K44" s="127" t="b">
+      <c r="L44" s="121" t="str">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L44" s="121" t="str">
-        <f t="shared" si="1"/>
         <v>--</v>
       </c>
       <c r="M44" s="48" t="e">
@@ -6607,8 +6647,15 @@
         <v>#N/A</v>
       </c>
       <c r="O44" s="27"/>
-    </row>
-    <row r="45" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q44" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="R44" s="18" t="b">
+        <f t="shared" ref="R44:R107" si="3">(Q44=K44)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="19"/>
       <c r="B45" s="126" t="str">
         <f>_xll.ohRangeRetrieveError(I45)</f>
@@ -6634,18 +6681,18 @@
       </c>
       <c r="I45" s="119" t="str">
         <f>_xll.qlBTP2(C45,,D45,E45,F45,G45,H45,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0004019581#0000</v>
+        <v>IT0004019581#0004</v>
       </c>
       <c r="J45" s="119" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K45" s="127" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K45" s="127" t="b">
+        <v>1</v>
+      </c>
+      <c r="L45" s="121" t="str">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="L45" s="121" t="str">
-        <f t="shared" si="1"/>
         <v>--</v>
       </c>
       <c r="M45" s="48" t="e">
@@ -6657,8 +6704,15 @@
         <v>IT0004038318</v>
       </c>
       <c r="O45" s="27"/>
-    </row>
-    <row r="46" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q45" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="R45" s="18" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" s="19"/>
       <c r="B46" s="126" t="str">
         <f>_xll.ohRangeRetrieveError(I46)</f>
@@ -6684,17 +6738,18 @@
       </c>
       <c r="I46" s="119" t="str">
         <f>_xll.qlBTP2(C46,,D46,E46,F46,G46,H46,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0004761950#0000</v>
+        <v>IT0004761950#0004</v>
       </c>
       <c r="J46" s="119" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K46" s="127" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K46" s="127" t="b">
         <v>1</v>
       </c>
       <c r="L46" s="121" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Residual Missing</v>
       </c>
       <c r="M46" s="48" t="e">
@@ -6706,15 +6761,22 @@
         <v>#N/A</v>
       </c>
       <c r="O46" s="27"/>
-    </row>
-    <row r="47" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q46" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="R46" s="18" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="19"/>
       <c r="B47" s="126" t="str">
         <f>_xll.ohRangeRetrieveError(I47)</f>
         <v/>
       </c>
       <c r="C47" s="40" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D47" s="85">
         <v>42689</v>
@@ -6733,14 +6795,14 @@
       </c>
       <c r="I47" s="119" t="str">
         <f>_xll.qlBTP2(C47,,D47,E47,F47,G47,H47,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0004960826#0000</v>
+        <v>IT0004960826#0004</v>
       </c>
       <c r="J47" s="119" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K47" s="127" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="K47" s="127" t="b">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L47" s="121" t="str">
@@ -6756,15 +6818,22 @@
         <v>#N/A</v>
       </c>
       <c r="O47" s="27"/>
-    </row>
-    <row r="48" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q47" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="R47" s="18" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="19"/>
       <c r="B48" s="126" t="str">
         <f>_xll.ohRangeRetrieveError(I48)</f>
         <v/>
       </c>
       <c r="C48" s="40" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D48" s="85">
         <v>42719</v>
@@ -6783,14 +6852,14 @@
       </c>
       <c r="I48" s="119" t="str">
         <f>_xll.qlBTP2(C48,,D48,E48,F48,G48,H48,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0004987191#0000</v>
+        <v>IT0004987191#0004</v>
       </c>
       <c r="J48" s="119" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K48" s="127" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="K48" s="127" t="b">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L48" s="121" t="str">
@@ -6806,8 +6875,15 @@
         <v>#N/A</v>
       </c>
       <c r="O48" s="27"/>
-    </row>
-    <row r="49" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q48" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="R48" s="18" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A49" s="19"/>
       <c r="B49" s="126" t="str">
         <f>_xll.ohRangeRetrieveError(I49)</f>
@@ -6833,18 +6909,18 @@
       </c>
       <c r="I49" s="119" t="str">
         <f>_xll.qlBTP2(C49,,D49,E49,F49,G49,H49,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0004164775#0000</v>
+        <v>IT0004164775#0004</v>
       </c>
       <c r="J49" s="119" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K49" s="127" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K49" s="127" t="b">
+        <v>1</v>
+      </c>
+      <c r="L49" s="121" t="str">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="L49" s="121" t="str">
-        <f t="shared" si="1"/>
         <v>--</v>
       </c>
       <c r="M49" s="48" t="e">
@@ -6856,15 +6932,22 @@
         <v>IT0004276322</v>
       </c>
       <c r="O49" s="27"/>
-    </row>
-    <row r="50" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q49" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="R49" s="18" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A50" s="19"/>
       <c r="B50" s="126" t="str">
         <f>_xll.ohRangeRetrieveError(I50)</f>
         <v/>
       </c>
       <c r="C50" s="40" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D50" s="85">
         <v>42856</v>
@@ -6883,17 +6966,18 @@
       </c>
       <c r="I50" s="119" t="str">
         <f>_xll.qlBTP2(C50,,D50,E50,F50,G50,H50,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0004793474#0000</v>
+        <v>IT0004793474#0004</v>
       </c>
       <c r="J50" s="119" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K50" s="127" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K50" s="127" t="b">
         <v>1</v>
       </c>
       <c r="L50" s="121" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Residual Missing</v>
       </c>
       <c r="M50" s="48" t="e">
@@ -6905,15 +6989,22 @@
         <v>#N/A</v>
       </c>
       <c r="O50" s="27"/>
-    </row>
-    <row r="51" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q50" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="R50" s="18" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A51" s="19"/>
       <c r="B51" s="126" t="str">
         <f>_xll.ohRangeRetrieveError(I51)</f>
         <v/>
       </c>
       <c r="C51" s="40" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D51" s="85">
         <v>42870</v>
@@ -6932,17 +7023,17 @@
       </c>
       <c r="I51" s="119" t="str">
         <f>_xll.qlBTP2(C51,,D51,E51,F51,G51,H51,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0005023459#0000</v>
+        <v>IT0005023459#0004</v>
       </c>
       <c r="J51" s="119" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="K51" s="127" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K51" s="139" t="b">
         <v>1</v>
       </c>
       <c r="L51" s="121" t="str">
-        <f t="shared" ref="L51" si="3">IF(AND(K51,ISNA(M51),ISNA(N51)),"Residual Missing","--")</f>
+        <f t="shared" ref="L51" si="4">IF(AND(K51,ISNA(M51),ISNA(N51)),"Residual Missing","--")</f>
         <v>Residual Missing</v>
       </c>
       <c r="M51" s="48" t="e">
@@ -6954,15 +7045,22 @@
         <v>#N/A</v>
       </c>
       <c r="O51" s="27"/>
-    </row>
-    <row r="52" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q51" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="R51" s="18" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" s="19"/>
       <c r="B52" s="126" t="str">
         <f>_xll.ohRangeRetrieveError(I52)</f>
         <v/>
       </c>
       <c r="C52" s="40" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D52" s="85">
         <v>42887</v>
@@ -6981,17 +7079,18 @@
       </c>
       <c r="I52" s="119" t="str">
         <f>_xll.qlBTP2(C52,,D52,E52,F52,G52,H52,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0004820426#0000</v>
+        <v>IT0004820426#0004</v>
       </c>
       <c r="J52" s="119" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K52" s="127" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K52" s="127" t="b">
         <v>1</v>
       </c>
       <c r="L52" s="121" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Residual Missing</v>
       </c>
       <c r="M52" s="48" t="e">
@@ -7003,8 +7102,15 @@
         <v>#N/A</v>
       </c>
       <c r="O52" s="27"/>
-    </row>
-    <row r="53" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q52" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="R52" s="18" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A53" s="19"/>
       <c r="B53" s="126" t="str">
         <f>_xll.ohRangeRetrieveError(I53)</f>
@@ -7030,18 +7136,18 @@
       </c>
       <c r="I53" s="119" t="str">
         <f>_xll.qlBTP2(C53,,D53,E53,F53,G53,H53,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0003242747#0000</v>
+        <v>IT0003242747#0004</v>
       </c>
       <c r="J53" s="119" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K53" s="127" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K53" s="127" t="b">
+        <v>1</v>
+      </c>
+      <c r="L53" s="121" t="str">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="L53" s="121" t="str">
-        <f t="shared" si="1"/>
         <v>--</v>
       </c>
       <c r="M53" s="48" t="e">
@@ -7053,15 +7159,22 @@
         <v>IT0003246250</v>
       </c>
       <c r="O53" s="27"/>
-    </row>
-    <row r="54" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q53" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="R53" s="18" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A54" s="19"/>
       <c r="B54" s="126" t="str">
         <f>_xll.ohRangeRetrieveError(I54)</f>
         <v/>
       </c>
       <c r="C54" s="40" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D54" s="85">
         <v>43040</v>
@@ -7080,17 +7193,18 @@
       </c>
       <c r="I54" s="119" t="str">
         <f>_xll.qlBTP2(C54,,D54,E54,F54,G54,H54,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0004867070#0000</v>
+        <v>IT0004867070#0004</v>
       </c>
       <c r="J54" s="119" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K54" s="127" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K54" s="127" t="b">
         <v>1</v>
       </c>
       <c r="L54" s="121" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Residual Missing</v>
       </c>
       <c r="M54" s="48" t="e">
@@ -7102,15 +7216,22 @@
         <v>#N/A</v>
       </c>
       <c r="O54" s="27"/>
-    </row>
-    <row r="55" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q54" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="R54" s="18" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="19"/>
       <c r="B55" s="126" t="str">
         <f>_xll.ohRangeRetrieveError(I55)</f>
         <v/>
       </c>
       <c r="C55" s="40" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D55" s="85">
         <v>43115</v>
@@ -7129,17 +7250,17 @@
       </c>
       <c r="I55" s="119" t="str">
         <f>_xll.qlBTP2(C55,,D55,E55,F55,G55,H55,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0005058463#0000</v>
+        <v>IT0005058463#0004</v>
       </c>
       <c r="J55" s="119" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="K55" s="127" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K55" s="139" t="b">
         <v>1</v>
       </c>
       <c r="L55" s="121" t="str">
-        <f t="shared" ref="L55" si="4">IF(AND(K55,ISNA(M55),ISNA(N55)),"Residual Missing","--")</f>
+        <f t="shared" ref="L55" si="5">IF(AND(K55,ISNA(M55),ISNA(N55)),"Residual Missing","--")</f>
         <v>Residual Missing</v>
       </c>
       <c r="M55" s="48" t="e">
@@ -7151,8 +7272,15 @@
         <v>#N/A</v>
       </c>
       <c r="O55" s="27"/>
-    </row>
-    <row r="56" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q55" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="R55" s="18" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A56" s="19"/>
       <c r="B56" s="126" t="str">
         <f>_xll.ohRangeRetrieveError(I56)</f>
@@ -7178,18 +7306,18 @@
       </c>
       <c r="I56" s="119" t="str">
         <f>_xll.qlBTP2(C56,,D56,E56,F56,G56,H56,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0004273493#0000</v>
+        <v>IT0004273493#0004</v>
       </c>
       <c r="J56" s="119" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K56" s="127" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K56" s="127" t="b">
+        <v>1</v>
+      </c>
+      <c r="L56" s="121" t="str">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="L56" s="121" t="str">
-        <f t="shared" si="1"/>
         <v>--</v>
       </c>
       <c r="M56" s="48" t="e">
@@ -7201,15 +7329,22 @@
         <v>IT0004275811</v>
       </c>
       <c r="O56" s="27"/>
-    </row>
-    <row r="57" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q56" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="R56" s="18" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A57" s="19"/>
       <c r="B57" s="126" t="str">
         <f>_xll.ohRangeRetrieveError(I57)</f>
         <v/>
       </c>
       <c r="C57" s="40" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D57" s="85">
         <v>43235</v>
@@ -7228,18 +7363,18 @@
       </c>
       <c r="I57" s="119" t="str">
         <f>_xll.qlBTP2(C57,,D57,E57,F57,G57,H57,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0005106049#0000</v>
+        <v>IT0005106049#0004</v>
       </c>
       <c r="J57" s="119" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K57" s="127" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="K57" s="127" t="b">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L57" s="121" t="str">
-        <f t="shared" ref="L57" si="5">IF(AND(K57,ISNA(M57),ISNA(N57)),"Residual Missing","--")</f>
+        <f t="shared" ref="L57" si="6">IF(AND(K57,ISNA(M57),ISNA(N57)),"Residual Missing","--")</f>
         <v>--</v>
       </c>
       <c r="M57" s="48" t="e">
@@ -7251,15 +7386,22 @@
         <v>#N/A</v>
       </c>
       <c r="O57" s="27"/>
-    </row>
-    <row r="58" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q57" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="R57" s="18" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A58" s="19"/>
       <c r="B58" s="126" t="str">
         <f>_xll.ohRangeRetrieveError(I58)</f>
         <v/>
       </c>
       <c r="C58" s="40" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D58" s="85">
         <v>43252</v>
@@ -7278,17 +7420,18 @@
       </c>
       <c r="I58" s="119" t="str">
         <f>_xll.qlBTP2(C58,,D58,E58,F58,G58,H58,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0004907843#0000</v>
+        <v>IT0004907843#0004</v>
       </c>
       <c r="J58" s="119" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K58" s="127" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="K58" s="127" t="b">
-        <v>1</v>
-      </c>
       <c r="L58" s="121" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Residual Missing</v>
       </c>
       <c r="M58" s="48" t="e">
@@ -7300,8 +7443,15 @@
         <v>#N/A</v>
       </c>
       <c r="O58" s="27"/>
-    </row>
-    <row r="59" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q58" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="R58" s="18" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A59" s="19"/>
       <c r="B59" s="126" t="str">
         <f>_xll.ohRangeRetrieveError(I59)</f>
@@ -7327,18 +7477,18 @@
       </c>
       <c r="I59" s="119" t="str">
         <f>_xll.qlBTP2(C59,,D59,E59,F59,G59,H59,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0004361041#0000</v>
+        <v>IT0004361041#0004</v>
       </c>
       <c r="J59" s="119" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K59" s="127" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K59" s="127" t="b">
+        <v>1</v>
+      </c>
+      <c r="L59" s="121" t="str">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="L59" s="121" t="str">
-        <f t="shared" si="1"/>
         <v>--</v>
       </c>
       <c r="M59" s="48" t="e">
@@ -7350,15 +7500,22 @@
         <v>IT0004363450</v>
       </c>
       <c r="O59" s="27"/>
-    </row>
-    <row r="60" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q59" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="R59" s="18" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A60" s="19"/>
       <c r="B60" s="126" t="str">
         <f>_xll.ohRangeRetrieveError(I60)</f>
         <v/>
       </c>
       <c r="C60" s="40" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D60" s="85">
         <v>43435</v>
@@ -7377,13 +7534,14 @@
       </c>
       <c r="I60" s="119" t="str">
         <f>_xll.qlBTP2(C60,,D60,E60,F60,G60,H60,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0004957574#0000</v>
+        <v>IT0004957574#0004</v>
       </c>
       <c r="J60" s="119" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K60" s="127" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="K60" s="127" t="b">
         <v>1</v>
       </c>
       <c r="L60" s="121" t="str">
@@ -7399,8 +7557,15 @@
         <v>#N/A</v>
       </c>
       <c r="O60" s="27"/>
-    </row>
-    <row r="61" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q60" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="R60" s="18" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A61" s="19"/>
       <c r="B61" s="126" t="str">
         <f>_xll.ohRangeRetrieveError(I61)</f>
@@ -7426,18 +7591,18 @@
       </c>
       <c r="I61" s="119" t="str">
         <f>_xll.qlBTP2(C61,,D61,E61,F61,G61,H61,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0003493258#0000</v>
+        <v>IT0003493258#0004</v>
       </c>
       <c r="J61" s="119" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K61" s="127" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K61" s="127" t="b">
+        <v>1</v>
+      </c>
+      <c r="L61" s="121" t="str">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="L61" s="121" t="str">
-        <f t="shared" si="1"/>
         <v>--</v>
       </c>
       <c r="M61" s="48" t="e">
@@ -7449,8 +7614,15 @@
         <v>IT0003513105</v>
       </c>
       <c r="O61" s="27"/>
-    </row>
-    <row r="62" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q61" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="R61" s="18" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A62" s="19"/>
       <c r="B62" s="126" t="str">
         <f>_xll.ohRangeRetrieveError(I62)</f>
@@ -7476,18 +7648,18 @@
       </c>
       <c r="I62" s="119" t="str">
         <f>_xll.qlBTP2(C62,,D62,E62,F62,G62,H62,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0004423957#0000</v>
+        <v>IT0004423957#0004</v>
       </c>
       <c r="J62" s="119" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K62" s="127" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K62" s="127" t="b">
+        <v>1</v>
+      </c>
+      <c r="L62" s="121" t="str">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="L62" s="121" t="str">
-        <f t="shared" si="1"/>
         <v>Residual Missing</v>
       </c>
       <c r="M62" s="48" t="e">
@@ -7499,15 +7671,22 @@
         <v>#N/A</v>
       </c>
       <c r="O62" s="27"/>
-    </row>
-    <row r="63" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q62" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="R62" s="18" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A63" s="19"/>
       <c r="B63" s="126" t="str">
         <f>_xll.ohRangeRetrieveError(I63)</f>
         <v/>
       </c>
       <c r="C63" s="40" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D63" s="85">
         <v>43586</v>
@@ -7526,19 +7705,19 @@
       </c>
       <c r="I63" s="119" t="str">
         <f>_xll.qlBTP2(C63,,D63,E63,F63,G63,H63,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0004992308#0000</v>
+        <v>IT0004992308#0004</v>
       </c>
       <c r="J63" s="119" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K63" s="127" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
-      </c>
-      <c r="K63" s="127" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
       </c>
       <c r="L63" s="121" t="str">
         <f>IF(AND(K63,ISNA(M63),ISNA(N63)),"Residual Missing","--")</f>
-        <v>--</v>
+        <v>Residual Missing</v>
       </c>
       <c r="M63" s="48" t="e">
         <f>LEFT(VLOOKUP($D63,'BTP Strip May-Nov'!$H$8:$M$13,6,FALSE),12)</f>
@@ -7549,15 +7728,22 @@
         <v>#N/A</v>
       </c>
       <c r="O63" s="27"/>
-    </row>
-    <row r="64" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q63" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="R63" s="18" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A64" s="19"/>
       <c r="B64" s="126" t="str">
         <f>_xll.ohRangeRetrieveError(I64)</f>
         <v/>
       </c>
       <c r="C64" s="40" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D64" s="85">
         <v>43678</v>
@@ -7576,18 +7762,19 @@
       </c>
       <c r="I64" s="119" t="str">
         <f>_xll.qlBTP2(C64,,D64,E64,F64,G64,H64,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0005030504#0000</v>
+        <v>IT0005030504#0004</v>
       </c>
       <c r="J64" s="119" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K64" s="127" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
-      </c>
-      <c r="K64" s="127" t="b">
-        <v>0</v>
       </c>
       <c r="L64" s="121" t="str">
         <f>IF(AND(K64,ISNA(M64),ISNA(N64)),"Residual Missing","--")</f>
-        <v>--</v>
+        <v>Residual Missing</v>
       </c>
       <c r="M64" s="48" t="e">
         <f>LEFT(VLOOKUP($D64,'BTP Strip May-Nov'!$H$8:$M$13,6,FALSE),12)</f>
@@ -7598,8 +7785,15 @@
         <v>#N/A</v>
       </c>
       <c r="O64" s="27"/>
-    </row>
-    <row r="65" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q64" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="R64" s="18" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A65" s="19"/>
       <c r="B65" s="126" t="str">
         <f>_xll.ohRangeRetrieveError(I65)</f>
@@ -7625,18 +7819,18 @@
       </c>
       <c r="I65" s="119" t="str">
         <f>_xll.qlBTP2(C65,,D65,E65,F65,G65,H65,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0004489610#0000</v>
+        <v>IT0004489610#0004</v>
       </c>
       <c r="J65" s="119" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K65" s="127" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K65" s="127" t="b">
+        <v>1</v>
+      </c>
+      <c r="L65" s="121" t="str">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="L65" s="121" t="str">
-        <f t="shared" si="1"/>
         <v>Residual Missing</v>
       </c>
       <c r="M65" s="48" t="e">
@@ -7648,15 +7842,22 @@
         <v>#N/A</v>
       </c>
       <c r="O65" s="27"/>
-    </row>
-    <row r="66" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q65" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="R65" s="18" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A66" s="19"/>
       <c r="B66" s="126" t="str">
         <f>_xll.ohRangeRetrieveError(I66)</f>
         <v/>
       </c>
       <c r="C66" s="40" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D66" s="85">
         <v>43800</v>
@@ -7675,18 +7876,19 @@
       </c>
       <c r="I66" s="119" t="str">
         <f>_xll.qlBTP2(C66,,D66,E66,F66,G66,H66,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0005069395#0000</v>
+        <v>IT0005069395#0004</v>
       </c>
       <c r="J66" s="119" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K66" s="127" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="K66" s="127" t="b">
-        <v>0</v>
-      </c>
       <c r="L66" s="121" t="str">
-        <f t="shared" ref="L66" si="6">IF(AND(K66,ISNA(M66),ISNA(N66)),"Residual Missing","--")</f>
-        <v>--</v>
+        <f t="shared" ref="L66" si="7">IF(AND(K66,ISNA(M66),ISNA(N66)),"Residual Missing","--")</f>
+        <v>Residual Missing</v>
       </c>
       <c r="M66" s="48" t="e">
         <f>LEFT(VLOOKUP($D66,'BTP Strip May-Nov'!$H$8:$M$13,6,FALSE),12)</f>
@@ -7697,8 +7899,15 @@
         <v>#N/A</v>
       </c>
       <c r="O66" s="27"/>
-    </row>
-    <row r="67" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q66" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="R66" s="18" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A67" s="19"/>
       <c r="B67" s="126" t="str">
         <f>_xll.ohRangeRetrieveError(I67)</f>
@@ -7724,18 +7933,18 @@
       </c>
       <c r="I67" s="119" t="str">
         <f>_xll.qlBTP2(C67,,D67,E67,F67,G67,H67,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0003644769#0000</v>
+        <v>IT0003644769#0004</v>
       </c>
       <c r="J67" s="119" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K67" s="127" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K67" s="127" t="b">
+        <v>1</v>
+      </c>
+      <c r="L67" s="121" t="str">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="L67" s="121" t="str">
-        <f t="shared" si="1"/>
         <v>--</v>
       </c>
       <c r="M67" s="48" t="e">
@@ -7747,8 +7956,15 @@
         <v>IT0003649172</v>
       </c>
       <c r="O67" s="27"/>
-    </row>
-    <row r="68" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q67" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="R67" s="18" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:18" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A68" s="19"/>
       <c r="B68" s="126" t="str">
         <f>_xll.ohRangeRetrieveError(I68)</f>
@@ -7774,18 +7990,18 @@
       </c>
       <c r="I68" s="119" t="str">
         <f>_xll.qlBTP2(C68,,D68,E68,F68,G68,H68,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0004536949#0000</v>
+        <v>IT0004536949#0004</v>
       </c>
       <c r="J68" s="119" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K68" s="127" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K68" s="127" t="b">
+        <v>1</v>
+      </c>
+      <c r="L68" s="121" t="str">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="L68" s="121" t="str">
-        <f t="shared" si="1"/>
         <v>Residual Missing</v>
       </c>
       <c r="M68" s="48" t="e">
@@ -7797,15 +8013,22 @@
         <v>#N/A</v>
       </c>
       <c r="O68" s="27"/>
-    </row>
-    <row r="69" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q68" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="R68" s="18" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:18" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A69" s="19"/>
       <c r="B69" s="126" t="str">
         <f>_xll.ohRangeRetrieveError(I69)</f>
         <v/>
       </c>
       <c r="C69" s="40" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D69" s="85">
         <v>43952</v>
@@ -7824,19 +8047,19 @@
       </c>
       <c r="I69" s="119" t="str">
         <f>_xll.qlBTP2(C69,,D69,E69,F69,G69,H69,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0005107708#0000</v>
+        <v>IT0005107708#0004</v>
       </c>
       <c r="J69" s="119" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K69" s="127" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="K69" s="127" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
       <c r="L69" s="121" t="str">
-        <f t="shared" ref="L69" si="7">IF(AND(K69,ISNA(M69),ISNA(N69)),"Residual Missing","--")</f>
-        <v>--</v>
+        <f t="shared" ref="L69" si="8">IF(AND(K69,ISNA(M69),ISNA(N69)),"Residual Missing","--")</f>
+        <v>Residual Missing</v>
       </c>
       <c r="M69" s="48" t="e">
         <f>LEFT(VLOOKUP($D69,'BTP Strip May-Nov'!$H$8:$M$13,6,FALSE),12)</f>
@@ -7847,8 +8070,15 @@
         <v>#N/A</v>
       </c>
       <c r="O69" s="27"/>
-    </row>
-    <row r="70" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q69" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="R69" s="18" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:18" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A70" s="19"/>
       <c r="B70" s="126" t="str">
         <f>_xll.ohRangeRetrieveError(I70)</f>
@@ -7874,17 +8104,18 @@
       </c>
       <c r="I70" s="119" t="str">
         <f>_xll.qlBTP2(C70,,D70,E70,F70,G70,H70,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0004594930#0000</v>
+        <v>IT0004594930#0004</v>
       </c>
       <c r="J70" s="119" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K70" s="127" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K70" s="127" t="b">
         <v>1</v>
       </c>
       <c r="L70" s="121" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Residual Missing</v>
       </c>
       <c r="M70" s="48" t="e">
@@ -7896,46 +8127,53 @@
         <v>#N/A</v>
       </c>
       <c r="O70" s="27"/>
-    </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="R70" s="18" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:18" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A71" s="19"/>
       <c r="B71" s="126" t="str">
         <f>_xll.ohRangeRetrieveError(I71)</f>
         <v/>
       </c>
       <c r="C71" s="40" t="s">
-        <v>354</v>
+        <v>465</v>
       </c>
       <c r="D71" s="85">
-        <v>44256</v>
+        <v>44136</v>
       </c>
       <c r="E71" s="86">
-        <v>3.7499999999999999E-2</v>
+        <v>6.4999999999999997E-3</v>
       </c>
       <c r="F71" s="87">
         <v>100</v>
       </c>
       <c r="G71" s="85">
-        <v>40422</v>
+        <v>42309</v>
       </c>
       <c r="H71" s="85">
-        <v>40422</v>
+        <v>42310</v>
       </c>
       <c r="I71" s="119" t="str">
         <f>_xll.qlBTP2(C71,,D71,E71,F71,G71,H71,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0004634132#0000</v>
+        <v>IT0005142143#0004</v>
       </c>
       <c r="J71" s="119" t="b">
+        <f t="shared" ref="J71" si="9">IF(AND(H71&gt;$J$6,D71&gt;$J$5),TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="K71" s="127" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K71" s="127" t="b">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
       <c r="L71" s="121" t="str">
-        <f t="shared" si="1"/>
-        <v>Residual Missing</v>
+        <f t="shared" ref="L71" si="10">IF(AND(K71,ISNA(M71),ISNA(N71)),"Residual Missing","--")</f>
+        <v>--</v>
       </c>
       <c r="M71" s="48" t="e">
         <f>LEFT(VLOOKUP($D71,'BTP Strip May-Nov'!$H$8:$M$13,6,FALSE),12)</f>
@@ -7946,19 +8184,25 @@
         <v>#N/A</v>
       </c>
       <c r="O71" s="27"/>
-      <c r="P71" s="18"/>
-    </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="R71" s="18" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A72" s="19"/>
       <c r="B72" s="126" t="str">
         <f>_xll.ohRangeRetrieveError(I72)</f>
         <v/>
       </c>
       <c r="C72" s="40" t="s">
-        <v>444</v>
+        <v>354</v>
       </c>
       <c r="D72" s="85">
-        <v>44317</v>
+        <v>44256</v>
       </c>
       <c r="E72" s="86">
         <v>3.7499999999999999E-2</v>
@@ -7967,24 +8211,25 @@
         <v>100</v>
       </c>
       <c r="G72" s="85">
-        <v>41563</v>
+        <v>40422</v>
       </c>
       <c r="H72" s="85">
-        <v>41563</v>
+        <v>40422</v>
       </c>
       <c r="I72" s="119" t="str">
         <f>_xll.qlBTP2(C72,,D72,E72,F72,G72,H72,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0004966401#0000</v>
+        <v>IT0004634132#0004</v>
       </c>
       <c r="J72" s="119" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="K72" s="127" t="b">
+        <f t="shared" ref="K72:K107" si="11">NOT(ISNA(VLOOKUP(LEFT($I72,12),LatestStrippable,1,FALSE)))</f>
         <v>1</v>
       </c>
       <c r="L72" s="121" t="str">
-        <f>IF(AND(K72,ISNA(M72),ISNA(N72)),"Residual Missing","--")</f>
+        <f t="shared" si="2"/>
         <v>Residual Missing</v>
       </c>
       <c r="M72" s="48" t="e">
@@ -7997,18 +8242,25 @@
       </c>
       <c r="O72" s="27"/>
       <c r="P72" s="18"/>
-    </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q72" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="R72" s="18" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A73" s="19"/>
       <c r="B73" s="126" t="str">
         <f>_xll.ohRangeRetrieveError(I73)</f>
         <v/>
       </c>
       <c r="C73" s="40" t="s">
-        <v>45</v>
+        <v>443</v>
       </c>
       <c r="D73" s="85">
-        <v>44409</v>
+        <v>44317</v>
       </c>
       <c r="E73" s="86">
         <v>3.7499999999999999E-2</v>
@@ -8017,127 +8269,142 @@
         <v>100</v>
       </c>
       <c r="G73" s="85">
-        <v>38749</v>
+        <v>41563</v>
       </c>
       <c r="H73" s="85">
-        <v>38749</v>
+        <v>41563</v>
       </c>
       <c r="I73" s="119" t="str">
         <f>_xll.qlBTP2(C73,,D73,E73,F73,G73,H73,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0004009673#0000</v>
+        <v>IT0004966401#0004</v>
       </c>
       <c r="J73" s="119" t="b">
-        <f t="shared" ref="J73:J104" si="8">IF(AND(H73&gt;$J$6,D73&gt;$J$5),TRUE,FALSE)</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="K73" s="127" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="L73" s="121" t="str">
-        <f t="shared" si="1"/>
-        <v>--</v>
+        <f>IF(AND(K73,ISNA(M73),ISNA(N73)),"Residual Missing","--")</f>
+        <v>Residual Missing</v>
       </c>
       <c r="M73" s="48" t="e">
         <f>LEFT(VLOOKUP($D73,'BTP Strip May-Nov'!$H$8:$M$13,6,FALSE),12)</f>
         <v>#N/A</v>
       </c>
-      <c r="N73" s="120" t="str">
+      <c r="N73" s="120" t="e">
         <f>LEFT(VLOOKUP($D73,'BTP Strip Feb-Aug'!$H$8:$M$27,6,FALSE),12)</f>
-        <v>IT0004014061</v>
+        <v>#N/A</v>
       </c>
       <c r="O73" s="27"/>
       <c r="P73" s="18"/>
-    </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="R73" s="18" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A74" s="19"/>
       <c r="B74" s="126" t="str">
         <f>_xll.ohRangeRetrieveError(I74)</f>
         <v/>
       </c>
       <c r="C74" s="40" t="s">
-        <v>409</v>
+        <v>45</v>
       </c>
       <c r="D74" s="85">
-        <v>44440</v>
+        <v>44409</v>
       </c>
       <c r="E74" s="86">
-        <v>4.7500000000000001E-2</v>
+        <v>3.7499999999999999E-2</v>
       </c>
       <c r="F74" s="87">
         <v>100</v>
       </c>
       <c r="G74" s="85">
-        <v>40603</v>
+        <v>38749</v>
       </c>
       <c r="H74" s="85">
-        <v>40603</v>
+        <v>38749</v>
       </c>
       <c r="I74" s="119" t="str">
         <f>_xll.qlBTP2(C74,,D74,E74,F74,G74,H74,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0004695075#0000</v>
+        <v>IT0004009673#0004</v>
       </c>
       <c r="J74" s="119" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="J74:J105" si="12">IF(AND(H74&gt;$J$6,D74&gt;$J$5),TRUE,FALSE)</f>
         <v>0</v>
       </c>
       <c r="K74" s="127" t="b">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="L74" s="121" t="str">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="L74" s="121" t="str">
-        <f t="shared" si="1"/>
-        <v>Residual Missing</v>
+        <v>--</v>
       </c>
       <c r="M74" s="48" t="e">
         <f>LEFT(VLOOKUP($D74,'BTP Strip May-Nov'!$H$8:$M$13,6,FALSE),12)</f>
         <v>#N/A</v>
       </c>
-      <c r="N74" s="120" t="e">
+      <c r="N74" s="120" t="str">
         <f>LEFT(VLOOKUP($D74,'BTP Strip Feb-Aug'!$H$8:$M$27,6,FALSE),12)</f>
-        <v>#N/A</v>
+        <v>IT0004014061</v>
       </c>
       <c r="O74" s="27"/>
       <c r="P74" s="18"/>
-    </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="R74" s="18" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A75" s="19"/>
       <c r="B75" s="126" t="str">
         <f>_xll.ohRangeRetrieveError(I75)</f>
         <v/>
       </c>
       <c r="C75" s="40" t="s">
-        <v>449</v>
+        <v>409</v>
       </c>
       <c r="D75" s="85">
-        <v>44545</v>
+        <v>44440</v>
       </c>
       <c r="E75" s="86">
-        <v>2.1499999999999998E-2</v>
+        <v>4.7500000000000001E-2</v>
       </c>
       <c r="F75" s="87">
         <v>100</v>
       </c>
       <c r="G75" s="85">
-        <v>41805</v>
+        <v>40603</v>
       </c>
       <c r="H75" s="85">
-        <v>41805</v>
+        <v>40603</v>
       </c>
       <c r="I75" s="119" t="str">
         <f>_xll.qlBTP2(C75,,D75,E75,F75,G75,H75,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0005028003#0000</v>
+        <v>IT0004695075#0004</v>
       </c>
       <c r="J75" s="119" t="b">
-        <f t="shared" si="8"/>
-        <v>1</v>
+        <f t="shared" si="12"/>
+        <v>0</v>
       </c>
       <c r="K75" s="127" t="b">
-        <v>0</v>
+        <f t="shared" si="11"/>
+        <v>1</v>
       </c>
       <c r="L75" s="121" t="str">
-        <f>IF(AND(K75,ISNA(M75),ISNA(N75)),"Residual Missing","--")</f>
-        <v>--</v>
+        <f t="shared" si="2"/>
+        <v>Residual Missing</v>
       </c>
       <c r="M75" s="48" t="e">
         <f>LEFT(VLOOKUP($D75,'BTP Strip May-Nov'!$H$8:$M$13,6,FALSE),12)</f>
@@ -8149,45 +8416,52 @@
       </c>
       <c r="O75" s="27"/>
       <c r="P75" s="18"/>
-    </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="R75" s="18" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A76" s="19"/>
       <c r="B76" s="126" t="str">
         <f>_xll.ohRangeRetrieveError(I76)</f>
         <v/>
       </c>
       <c r="C76" s="40" t="s">
-        <v>423</v>
+        <v>448</v>
       </c>
       <c r="D76" s="85">
-        <v>44621</v>
+        <v>44545</v>
       </c>
       <c r="E76" s="86">
-        <v>0.05</v>
+        <v>2.1499999999999998E-2</v>
       </c>
       <c r="F76" s="87">
         <v>100</v>
       </c>
       <c r="G76" s="85">
-        <v>40787</v>
+        <v>41805</v>
       </c>
       <c r="H76" s="85">
-        <v>40787</v>
+        <v>41805</v>
       </c>
       <c r="I76" s="119" t="str">
         <f>_xll.qlBTP2(C76,,D76,E76,F76,G76,H76,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0004759673#0000</v>
+        <v>IT0005028003#0004</v>
       </c>
       <c r="J76" s="119" t="b">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" si="12"/>
+        <v>1</v>
       </c>
       <c r="K76" s="127" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="L76" s="121" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(AND(K76,ISNA(M76),ISNA(N76)),"Residual Missing","--")</f>
         <v>Residual Missing</v>
       </c>
       <c r="M76" s="48" t="e">
@@ -8200,46 +8474,53 @@
       </c>
       <c r="O76" s="27"/>
       <c r="P76" s="18"/>
-    </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q76" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="R76" s="18" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A77" s="19"/>
       <c r="B77" s="126" t="str">
         <f>_xll.ohRangeRetrieveError(I77)</f>
         <v/>
       </c>
       <c r="C77" s="40" t="s">
-        <v>456</v>
+        <v>423</v>
       </c>
       <c r="D77" s="85">
-        <v>44666</v>
+        <v>44621</v>
       </c>
       <c r="E77" s="86">
-        <v>1.35E-2</v>
+        <v>0.05</v>
       </c>
       <c r="F77" s="87">
         <v>100</v>
       </c>
       <c r="G77" s="85">
-        <v>42051</v>
+        <v>40787</v>
       </c>
       <c r="H77" s="85">
-        <v>42051</v>
+        <v>40787</v>
       </c>
       <c r="I77" s="119" t="str">
         <f>_xll.qlBTP2(C77,,D77,E77,F77,G77,H77,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0005086886#0000</v>
+        <v>IT0004759673#0004</v>
       </c>
       <c r="J77" s="119" t="b">
-        <f t="shared" si="8"/>
-        <v>1</v>
+        <f t="shared" si="12"/>
+        <v>0</v>
       </c>
       <c r="K77" s="127" t="b">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="L77" s="121" t="str">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L77" s="121" t="str">
-        <f t="shared" ref="L77" si="9">IF(AND(K77,ISNA(M77),ISNA(N77)),"Residual Missing","--")</f>
-        <v>--</v>
+        <v>Residual Missing</v>
       </c>
       <c r="M77" s="48" t="e">
         <f>LEFT(VLOOKUP($D77,'BTP Strip May-Nov'!$H$8:$M$13,6,FALSE),12)</f>
@@ -8251,45 +8532,52 @@
       </c>
       <c r="O77" s="27"/>
       <c r="P77" s="18"/>
-    </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="R77" s="18" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A78" s="19"/>
       <c r="B78" s="126" t="str">
         <f>_xll.ohRangeRetrieveError(I78)</f>
         <v/>
       </c>
       <c r="C78" s="40" t="s">
-        <v>430</v>
+        <v>455</v>
       </c>
       <c r="D78" s="85">
-        <v>44805</v>
+        <v>44666</v>
       </c>
       <c r="E78" s="86">
-        <v>5.5E-2</v>
+        <v>1.35E-2</v>
       </c>
       <c r="F78" s="87">
         <v>100</v>
       </c>
       <c r="G78" s="85">
-        <v>40969</v>
+        <v>42051</v>
       </c>
       <c r="H78" s="85">
-        <v>40969</v>
+        <v>42051</v>
       </c>
       <c r="I78" s="119" t="str">
         <f>_xll.qlBTP2(C78,,D78,E78,F78,G78,H78,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0004801541#0000</v>
+        <v>IT0005086886#0004</v>
       </c>
       <c r="J78" s="119" t="b">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" si="12"/>
+        <v>1</v>
       </c>
       <c r="K78" s="127" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="L78" s="121" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="L78" si="13">IF(AND(K78,ISNA(M78),ISNA(N78)),"Residual Missing","--")</f>
         <v>Residual Missing</v>
       </c>
       <c r="M78" s="48" t="e">
@@ -8302,46 +8590,53 @@
       </c>
       <c r="O78" s="27"/>
       <c r="P78" s="18"/>
-    </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q78" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="R78" s="18" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A79" s="19"/>
       <c r="B79" s="126" t="str">
         <f>_xll.ohRangeRetrieveError(I79)</f>
         <v/>
       </c>
       <c r="C79" s="40" t="s">
-        <v>465</v>
+        <v>429</v>
       </c>
       <c r="D79" s="85">
-        <v>44819</v>
+        <v>44805</v>
       </c>
       <c r="E79" s="86">
-        <v>1.4500000000000001E-2</v>
+        <v>5.5E-2</v>
       </c>
       <c r="F79" s="87">
         <v>100</v>
       </c>
       <c r="G79" s="85">
-        <v>42262</v>
+        <v>40969</v>
       </c>
       <c r="H79" s="85">
-        <v>42262</v>
+        <v>40969</v>
       </c>
       <c r="I79" s="119" t="str">
         <f>_xll.qlBTP2(C79,,D79,E79,F79,G79,H79,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0005135840#0000</v>
+        <v>IT0004801541#0004</v>
       </c>
       <c r="J79" s="119" t="b">
-        <f t="shared" ref="J79" si="10">IF(AND(H79&gt;$J$6,D79&gt;$J$5),TRUE,FALSE)</f>
-        <v>1</v>
+        <f t="shared" si="12"/>
+        <v>0</v>
       </c>
       <c r="K79" s="127" t="b">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="L79" s="121" t="str">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L79" s="121" t="str">
-        <f t="shared" ref="L79" si="11">IF(AND(K79,ISNA(M79),ISNA(N79)),"Residual Missing","--")</f>
-        <v>--</v>
+        <v>Residual Missing</v>
       </c>
       <c r="M79" s="48" t="e">
         <f>LEFT(VLOOKUP($D79,'BTP Strip May-Nov'!$H$8:$M$13,6,FALSE),12)</f>
@@ -8353,46 +8648,53 @@
       </c>
       <c r="O79" s="27"/>
       <c r="P79" s="18"/>
-    </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q79" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="R79" s="18" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A80" s="19"/>
       <c r="B80" s="126" t="str">
         <f>_xll.ohRangeRetrieveError(I80)</f>
         <v/>
       </c>
       <c r="C80" s="40" t="s">
-        <v>431</v>
+        <v>464</v>
       </c>
       <c r="D80" s="85">
-        <v>44866</v>
+        <v>44819</v>
       </c>
       <c r="E80" s="86">
-        <v>5.5E-2</v>
+        <v>1.4500000000000001E-2</v>
       </c>
       <c r="F80" s="87">
         <v>100</v>
       </c>
       <c r="G80" s="85">
-        <v>41030</v>
+        <v>42262</v>
       </c>
       <c r="H80" s="85">
-        <v>41155</v>
+        <v>42262</v>
       </c>
       <c r="I80" s="119" t="str">
         <f>_xll.qlBTP2(C80,,D80,E80,F80,G80,H80,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0004848831#0000</v>
+        <v>IT0005135840#0004</v>
       </c>
       <c r="J80" s="119" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="J80" si="14">IF(AND(H80&gt;$J$6,D80&gt;$J$5),TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="K80" s="127" t="b">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="K80" s="127" t="b">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
       <c r="L80" s="121" t="str">
-        <f t="shared" si="1"/>
-        <v>Residual Missing</v>
+        <f t="shared" ref="L80" si="15">IF(AND(K80,ISNA(M80),ISNA(N80)),"Residual Missing","--")</f>
+        <v>--</v>
       </c>
       <c r="M80" s="48" t="e">
         <f>LEFT(VLOOKUP($D80,'BTP Strip May-Nov'!$H$8:$M$13,6,FALSE),12)</f>
@@ -8404,44 +8706,52 @@
       </c>
       <c r="O80" s="27"/>
       <c r="P80" s="18"/>
-    </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q80" s="28" t="b">
+        <v>0</v>
+      </c>
+      <c r="R80" s="18" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A81" s="19"/>
       <c r="B81" s="126" t="str">
         <f>_xll.ohRangeRetrieveError(I81)</f>
         <v/>
       </c>
       <c r="C81" s="40" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
       <c r="D81" s="85">
-        <v>45047</v>
+        <v>44866</v>
       </c>
       <c r="E81" s="86">
-        <v>4.4999999999999998E-2</v>
+        <v>5.5E-2</v>
       </c>
       <c r="F81" s="87">
         <v>100</v>
       </c>
       <c r="G81" s="85">
-        <v>41334</v>
+        <v>41030</v>
       </c>
       <c r="H81" s="85">
-        <v>41334</v>
+        <v>41155</v>
       </c>
       <c r="I81" s="119" t="str">
         <f>_xll.qlBTP2(C81,,D81,E81,F81,G81,H81,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0004898034#0000</v>
+        <v>IT0004848831#0004</v>
       </c>
       <c r="J81" s="119" t="b">
-        <f t="shared" si="8"/>
-        <v>1</v>
+        <f t="shared" si="12"/>
+        <v>0</v>
       </c>
       <c r="K81" s="127" t="b">
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="L81" s="121" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Residual Missing</v>
       </c>
       <c r="M81" s="48" t="e">
@@ -8454,151 +8764,173 @@
       </c>
       <c r="O81" s="27"/>
       <c r="P81" s="18"/>
-    </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q81" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="R81" s="18" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A82" s="19"/>
       <c r="B82" s="126" t="str">
         <f>_xll.ohRangeRetrieveError(I82)</f>
         <v/>
       </c>
       <c r="C82" s="40" t="s">
-        <v>50</v>
+        <v>437</v>
       </c>
       <c r="D82" s="85">
-        <v>45139</v>
+        <v>45047</v>
       </c>
       <c r="E82" s="86">
-        <v>4.7500000000000001E-2</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="F82" s="87">
         <v>100</v>
       </c>
       <c r="G82" s="85">
-        <v>39479</v>
+        <v>41334</v>
       </c>
       <c r="H82" s="85">
-        <v>39554</v>
+        <v>41334</v>
       </c>
       <c r="I82" s="119" t="str">
         <f>_xll.qlBTP2(C82,,D82,E82,F82,G82,H82,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0004356843#0000</v>
+        <v>IT0004898034#0004</v>
       </c>
       <c r="J82" s="119" t="b">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" si="12"/>
+        <v>1</v>
       </c>
       <c r="K82" s="127" t="b">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="L82" s="121" t="str">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="L82" s="121" t="str">
-        <f t="shared" si="1"/>
-        <v>--</v>
+        <v>Residual Missing</v>
       </c>
       <c r="M82" s="48" t="e">
         <f>LEFT(VLOOKUP($D82,'BTP Strip May-Nov'!$H$8:$M$13,6,FALSE),12)</f>
         <v>#N/A</v>
       </c>
-      <c r="N82" s="120" t="str">
+      <c r="N82" s="120" t="e">
         <f>LEFT(VLOOKUP($D82,'BTP Strip Feb-Aug'!$H$8:$M$27,6,FALSE),12)</f>
-        <v>IT0004359029</v>
+        <v>#N/A</v>
       </c>
       <c r="O82" s="27"/>
       <c r="P82" s="18"/>
-    </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="R82" s="18" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A83" s="19"/>
       <c r="B83" s="126" t="str">
         <f>_xll.ohRangeRetrieveError(I83)</f>
         <v/>
       </c>
       <c r="C83" s="40" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D83" s="85">
-        <v>45231</v>
+        <v>45139</v>
       </c>
       <c r="E83" s="86">
-        <v>0.09</v>
+        <v>4.7500000000000001E-2</v>
       </c>
       <c r="F83" s="87">
-        <v>99.909000000000006</v>
+        <v>100</v>
       </c>
       <c r="G83" s="85">
-        <v>34274</v>
+        <v>39479</v>
       </c>
       <c r="H83" s="85">
-        <v>34291</v>
+        <v>39554</v>
       </c>
       <c r="I83" s="119" t="str">
         <f>_xll.qlBTP2(C83,,D83,E83,F83,G83,H83,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0000366655#0000</v>
+        <v>IT0004356843#0004</v>
       </c>
       <c r="J83" s="119" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K83" s="127" t="b">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="L83" s="121" t="str">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="L83" s="121" t="str">
-        <f t="shared" ref="L83:L104" si="12">IF(AND(K83,ISNA(M83),ISNA(N83)),"Residual Missing","--")</f>
         <v>--</v>
       </c>
-      <c r="M83" s="48" t="str">
+      <c r="M83" s="48" t="e">
         <f>LEFT(VLOOKUP($D83,'BTP Strip May-Nov'!$H$8:$M$13,6,FALSE),12)</f>
-        <v>IT0001246799</v>
-      </c>
-      <c r="N83" s="120" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N83" s="120" t="str">
         <f>LEFT(VLOOKUP($D83,'BTP Strip Feb-Aug'!$H$8:$M$27,6,FALSE),12)</f>
-        <v>#N/A</v>
+        <v>IT0004359029</v>
       </c>
       <c r="O83" s="27"/>
       <c r="P83" s="18"/>
-    </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="R83" s="18" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A84" s="19"/>
       <c r="B84" s="126" t="str">
         <f>_xll.ohRangeRetrieveError(I84)</f>
         <v/>
       </c>
       <c r="C84" s="40" t="s">
-        <v>441</v>
+        <v>46</v>
       </c>
       <c r="D84" s="85">
-        <v>45352</v>
+        <v>45231</v>
       </c>
       <c r="E84" s="86">
-        <v>4.4999999999999998E-2</v>
+        <v>0.09</v>
       </c>
       <c r="F84" s="87">
-        <v>100</v>
+        <v>99.909000000000006</v>
       </c>
       <c r="G84" s="85">
-        <v>41487</v>
+        <v>34274</v>
       </c>
       <c r="H84" s="85">
-        <v>41487</v>
+        <v>34291</v>
       </c>
       <c r="I84" s="119" t="str">
         <f>_xll.qlBTP2(C84,,D84,E84,F84,G84,H84,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0004953417#0000</v>
+        <v>IT0000366655#0004</v>
       </c>
       <c r="J84" s="119" t="b">
-        <f t="shared" si="8"/>
-        <v>1</v>
+        <f t="shared" si="12"/>
+        <v>0</v>
       </c>
       <c r="K84" s="127" t="b">
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="L84" s="121" t="str">
-        <f>IF(AND(K84,ISNA(M84),ISNA(N84)),"Residual Missing","--")</f>
-        <v>Residual Missing</v>
-      </c>
-      <c r="M84" s="48" t="e">
+        <f t="shared" ref="L84:L105" si="16">IF(AND(K84,ISNA(M84),ISNA(N84)),"Residual Missing","--")</f>
+        <v>--</v>
+      </c>
+      <c r="M84" s="48" t="str">
         <f>LEFT(VLOOKUP($D84,'BTP Strip May-Nov'!$H$8:$M$13,6,FALSE),12)</f>
-        <v>#N/A</v>
+        <v>IT0001246799</v>
       </c>
       <c r="N84" s="120" t="e">
         <f>LEFT(VLOOKUP($D84,'BTP Strip Feb-Aug'!$H$8:$M$27,6,FALSE),12)</f>
@@ -8606,40 +8938,48 @@
       </c>
       <c r="O84" s="27"/>
       <c r="P84" s="18"/>
-    </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="R84" s="18" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A85" s="19"/>
       <c r="B85" s="126" t="str">
         <f>_xll.ohRangeRetrieveError(I85)</f>
         <v/>
       </c>
       <c r="C85" s="40" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="D85" s="85">
-        <v>45536</v>
+        <v>45352</v>
       </c>
       <c r="E85" s="86">
-        <v>3.7499999999999999E-2</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="F85" s="87">
         <v>100</v>
       </c>
       <c r="G85" s="85">
-        <v>41699</v>
+        <v>41487</v>
       </c>
       <c r="H85" s="85">
-        <v>41701</v>
+        <v>41487</v>
       </c>
       <c r="I85" s="119" t="str">
         <f>_xll.qlBTP2(C85,,D85,E85,F85,G85,H85,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0005001547#0000</v>
+        <v>IT0004953417#0004</v>
       </c>
       <c r="J85" s="119" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="K85" s="127" t="b">
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="L85" s="121" t="str">
@@ -8656,40 +8996,48 @@
       </c>
       <c r="O85" s="27"/>
       <c r="P85" s="18"/>
-    </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="R85" s="18" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A86" s="19"/>
       <c r="B86" s="126" t="str">
         <f>_xll.ohRangeRetrieveError(I86)</f>
         <v/>
       </c>
       <c r="C86" s="40" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="D86" s="85">
-        <v>45627</v>
+        <v>45536</v>
       </c>
       <c r="E86" s="86">
-        <v>2.5000000000000001E-2</v>
+        <v>3.7499999999999999E-2</v>
       </c>
       <c r="F86" s="87">
         <v>100</v>
       </c>
       <c r="G86" s="85">
-        <v>41883</v>
+        <v>41699</v>
       </c>
       <c r="H86" s="85">
-        <v>41883</v>
+        <v>41701</v>
       </c>
       <c r="I86" s="119" t="str">
         <f>_xll.qlBTP2(C86,,D86,E86,F86,G86,H86,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0005045270#0000</v>
+        <v>IT0005001547#0004</v>
       </c>
       <c r="J86" s="119" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="K86" s="127" t="b">
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="L86" s="121" t="str">
@@ -8706,44 +9054,52 @@
       </c>
       <c r="O86" s="27"/>
       <c r="P86" s="18"/>
-    </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="R86" s="18" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A87" s="19"/>
       <c r="B87" s="126" t="str">
         <f>_xll.ohRangeRetrieveError(I87)</f>
         <v/>
       </c>
       <c r="C87" s="40" t="s">
-        <v>70</v>
+        <v>450</v>
       </c>
       <c r="D87" s="85">
-        <v>45717</v>
+        <v>45627</v>
       </c>
       <c r="E87" s="86">
-        <v>0.05</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="F87" s="87">
         <v>100</v>
       </c>
       <c r="G87" s="85">
-        <v>39873</v>
+        <v>41883</v>
       </c>
       <c r="H87" s="85">
-        <v>40009</v>
+        <v>41883</v>
       </c>
       <c r="I87" s="119" t="str">
         <f>_xll.qlBTP2(C87,,D87,E87,F87,G87,H87,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0004513641#0000</v>
+        <v>IT0005045270#0004</v>
       </c>
       <c r="J87" s="119" t="b">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" si="12"/>
+        <v>1</v>
       </c>
       <c r="K87" s="127" t="b">
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="L87" s="121" t="str">
-        <f t="shared" si="12"/>
+        <f>IF(AND(K87,ISNA(M87),ISNA(N87)),"Residual Missing","--")</f>
         <v>Residual Missing</v>
       </c>
       <c r="M87" s="48" t="e">
@@ -8756,46 +9112,53 @@
       </c>
       <c r="O87" s="27"/>
       <c r="P87" s="18"/>
-    </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="R87" s="18" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A88" s="19"/>
       <c r="B88" s="126" t="str">
         <f>_xll.ohRangeRetrieveError(I88)</f>
         <v/>
       </c>
       <c r="C88" s="40" t="s">
-        <v>455</v>
+        <v>70</v>
       </c>
       <c r="D88" s="85">
-        <v>45809</v>
+        <v>45717</v>
       </c>
       <c r="E88" s="86">
-        <v>1.4999999999999999E-2</v>
+        <v>0.05</v>
       </c>
       <c r="F88" s="87">
         <v>100</v>
       </c>
       <c r="G88" s="85">
-        <v>42065</v>
+        <v>39873</v>
       </c>
       <c r="H88" s="85">
-        <v>42065</v>
+        <v>40009</v>
       </c>
       <c r="I88" s="119" t="str">
         <f>_xll.qlBTP2(C88,,D88,E88,F88,G88,H88,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0005090318#0000</v>
+        <v>IT0004513641#0004</v>
       </c>
       <c r="J88" s="119" t="b">
-        <f t="shared" si="8"/>
-        <v>1</v>
+        <f t="shared" si="12"/>
+        <v>0</v>
       </c>
       <c r="K88" s="127" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="11"/>
+        <v>1</v>
       </c>
       <c r="L88" s="121" t="str">
-        <f t="shared" ref="L88" si="13">IF(AND(K88,ISNA(M88),ISNA(N88)),"Residual Missing","--")</f>
-        <v>--</v>
+        <f t="shared" si="16"/>
+        <v>Residual Missing</v>
       </c>
       <c r="M88" s="48" t="e">
         <f>LEFT(VLOOKUP($D88,'BTP Strip May-Nov'!$H$8:$M$13,6,FALSE),12)</f>
@@ -8807,46 +9170,53 @@
       </c>
       <c r="O88" s="27"/>
       <c r="P88" s="18"/>
-    </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="R88" s="18" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A89" s="19"/>
       <c r="B89" s="126" t="str">
         <f>_xll.ohRangeRetrieveError(I89)</f>
         <v/>
       </c>
       <c r="C89" s="40" t="s">
-        <v>464</v>
+        <v>454</v>
       </c>
       <c r="D89" s="85">
-        <v>45992</v>
+        <v>45809</v>
       </c>
       <c r="E89" s="86">
-        <v>0.02</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="F89" s="87">
         <v>100</v>
       </c>
       <c r="G89" s="85">
-        <v>42248</v>
+        <v>42065</v>
       </c>
       <c r="H89" s="85">
-        <v>42248</v>
+        <v>42065</v>
       </c>
       <c r="I89" s="119" t="str">
         <f>_xll.qlBTP2(C89,,D89,E89,F89,G89,H89,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0005127086#0000</v>
+        <v>IT0005090318#0004</v>
       </c>
       <c r="J89" s="119" t="b">
-        <f t="shared" ref="J89" si="14">IF(AND(H89&gt;$J$6,D89&gt;$J$5),TRUE,FALSE)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="K89" s="127" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="11"/>
+        <v>1</v>
       </c>
       <c r="L89" s="121" t="str">
-        <f t="shared" ref="L89" si="15">IF(AND(K89,ISNA(M89),ISNA(N89)),"Residual Missing","--")</f>
-        <v>--</v>
+        <f t="shared" ref="L89" si="17">IF(AND(K89,ISNA(M89),ISNA(N89)),"Residual Missing","--")</f>
+        <v>Residual Missing</v>
       </c>
       <c r="M89" s="48" t="e">
         <f>LEFT(VLOOKUP($D89,'BTP Strip May-Nov'!$H$8:$M$13,6,FALSE),12)</f>
@@ -8858,46 +9228,53 @@
       </c>
       <c r="O89" s="27"/>
       <c r="P89" s="18"/>
-    </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="R89" s="18" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A90" s="19"/>
       <c r="B90" s="126" t="str">
         <f>_xll.ohRangeRetrieveError(I90)</f>
         <v/>
       </c>
       <c r="C90" s="40" t="s">
-        <v>410</v>
+        <v>463</v>
       </c>
       <c r="D90" s="85">
-        <v>46082</v>
+        <v>45992</v>
       </c>
       <c r="E90" s="86">
-        <v>4.4999999999999998E-2</v>
+        <v>0.02</v>
       </c>
       <c r="F90" s="87">
         <v>100</v>
       </c>
       <c r="G90" s="85">
-        <v>40422</v>
+        <v>42248</v>
       </c>
       <c r="H90" s="85">
-        <v>40450</v>
+        <v>42248</v>
       </c>
       <c r="I90" s="119" t="str">
         <f>_xll.qlBTP2(C90,,D90,E90,F90,G90,H90,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0004644735#0000</v>
+        <v>IT0005127086#0004</v>
       </c>
       <c r="J90" s="119" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="J90" si="18">IF(AND(H90&gt;$J$6,D90&gt;$J$5),TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="K90" s="127" t="b">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="K90" s="127" t="b">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
       <c r="L90" s="121" t="str">
-        <f t="shared" si="12"/>
-        <v>Residual Missing</v>
+        <f t="shared" ref="L90" si="19">IF(AND(K90,ISNA(M90),ISNA(N90)),"Residual Missing","--")</f>
+        <v>--</v>
       </c>
       <c r="M90" s="48" t="e">
         <f>LEFT(VLOOKUP($D90,'BTP Strip May-Nov'!$H$8:$M$13,6,FALSE),12)</f>
@@ -8909,244 +9286,283 @@
       </c>
       <c r="O90" s="27"/>
       <c r="P90" s="18"/>
-    </row>
-    <row r="91" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q90" s="28" t="b">
+        <v>0</v>
+      </c>
+      <c r="R90" s="18" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A91" s="19"/>
       <c r="B91" s="126" t="str">
         <f>_xll.ohRangeRetrieveError(I91)</f>
         <v/>
       </c>
       <c r="C91" s="40" t="s">
-        <v>47</v>
+        <v>410</v>
       </c>
       <c r="D91" s="85">
-        <v>46327</v>
+        <v>46082</v>
       </c>
       <c r="E91" s="86">
-        <v>7.2499999999999995E-2</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="F91" s="87">
-        <v>99.999000000000009</v>
+        <v>100</v>
       </c>
       <c r="G91" s="85">
-        <v>35370</v>
+        <v>40422</v>
       </c>
       <c r="H91" s="85">
-        <v>35464</v>
+        <v>40450</v>
       </c>
       <c r="I91" s="119" t="str">
         <f>_xll.qlBTP2(C91,,D91,E91,F91,G91,H91,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0001086567#0000</v>
+        <v>IT0004644735#0004</v>
       </c>
       <c r="J91" s="119" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K91" s="127" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="L91" s="121" t="str">
-        <f t="shared" si="12"/>
-        <v>--</v>
-      </c>
-      <c r="M91" s="48" t="str">
+        <f t="shared" si="16"/>
+        <v>Residual Missing</v>
+      </c>
+      <c r="M91" s="48" t="e">
         <f>LEFT(VLOOKUP($D91,'BTP Strip May-Nov'!$H$8:$M$13,6,FALSE),12)</f>
-        <v>IT0001246807</v>
+        <v>#N/A</v>
       </c>
       <c r="N91" s="120" t="e">
         <f>LEFT(VLOOKUP($D91,'BTP Strip Feb-Aug'!$H$8:$M$27,6,FALSE),12)</f>
         <v>#N/A</v>
       </c>
       <c r="O91" s="27"/>
-    </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P91" s="18"/>
+      <c r="Q91" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="R91" s="18" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A92" s="19"/>
       <c r="B92" s="126" t="str">
         <f>_xll.ohRangeRetrieveError(I92)</f>
         <v/>
       </c>
       <c r="C92" s="40" t="s">
-        <v>31</v>
+        <v>467</v>
       </c>
       <c r="D92" s="85">
-        <v>46692</v>
+        <v>46174</v>
       </c>
       <c r="E92" s="86">
-        <v>6.5000000000000002E-2</v>
+        <v>1.6E-2</v>
       </c>
       <c r="F92" s="87">
         <v>100</v>
       </c>
       <c r="G92" s="85">
-        <v>35735</v>
+        <v>42430</v>
       </c>
       <c r="H92" s="85">
-        <v>35752</v>
+        <v>42430</v>
       </c>
       <c r="I92" s="119" t="str">
         <f>_xll.qlBTP2(C92,,D92,E92,F92,G92,H92,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0001174611#0000</v>
+        <v>IT0005170839#0004</v>
       </c>
       <c r="J92" s="119" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="J92" si="20">IF(AND(H92&gt;$J$6,D92&gt;$J$5),TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="K92" s="127" t="b">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="K92" s="127" t="b">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
       <c r="L92" s="121" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" ref="L92" si="21">IF(AND(K92,ISNA(M92),ISNA(N92)),"Residual Missing","--")</f>
         <v>--</v>
       </c>
-      <c r="M92" s="48" t="str">
+      <c r="M92" s="48" t="e">
         <f>LEFT(VLOOKUP($D92,'BTP Strip May-Nov'!$H$8:$M$13,6,FALSE),12)</f>
-        <v>IT0001246815</v>
+        <v>#N/A</v>
       </c>
       <c r="N92" s="120" t="e">
         <f>LEFT(VLOOKUP($D92,'BTP Strip Feb-Aug'!$H$8:$M$27,6,FALSE),12)</f>
         <v>#N/A</v>
       </c>
       <c r="O92" s="27"/>
-    </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P92" s="18"/>
+      <c r="Q92" s="28" t="b">
+        <v>0</v>
+      </c>
+      <c r="R92" s="18" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:18" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A93" s="19"/>
       <c r="B93" s="126" t="str">
         <f>_xll.ohRangeRetrieveError(I93)</f>
         <v/>
       </c>
       <c r="C93" s="40" t="s">
-        <v>439</v>
+        <v>47</v>
       </c>
       <c r="D93" s="85">
-        <v>46997</v>
+        <v>46327</v>
       </c>
       <c r="E93" s="86">
-        <v>4.7500000000000001E-2</v>
+        <v>7.2499999999999995E-2</v>
       </c>
       <c r="F93" s="87">
-        <v>100</v>
+        <v>99.999000000000009</v>
       </c>
       <c r="G93" s="85">
-        <v>41296</v>
+        <v>35370</v>
       </c>
       <c r="H93" s="85">
-        <v>41296</v>
+        <v>35464</v>
       </c>
       <c r="I93" s="119" t="str">
         <f>_xll.qlBTP2(C93,,D93,E93,F93,G93,H93,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0004889033#0000</v>
+        <v>IT0001086567#0004</v>
       </c>
       <c r="J93" s="119" t="b">
-        <f t="shared" si="8"/>
-        <v>1</v>
+        <f t="shared" si="12"/>
+        <v>0</v>
       </c>
       <c r="K93" s="127" t="b">
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="L93" s="121" t="str">
-        <f t="shared" si="12"/>
-        <v>Residual Missing</v>
-      </c>
-      <c r="M93" s="48" t="e">
+        <f t="shared" si="16"/>
+        <v>--</v>
+      </c>
+      <c r="M93" s="48" t="str">
         <f>LEFT(VLOOKUP($D93,'BTP Strip May-Nov'!$H$8:$M$13,6,FALSE),12)</f>
-        <v>#N/A</v>
+        <v>IT0001246807</v>
       </c>
       <c r="N93" s="120" t="e">
         <f>LEFT(VLOOKUP($D93,'BTP Strip Feb-Aug'!$H$8:$M$27,6,FALSE),12)</f>
         <v>#N/A</v>
       </c>
       <c r="O93" s="27"/>
-    </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="R93" s="18" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A94" s="19"/>
       <c r="B94" s="126" t="str">
         <f>_xll.ohRangeRetrieveError(I94)</f>
         <v/>
       </c>
       <c r="C94" s="40" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D94" s="85">
-        <v>47423</v>
+        <v>46692</v>
       </c>
       <c r="E94" s="86">
-        <v>5.2499999999999998E-2</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="F94" s="87">
         <v>100</v>
       </c>
       <c r="G94" s="85">
-        <v>36100</v>
+        <v>35735</v>
       </c>
       <c r="H94" s="85">
-        <v>36117</v>
+        <v>35752</v>
       </c>
       <c r="I94" s="119" t="str">
         <f>_xll.qlBTP2(C94,,D94,E94,F94,G94,H94,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0001278511#0000</v>
+        <v>IT0001174611#0004</v>
       </c>
       <c r="J94" s="119" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K94" s="127" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="L94" s="121" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>--</v>
       </c>
       <c r="M94" s="48" t="str">
         <f>LEFT(VLOOKUP($D94,'BTP Strip May-Nov'!$H$8:$M$13,6,FALSE),12)</f>
-        <v>IT0001312773</v>
+        <v>IT0001246815</v>
       </c>
       <c r="N94" s="120" t="e">
         <f>LEFT(VLOOKUP($D94,'BTP Strip Feb-Aug'!$H$8:$M$27,6,FALSE),12)</f>
         <v>#N/A</v>
       </c>
       <c r="O94" s="27"/>
-    </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="R94" s="18" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A95" s="19"/>
       <c r="B95" s="126" t="str">
         <f>_xll.ohRangeRetrieveError(I95)</f>
         <v/>
       </c>
       <c r="C95" s="40" t="s">
-        <v>450</v>
+        <v>438</v>
       </c>
       <c r="D95" s="85">
-        <v>47543</v>
+        <v>46997</v>
       </c>
       <c r="E95" s="86">
-        <v>3.5000000000000003E-2</v>
+        <v>4.7500000000000001E-2</v>
       </c>
       <c r="F95" s="87">
         <v>100</v>
       </c>
       <c r="G95" s="85">
-        <v>41699</v>
+        <v>41296</v>
       </c>
       <c r="H95" s="85">
-        <v>41699</v>
+        <v>41296</v>
       </c>
       <c r="I95" s="119" t="str">
         <f>_xll.qlBTP2(C95,,D95,E95,F95,G95,H95,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0005024234#0000</v>
+        <v>IT0004889033#0004</v>
       </c>
       <c r="J95" s="119" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="K95" s="127" t="b">
-        <v>0</v>
+        <f t="shared" si="11"/>
+        <v>1</v>
       </c>
       <c r="L95" s="121" t="str">
-        <f>IF(AND(K95,ISNA(M95),ISNA(N95)),"Residual Missing","--")</f>
-        <v>--</v>
+        <f t="shared" si="16"/>
+        <v>Residual Missing</v>
       </c>
       <c r="M95" s="48" t="e">
         <f>LEFT(VLOOKUP($D95,'BTP Strip May-Nov'!$H$8:$M$13,6,FALSE),12)</f>
@@ -9157,96 +9573,110 @@
         <v>#N/A</v>
       </c>
       <c r="O95" s="27"/>
-    </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="R95" s="18" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A96" s="19"/>
       <c r="B96" s="126" t="str">
         <f>_xll.ohRangeRetrieveError(I96)</f>
         <v/>
       </c>
       <c r="C96" s="40" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D96" s="85">
-        <v>47969</v>
+        <v>47423</v>
       </c>
       <c r="E96" s="86">
-        <v>0.06</v>
+        <v>5.2499999999999998E-2</v>
       </c>
       <c r="F96" s="87">
         <v>100</v>
       </c>
       <c r="G96" s="85">
-        <v>36465</v>
+        <v>36100</v>
       </c>
       <c r="H96" s="85">
-        <v>36602</v>
+        <v>36117</v>
       </c>
       <c r="I96" s="119" t="str">
         <f>_xll.qlBTP2(C96,,D96,E96,F96,G96,H96,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0001444378#0000</v>
+        <v>IT0001278511#0004</v>
       </c>
       <c r="J96" s="119" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K96" s="127" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="L96" s="121" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>--</v>
       </c>
       <c r="M96" s="48" t="str">
         <f>LEFT(VLOOKUP($D96,'BTP Strip May-Nov'!$H$8:$M$13,6,FALSE),12)</f>
-        <v>IT0001464186</v>
+        <v>IT0001312773</v>
       </c>
       <c r="N96" s="120" t="e">
         <f>LEFT(VLOOKUP($D96,'BTP Strip Feb-Aug'!$H$8:$M$27,6,FALSE),12)</f>
         <v>#N/A</v>
       </c>
       <c r="O96" s="27"/>
-    </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q96" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="R96" s="18" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A97" s="19"/>
       <c r="B97" s="126" t="str">
         <f>_xll.ohRangeRetrieveError(I97)</f>
         <v/>
       </c>
       <c r="C97" s="40" t="s">
-        <v>459</v>
+        <v>449</v>
       </c>
       <c r="D97" s="85">
-        <v>48274</v>
+        <v>47543</v>
       </c>
       <c r="E97" s="86">
-        <v>1.6500000000000001E-2</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="F97" s="87">
         <v>100</v>
       </c>
       <c r="G97" s="85">
-        <v>42064</v>
+        <v>41699</v>
       </c>
       <c r="H97" s="85">
-        <v>42087</v>
+        <v>41699</v>
       </c>
       <c r="I97" s="119" t="str">
         <f>_xll.qlBTP2(C97,,D97,E97,F97,G97,H97,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0005094088#0000</v>
+        <v>IT0005024234#0004</v>
       </c>
       <c r="J97" s="119" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="K97" s="127" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="11"/>
+        <v>1</v>
       </c>
       <c r="L97" s="121" t="str">
-        <f t="shared" ref="L97" si="16">IF(AND(K97,ISNA(M97),ISNA(N97)),"Residual Missing","--")</f>
-        <v>--</v>
+        <f>IF(AND(K97,ISNA(M97),ISNA(N97)),"Residual Missing","--")</f>
+        <v>Residual Missing</v>
       </c>
       <c r="M97" s="48" t="e">
         <f>LEFT(VLOOKUP($D97,'BTP Strip May-Nov'!$H$8:$M$13,6,FALSE),12)</f>
@@ -9257,145 +9687,166 @@
         <v>#N/A</v>
       </c>
       <c r="O97" s="27"/>
-    </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q97" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="R97" s="18" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A98" s="19"/>
       <c r="B98" s="126" t="str">
         <f>_xll.ohRangeRetrieveError(I98)</f>
         <v/>
       </c>
       <c r="C98" s="40" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D98" s="85">
-        <v>48611</v>
+        <v>47969</v>
       </c>
       <c r="E98" s="86">
-        <v>5.7500000000000002E-2</v>
+        <v>0.06</v>
       </c>
       <c r="F98" s="87">
         <v>100</v>
       </c>
       <c r="G98" s="85">
-        <v>37288</v>
+        <v>36465</v>
       </c>
       <c r="H98" s="85">
-        <v>37333</v>
+        <v>36602</v>
       </c>
       <c r="I98" s="119" t="str">
         <f>_xll.qlBTP2(C98,,D98,E98,F98,G98,H98,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0003256820#0000</v>
+        <v>IT0001444378#0004</v>
       </c>
       <c r="J98" s="119" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K98" s="127" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="L98" s="121" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>--</v>
       </c>
-      <c r="M98" s="48" t="e">
+      <c r="M98" s="48" t="str">
         <f>LEFT(VLOOKUP($D98,'BTP Strip May-Nov'!$H$8:$M$13,6,FALSE),12)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N98" s="120" t="str">
+        <v>IT0001464186</v>
+      </c>
+      <c r="N98" s="120" t="e">
         <f>LEFT(VLOOKUP($D98,'BTP Strip Feb-Aug'!$H$8:$M$27,6,FALSE),12)</f>
-        <v>IT0003268460</v>
+        <v>#N/A</v>
       </c>
       <c r="O98" s="27"/>
-    </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q98" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="R98" s="18" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A99" s="19"/>
       <c r="B99" s="126" t="str">
         <f>_xll.ohRangeRetrieveError(I99)</f>
         <v/>
       </c>
       <c r="C99" s="40" t="s">
-        <v>49</v>
+        <v>458</v>
       </c>
       <c r="D99" s="85">
-        <v>49157</v>
+        <v>48274</v>
       </c>
       <c r="E99" s="86">
-        <v>0.05</v>
+        <v>1.6500000000000001E-2</v>
       </c>
       <c r="F99" s="87">
         <v>100</v>
       </c>
       <c r="G99" s="85">
-        <v>37834</v>
+        <v>42064</v>
       </c>
       <c r="H99" s="85">
-        <v>37888</v>
+        <v>42087</v>
       </c>
       <c r="I99" s="119" t="str">
         <f>_xll.qlBTP2(C99,,D99,E99,F99,G99,H99,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0003535157#0000</v>
+        <v>IT0005094088#0004</v>
       </c>
       <c r="J99" s="119" t="b">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" si="12"/>
+        <v>1</v>
       </c>
       <c r="K99" s="127" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="L99" s="121" t="str">
-        <f t="shared" si="12"/>
-        <v>--</v>
+        <f t="shared" ref="L99" si="22">IF(AND(K99,ISNA(M99),ISNA(N99)),"Residual Missing","--")</f>
+        <v>Residual Missing</v>
       </c>
       <c r="M99" s="48" t="e">
         <f>LEFT(VLOOKUP($D99,'BTP Strip May-Nov'!$H$8:$M$13,6,FALSE),12)</f>
         <v>#N/A</v>
       </c>
-      <c r="N99" s="120" t="str">
+      <c r="N99" s="120" t="e">
         <f>LEFT(VLOOKUP($D99,'BTP Strip Feb-Aug'!$H$8:$M$27,6,FALSE),12)</f>
-        <v>IT0003540371</v>
+        <v>#N/A</v>
       </c>
       <c r="O99" s="27"/>
-    </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q99" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="R99" s="18" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A100" s="19"/>
       <c r="B100" s="126" t="str">
         <f>_xll.ohRangeRetrieveError(I100)</f>
         <v/>
       </c>
       <c r="C100" s="40" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="D100" s="85">
-        <v>50072</v>
+        <v>48611</v>
       </c>
       <c r="E100" s="86">
-        <v>0.04</v>
+        <v>5.7500000000000002E-2</v>
       </c>
       <c r="F100" s="87">
         <v>100</v>
       </c>
       <c r="G100" s="85">
-        <v>38565</v>
+        <v>37288</v>
       </c>
       <c r="H100" s="85">
-        <v>38644</v>
+        <v>37333</v>
       </c>
       <c r="I100" s="119" t="str">
         <f>_xll.qlBTP2(C100,,D100,E100,F100,G100,H100,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0003934657#0000</v>
+        <v>IT0003256820#0004</v>
       </c>
       <c r="J100" s="119" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K100" s="127" t="b">
-        <f>NOT(ISNA(VLOOKUP(LEFT($I100,12),LatestStrippable,1,FALSE)))</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="L100" s="121" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>--</v>
       </c>
       <c r="M100" s="48" t="e">
@@ -9404,21 +9855,28 @@
       </c>
       <c r="N100" s="120" t="str">
         <f>LEFT(VLOOKUP($D100,'BTP Strip Feb-Aug'!$H$8:$M$27,6,FALSE),12)</f>
-        <v>IT0004002801</v>
+        <v>IT0003268460</v>
       </c>
       <c r="O100" s="27"/>
-    </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q100" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="R100" s="18" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A101" s="19"/>
       <c r="B101" s="126" t="str">
         <f>_xll.ohRangeRetrieveError(I101)</f>
         <v/>
       </c>
       <c r="C101" s="40" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="D101" s="85">
-        <v>50983</v>
+        <v>49157</v>
       </c>
       <c r="E101" s="86">
         <v>0.05</v>
@@ -9427,25 +9885,25 @@
         <v>100</v>
       </c>
       <c r="G101" s="85">
-        <v>39295</v>
+        <v>37834</v>
       </c>
       <c r="H101" s="85">
-        <v>39378</v>
+        <v>37888</v>
       </c>
       <c r="I101" s="119" t="str">
         <f>_xll.qlBTP2(C101,,D101,E101,F101,G101,H101,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0004286966#0000</v>
+        <v>IT0003535157#0004</v>
       </c>
       <c r="J101" s="119" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K101" s="127" t="b">
-        <f>NOT(ISNA(VLOOKUP(LEFT($I101,12),LatestStrippable,1,FALSE)))</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="L101" s="121" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>--</v>
       </c>
       <c r="M101" s="48" t="e">
@@ -9454,148 +9912,170 @@
       </c>
       <c r="N101" s="120" t="str">
         <f>LEFT(VLOOKUP($D101,'BTP Strip Feb-Aug'!$H$8:$M$27,6,FALSE),12)</f>
-        <v>IT0004288574</v>
+        <v>IT0003540371</v>
       </c>
       <c r="O101" s="27"/>
-    </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q101" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="R101" s="18" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A102" s="19"/>
       <c r="B102" s="126" t="str">
         <f>_xll.ohRangeRetrieveError(I102)</f>
         <v/>
       </c>
       <c r="C102" s="40" t="s">
-        <v>71</v>
+        <v>15</v>
       </c>
       <c r="D102" s="85">
-        <v>51380</v>
+        <v>50072</v>
       </c>
       <c r="E102" s="86">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="F102" s="87">
         <v>100</v>
       </c>
       <c r="G102" s="85">
-        <v>40057</v>
+        <v>38565</v>
       </c>
       <c r="H102" s="85">
-        <v>40072</v>
+        <v>38644</v>
       </c>
       <c r="I102" s="119" t="str">
         <f>_xll.qlBTP2(C102,,D102,E102,F102,G102,H102,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0004532559#0000</v>
+        <v>IT0003934657#0004</v>
       </c>
       <c r="J102" s="119" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K102" s="127" t="b">
-        <f>NOT(ISNA(VLOOKUP(LEFT($I102,12),LatestStrippable,1,FALSE)))</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="L102" s="121" t="str">
-        <f>IF(AND(K102,ISNA(M102),ISNA(N102)),"Residual Missing","--")</f>
-        <v>Residual Missing</v>
+        <f t="shared" si="16"/>
+        <v>--</v>
       </c>
       <c r="M102" s="48" t="e">
         <f>LEFT(VLOOKUP($D102,'BTP Strip May-Nov'!$H$8:$M$13,6,FALSE),12)</f>
         <v>#N/A</v>
       </c>
-      <c r="N102" s="120" t="e">
+      <c r="N102" s="120" t="str">
         <f>LEFT(VLOOKUP($D102,'BTP Strip Feb-Aug'!$H$8:$M$27,6,FALSE),12)</f>
-        <v>#N/A</v>
+        <v>IT0004002801</v>
       </c>
       <c r="O102" s="27"/>
-    </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q102" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="R102" s="18" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A103" s="19"/>
       <c r="B103" s="126" t="str">
         <f>_xll.ohRangeRetrieveError(I103)</f>
         <v/>
       </c>
       <c r="C103" s="40" t="s">
-        <v>440</v>
+        <v>29</v>
       </c>
       <c r="D103" s="85">
-        <v>52841</v>
+        <v>50983</v>
       </c>
       <c r="E103" s="86">
-        <v>4.7500000000000001E-2</v>
+        <v>0.05</v>
       </c>
       <c r="F103" s="87">
         <v>100</v>
       </c>
       <c r="G103" s="85">
-        <v>41334</v>
+        <v>39295</v>
       </c>
       <c r="H103" s="85">
-        <v>41416</v>
+        <v>39378</v>
       </c>
       <c r="I103" s="119" t="str">
         <f>_xll.qlBTP2(C103,,D103,E103,F103,G103,H103,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0004923998#0000</v>
+        <v>IT0004286966#0004</v>
       </c>
       <c r="J103" s="119" t="b">
-        <f t="shared" si="8"/>
-        <v>1</v>
+        <f t="shared" si="12"/>
+        <v>0</v>
       </c>
       <c r="K103" s="127" t="b">
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="L103" s="121" t="str">
-        <f t="shared" si="12"/>
-        <v>Residual Missing</v>
+        <f t="shared" si="16"/>
+        <v>--</v>
       </c>
       <c r="M103" s="48" t="e">
         <f>LEFT(VLOOKUP($D103,'BTP Strip May-Nov'!$H$8:$M$13,6,FALSE),12)</f>
         <v>#N/A</v>
       </c>
-      <c r="N103" s="120" t="e">
+      <c r="N103" s="120" t="str">
         <f>LEFT(VLOOKUP($D103,'BTP Strip Feb-Aug'!$H$8:$M$27,6,FALSE),12)</f>
-        <v>#N/A</v>
+        <v>IT0004288574</v>
       </c>
       <c r="O103" s="27"/>
-    </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q103" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="R103" s="18" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A104" s="19"/>
-      <c r="B104" s="128" t="str">
+      <c r="B104" s="126" t="str">
         <f>_xll.ohRangeRetrieveError(I104)</f>
         <v/>
       </c>
-      <c r="C104" s="129" t="s">
-        <v>454</v>
-      </c>
-      <c r="D104" s="130">
-        <v>53571</v>
-      </c>
-      <c r="E104" s="131">
-        <v>3.2500000000000001E-2</v>
-      </c>
-      <c r="F104" s="132">
-        <v>100</v>
-      </c>
-      <c r="G104" s="130">
-        <v>41883</v>
-      </c>
-      <c r="H104" s="130">
-        <v>42026</v>
+      <c r="C104" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="D104" s="85">
+        <v>51380</v>
+      </c>
+      <c r="E104" s="86">
+        <v>0.05</v>
+      </c>
+      <c r="F104" s="87">
+        <v>100</v>
+      </c>
+      <c r="G104" s="85">
+        <v>40057</v>
+      </c>
+      <c r="H104" s="85">
+        <v>40072</v>
       </c>
       <c r="I104" s="119" t="str">
         <f>_xll.qlBTP2(C104,,D104,E104,F104,G104,H104,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0005083057#0000</v>
+        <v>IT0004532559#0004</v>
       </c>
       <c r="J104" s="119" t="b">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="K104" s="133" t="b">
-        <f>NOT(ISNA(VLOOKUP(LEFT($I104,12),LatestStrippable,1,FALSE)))</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
+      <c r="K104" s="127" t="b">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
       <c r="L104" s="121" t="str">
-        <f t="shared" si="12"/>
-        <v>--</v>
+        <f>IF(AND(K104,ISNA(M104),ISNA(N104)),"Residual Missing","--")</f>
+        <v>Residual Missing</v>
       </c>
       <c r="M104" s="48" t="e">
         <f>LEFT(VLOOKUP($D104,'BTP Strip May-Nov'!$H$8:$M$13,6,FALSE),12)</f>
@@ -9606,72 +10086,250 @@
         <v>#N/A</v>
       </c>
       <c r="O104" s="27"/>
-    </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q104" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="R104" s="18" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A105" s="19"/>
-      <c r="B105" s="49"/>
-      <c r="C105" s="49"/>
-      <c r="D105" s="49"/>
-      <c r="E105" s="49"/>
-      <c r="F105" s="49"/>
-      <c r="G105" s="49"/>
-      <c r="H105" s="49"/>
-      <c r="I105" s="49"/>
-      <c r="J105" s="49" t="str">
-        <f>_xll.ohGroup(K105,_xll.ohFilter(I8:I104,J8:J104),Permanent,,ObjectOverwrite)</f>
-        <v>CacBTPs#0000</v>
-      </c>
-      <c r="K105" s="49" t="s">
-        <v>461</v>
-      </c>
-      <c r="L105" s="22"/>
-      <c r="M105" s="49"/>
-      <c r="N105" s="49"/>
+      <c r="B105" s="126" t="str">
+        <f>_xll.ohRangeRetrieveError(I105)</f>
+        <v/>
+      </c>
+      <c r="C105" s="40" t="s">
+        <v>439</v>
+      </c>
+      <c r="D105" s="85">
+        <v>52841</v>
+      </c>
+      <c r="E105" s="86">
+        <v>4.7500000000000001E-2</v>
+      </c>
+      <c r="F105" s="87">
+        <v>100</v>
+      </c>
+      <c r="G105" s="85">
+        <v>41334</v>
+      </c>
+      <c r="H105" s="85">
+        <v>41416</v>
+      </c>
+      <c r="I105" s="119" t="str">
+        <f>_xll.qlBTP2(C105,,D105,E105,F105,G105,H105,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>IT0004923998#0004</v>
+      </c>
+      <c r="J105" s="119" t="b">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="K105" s="127" t="b">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="L105" s="121" t="str">
+        <f t="shared" si="16"/>
+        <v>Residual Missing</v>
+      </c>
+      <c r="M105" s="48" t="e">
+        <f>LEFT(VLOOKUP($D105,'BTP Strip May-Nov'!$H$8:$M$13,6,FALSE),12)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="N105" s="120" t="e">
+        <f>LEFT(VLOOKUP($D105,'BTP Strip Feb-Aug'!$H$8:$M$27,6,FALSE),12)</f>
+        <v>#N/A</v>
+      </c>
       <c r="O105" s="27"/>
-    </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q105" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="R105" s="18" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A106" s="19"/>
-      <c r="B106" s="22"/>
-      <c r="C106" s="22"/>
-      <c r="D106" s="22"/>
-      <c r="E106" s="22"/>
-      <c r="F106" s="22"/>
-      <c r="G106" s="22"/>
-      <c r="H106" s="22"/>
-      <c r="I106" s="22"/>
-      <c r="J106" s="22" t="str">
-        <f>_xll.ohGroup(K106,_xll.ohFilter(I8:I104,K8:K104),Permanent,,ObjectOverwrite)</f>
-        <v>StrippableBTPs#0000</v>
-      </c>
-      <c r="K106" s="22" t="s">
+      <c r="B106" s="126" t="str">
+        <f>_xll.ohRangeRetrieveError(I106)</f>
+        <v/>
+      </c>
+      <c r="C106" s="40" t="s">
+        <v>453</v>
+      </c>
+      <c r="D106" s="85">
+        <v>53571</v>
+      </c>
+      <c r="E106" s="86">
+        <v>3.2500000000000001E-2</v>
+      </c>
+      <c r="F106" s="87">
+        <v>100</v>
+      </c>
+      <c r="G106" s="85">
+        <v>41883</v>
+      </c>
+      <c r="H106" s="85">
+        <v>42026</v>
+      </c>
+      <c r="I106" s="119" t="str">
+        <f>_xll.qlBTP2(C106,,D106,E106,F106,G106,H106,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>IT0005083057#0004</v>
+      </c>
+      <c r="J106" s="119" t="b">
+        <f t="shared" ref="J106" si="23">IF(AND(H106&gt;$J$6,D106&gt;$J$5),TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="K106" s="127" t="b">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="L106" s="121" t="str">
+        <f t="shared" ref="L106" si="24">IF(AND(K106,ISNA(M106),ISNA(N106)),"Residual Missing","--")</f>
+        <v>Residual Missing</v>
+      </c>
+      <c r="M106" s="48" t="e">
+        <f>LEFT(VLOOKUP($D106,'BTP Strip May-Nov'!$H$8:$M$13,6,FALSE),12)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="N106" s="120" t="e">
+        <f>LEFT(VLOOKUP($D106,'BTP Strip Feb-Aug'!$H$8:$M$27,6,FALSE),12)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O106" s="27"/>
+      <c r="Q106" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="R106" s="18" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A107" s="19"/>
+      <c r="B107" s="128" t="str">
+        <f>_xll.ohRangeRetrieveError(I107)</f>
+        <v/>
+      </c>
+      <c r="C107" s="129" t="s">
+        <v>466</v>
+      </c>
+      <c r="D107" s="130">
+        <v>53752</v>
+      </c>
+      <c r="E107" s="131">
+        <v>2.7E-2</v>
+      </c>
+      <c r="F107" s="132">
+        <v>100</v>
+      </c>
+      <c r="G107" s="130">
+        <v>42409</v>
+      </c>
+      <c r="H107" s="130">
+        <v>42409</v>
+      </c>
+      <c r="I107" s="119" t="str">
+        <f>_xll.qlBTP2(C107,,D107,E107,F107,G107,H107,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>IT0005162828#0004</v>
+      </c>
+      <c r="J107" s="119" t="b">
+        <f t="shared" ref="J107" si="25">IF(AND(H107&gt;$J$6,D107&gt;$J$5),TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="K107" s="133" t="b">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="L107" s="121" t="str">
+        <f t="shared" ref="L107" si="26">IF(AND(K107,ISNA(M107),ISNA(N107)),"Residual Missing","--")</f>
+        <v>--</v>
+      </c>
+      <c r="M107" s="48" t="e">
+        <f>LEFT(VLOOKUP($D107,'BTP Strip May-Nov'!$H$8:$M$13,6,FALSE),12)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="N107" s="120" t="e">
+        <f>LEFT(VLOOKUP($D107,'BTP Strip Feb-Aug'!$H$8:$M$27,6,FALSE),12)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O107" s="27"/>
+      <c r="Q107" s="28" t="b">
+        <v>0</v>
+      </c>
+      <c r="R107" s="18" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A108" s="19"/>
+      <c r="B108" s="49"/>
+      <c r="C108" s="49"/>
+      <c r="D108" s="49"/>
+      <c r="E108" s="49"/>
+      <c r="F108" s="49"/>
+      <c r="G108" s="49"/>
+      <c r="H108" s="49"/>
+      <c r="I108" s="49"/>
+      <c r="J108" s="49" t="str">
+        <f>_xll.ohGroup(K108,_xll.ohFilter(I8:I107,J8:J107),Permanent,,ObjectOverwrite)</f>
+        <v>CacBTPs#0004</v>
+      </c>
+      <c r="K108" s="49" t="s">
+        <v>460</v>
+      </c>
+      <c r="L108" s="22"/>
+      <c r="M108" s="49"/>
+      <c r="N108" s="49"/>
+      <c r="O108" s="27"/>
+    </row>
+    <row r="109" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A109" s="19"/>
+      <c r="B109" s="22"/>
+      <c r="C109" s="22"/>
+      <c r="D109" s="22"/>
+      <c r="E109" s="22"/>
+      <c r="F109" s="22"/>
+      <c r="G109" s="22"/>
+      <c r="H109" s="22"/>
+      <c r="I109" s="22"/>
+      <c r="J109" s="22" t="str">
+        <f>_xll.ohGroup(K109,_xll.ohFilter(I8:I107,K8:K107),Permanent,,ObjectOverwrite)</f>
+        <v>StrippableBTPs#0014</v>
+      </c>
+      <c r="K109" s="22" t="s">
         <v>357</v>
       </c>
-      <c r="L106" s="22"/>
-      <c r="M106" s="22"/>
-      <c r="N106" s="22"/>
-      <c r="O106" s="27"/>
-    </row>
-    <row r="107" spans="1:15" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="44"/>
-      <c r="B107" s="45"/>
-      <c r="C107" s="45"/>
-      <c r="D107" s="45"/>
-      <c r="E107" s="45"/>
-      <c r="F107" s="45"/>
-      <c r="G107" s="45"/>
-      <c r="H107" s="45"/>
-      <c r="I107" s="45"/>
-      <c r="J107" s="45" t="str">
-        <f>_xll.ohGroup(K107,I8:I104,Permanent,,ObjectOverwrite)</f>
-        <v>BTPs#0000</v>
-      </c>
-      <c r="K107" s="45" t="s">
+      <c r="L109" s="22"/>
+      <c r="M109" s="22"/>
+      <c r="N109" s="22"/>
+      <c r="O109" s="27"/>
+    </row>
+    <row r="110" spans="1:18" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="44"/>
+      <c r="B110" s="45"/>
+      <c r="C110" s="45"/>
+      <c r="D110" s="45"/>
+      <c r="E110" s="45"/>
+      <c r="F110" s="45"/>
+      <c r="G110" s="45"/>
+      <c r="H110" s="45"/>
+      <c r="I110" s="45"/>
+      <c r="J110" s="45" t="str">
+        <f>_xll.ohGroup(K110,I8:I107,Permanent,,ObjectOverwrite)</f>
+        <v>BTPs#0004</v>
+      </c>
+      <c r="K110" s="45" t="s">
         <v>356</v>
       </c>
-      <c r="L107" s="45"/>
-      <c r="M107" s="45"/>
-      <c r="N107" s="45"/>
-      <c r="O107" s="46"/>
+      <c r="L110" s="45"/>
+      <c r="M110" s="45"/>
+      <c r="N110" s="45"/>
+      <c r="O110" s="46"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -9714,316 +10372,316 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="118" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="118" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B2" s="101" t="e">
-        <f>VLOOKUP(A2,BTP!$C$8:$C$103,1,FALSE)</f>
+        <f>VLOOKUP(A2,BTP!$C$8:$C$105,1,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="118" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B3" s="101" t="e">
-        <f>VLOOKUP(A3,BTP!$C$8:$C$103,1,FALSE)</f>
+        <f>VLOOKUP(A3,BTP!$C$8:$C$105,1,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="118" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B4" s="101" t="e">
-        <f>VLOOKUP(A4,BTP!$C$8:$C$103,1,FALSE)</f>
+        <f>VLOOKUP(A4,BTP!$C$8:$C$105,1,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="118" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B5" s="101" t="e">
-        <f>VLOOKUP(A5,BTP!$C$8:$C$103,1,FALSE)</f>
+        <f>VLOOKUP(A5,BTP!$C$8:$C$105,1,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="118" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B6" s="101" t="e">
-        <f>VLOOKUP(A6,BTP!$C$8:$C$103,1,FALSE)</f>
+        <f>VLOOKUP(A6,BTP!$C$8:$C$105,1,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="118" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B7" s="101" t="e">
-        <f>VLOOKUP(A7,BTP!$C$8:$C$103,1,FALSE)</f>
+        <f>VLOOKUP(A7,BTP!$C$8:$C$105,1,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="118" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B8" s="101" t="e">
-        <f>VLOOKUP(A8,BTP!$C$8:$C$103,1,FALSE)</f>
+        <f>VLOOKUP(A8,BTP!$C$8:$C$105,1,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="118" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B9" s="101" t="e">
-        <f>VLOOKUP(A9,BTP!$C$8:$C$103,1,FALSE)</f>
+        <f>VLOOKUP(A9,BTP!$C$8:$C$105,1,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="118" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B10" s="101" t="e">
-        <f>VLOOKUP(A10,BTP!$C$8:$C$103,1,FALSE)</f>
+        <f>VLOOKUP(A10,BTP!$C$8:$C$105,1,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="118" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B11" s="101" t="e">
-        <f>VLOOKUP(A11,BTP!$C$8:$C$103,1,FALSE)</f>
+        <f>VLOOKUP(A11,BTP!$C$8:$C$105,1,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="118" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B12" s="101" t="e">
-        <f>VLOOKUP(A12,BTP!$C$8:$C$103,1,FALSE)</f>
+        <f>VLOOKUP(A12,BTP!$C$8:$C$105,1,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="118" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B13" s="101" t="e">
-        <f>VLOOKUP(A13,BTP!$C$8:$C$103,1,FALSE)</f>
+        <f>VLOOKUP(A13,BTP!$C$8:$C$105,1,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="118" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B14" s="101" t="e">
-        <f>VLOOKUP(A14,BTP!$C$8:$C$103,1,FALSE)</f>
+        <f>VLOOKUP(A14,BTP!$C$8:$C$105,1,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="118" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B15" s="101" t="e">
-        <f>VLOOKUP(A15,BTP!$C$8:$C$103,1,FALSE)</f>
+        <f>VLOOKUP(A15,BTP!$C$8:$C$105,1,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="118" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B16" s="101" t="e">
-        <f>VLOOKUP(A16,BTP!$C$8:$C$103,1,FALSE)</f>
+        <f>VLOOKUP(A16,BTP!$C$8:$C$105,1,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="118" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B17" s="101" t="e">
-        <f>VLOOKUP(A17,BTP!$C$8:$C$103,1,FALSE)</f>
+        <f>VLOOKUP(A17,BTP!$C$8:$C$105,1,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="118" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B18" s="101" t="e">
-        <f>VLOOKUP(A18,BTP!$C$8:$C$103,1,FALSE)</f>
+        <f>VLOOKUP(A18,BTP!$C$8:$C$105,1,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="118" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B19" s="101" t="e">
-        <f>VLOOKUP(A19,BTP!$C$8:$C$103,1,FALSE)</f>
+        <f>VLOOKUP(A19,BTP!$C$8:$C$105,1,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="118" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B20" s="101" t="e">
-        <f>VLOOKUP(A20,BTP!$C$8:$C$103,1,FALSE)</f>
+        <f>VLOOKUP(A20,BTP!$C$8:$C$105,1,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="118" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B21" s="101" t="e">
-        <f>VLOOKUP(A21,BTP!$C$8:$C$103,1,FALSE)</f>
+        <f>VLOOKUP(A21,BTP!$C$8:$C$105,1,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="118" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B22" s="101" t="e">
-        <f>VLOOKUP(A22,BTP!$C$8:$C$103,1,FALSE)</f>
+        <f>VLOOKUP(A22,BTP!$C$8:$C$105,1,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="118" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B23" s="101" t="e">
-        <f>VLOOKUP(A23,BTP!$C$8:$C$103,1,FALSE)</f>
+        <f>VLOOKUP(A23,BTP!$C$8:$C$105,1,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="118" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B24" s="101" t="e">
-        <f>VLOOKUP(A24,BTP!$C$8:$C$103,1,FALSE)</f>
+        <f>VLOOKUP(A24,BTP!$C$8:$C$105,1,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="118" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B25" s="101" t="e">
-        <f>VLOOKUP(A25,BTP!$C$8:$C$103,1,FALSE)</f>
+        <f>VLOOKUP(A25,BTP!$C$8:$C$105,1,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="118" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B26" s="101" t="e">
-        <f>VLOOKUP(A26,BTP!$C$8:$C$103,1,FALSE)</f>
+        <f>VLOOKUP(A26,BTP!$C$8:$C$105,1,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="118" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B27" s="101" t="e">
-        <f>VLOOKUP(A27,BTP!$C$8:$C$103,1,FALSE)</f>
+        <f>VLOOKUP(A27,BTP!$C$8:$C$105,1,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="118" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B28" s="101" t="e">
-        <f>VLOOKUP(A28,BTP!$C$8:$C$103,1,FALSE)</f>
+        <f>VLOOKUP(A28,BTP!$C$8:$C$105,1,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="118" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B29" s="101" t="e">
-        <f>VLOOKUP(A29,BTP!$C$8:$C$103,1,FALSE)</f>
+        <f>VLOOKUP(A29,BTP!$C$8:$C$105,1,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="118" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B30" s="101" t="e">
-        <f>VLOOKUP(A30,BTP!$C$8:$C$103,1,FALSE)</f>
+        <f>VLOOKUP(A30,BTP!$C$8:$C$105,1,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="118" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B31" s="101" t="e">
-        <f>VLOOKUP(A31,BTP!$C$8:$C$103,1,FALSE)</f>
+        <f>VLOOKUP(A31,BTP!$C$8:$C$105,1,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="118" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B32" s="101" t="e">
-        <f>VLOOKUP(A32,BTP!$C$8:$C$103,1,FALSE)</f>
+        <f>VLOOKUP(A32,BTP!$C$8:$C$105,1,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="33" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A33" s="118" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B33" s="101" t="e">
-        <f>VLOOKUP(A33,BTP!$C$8:$C$103,1,FALSE)</f>
+        <f>VLOOKUP(A33,BTP!$C$8:$C$105,1,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="34" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A34" s="118" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B34" s="101" t="e">
-        <f>VLOOKUP(A34,BTP!$C$8:$C$103,1,FALSE)</f>
+        <f>VLOOKUP(A34,BTP!$C$8:$C$105,1,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="35" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A35" s="118" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B35" s="101" t="e">
-        <f>VLOOKUP(A35,BTP!$C$8:$C$103,1,FALSE)</f>
+        <f>VLOOKUP(A35,BTP!$C$8:$C$105,1,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="D35" s="102" t="str">
-        <f t="array" ref="D35:Q100">_xll.qlBondFlowAnalysis(BTP!I72)</f>
+        <f t="array" ref="D35:Q100">_xll.qlBondFlowAnalysis(BTP!I73)</f>
         <v>Payment Date</v>
       </c>
       <c r="E35" s="102" t="str">
@@ -10074,10 +10732,10 @@
     </row>
     <row r="36" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A36" s="118" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B36" s="101" t="e">
-        <f>VLOOKUP(A36,BTP!$C$8:$C$103,1,FALSE)</f>
+        <f>VLOOKUP(A36,BTP!$C$8:$C$105,1,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="D36" s="103">
@@ -10144,10 +10802,10 @@
     </row>
     <row r="37" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A37" s="118" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B37" s="101" t="e">
-        <f>VLOOKUP(A37,BTP!$C$8:$C$103,1,FALSE)</f>
+        <f>VLOOKUP(A37,BTP!$C$8:$C$105,1,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="D37" s="103">
@@ -10214,10 +10872,10 @@
     </row>
     <row r="38" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A38" s="118" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B38" s="101" t="e">
-        <f>VLOOKUP(A38,BTP!$C$8:$C$103,1,FALSE)</f>
+        <f>VLOOKUP(A38,BTP!$C$8:$C$105,1,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="D38" s="103">
@@ -10284,10 +10942,10 @@
     </row>
     <row r="39" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A39" s="118" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B39" s="101" t="e">
-        <f>VLOOKUP(A39,BTP!$C$8:$C$103,1,FALSE)</f>
+        <f>VLOOKUP(A39,BTP!$C$8:$C$105,1,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="D39" s="103">
@@ -10354,10 +11012,10 @@
     </row>
     <row r="40" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A40" s="118" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B40" s="101" t="e">
-        <f>VLOOKUP(A40,BTP!$C$8:$C$103,1,FALSE)</f>
+        <f>VLOOKUP(A40,BTP!$C$8:$C$105,1,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="D40" s="103">
@@ -10424,10 +11082,10 @@
     </row>
     <row r="41" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A41" s="118" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B41" s="101" t="e">
-        <f>VLOOKUP(A41,BTP!$C$8:$C$103,1,FALSE)</f>
+        <f>VLOOKUP(A41,BTP!$C$8:$C$105,1,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="D41" s="103">
@@ -10494,10 +11152,10 @@
     </row>
     <row r="42" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A42" s="118" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B42" s="101" t="e">
-        <f>VLOOKUP(A42,BTP!$C$8:$C$103,1,FALSE)</f>
+        <f>VLOOKUP(A42,BTP!$C$8:$C$105,1,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="D42" s="103">
@@ -10564,10 +11222,10 @@
     </row>
     <row r="43" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A43" s="118" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B43" s="101" t="e">
-        <f>VLOOKUP(A43,BTP!$C$8:$C$103,1,FALSE)</f>
+        <f>VLOOKUP(A43,BTP!$C$8:$C$105,1,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="D43" s="103">
@@ -10634,10 +11292,10 @@
     </row>
     <row r="44" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A44" s="118" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B44" s="101" t="e">
-        <f>VLOOKUP(A44,BTP!$C$8:$C$103,1,FALSE)</f>
+        <f>VLOOKUP(A44,BTP!$C$8:$C$105,1,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="D44" s="103">
@@ -10704,10 +11362,10 @@
     </row>
     <row r="45" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A45" s="118" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B45" s="101" t="e">
-        <f>VLOOKUP(A45,BTP!$C$8:$C$103,1,FALSE)</f>
+        <f>VLOOKUP(A45,BTP!$C$8:$C$105,1,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="D45" s="103">
@@ -10774,10 +11432,10 @@
     </row>
     <row r="46" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A46" s="118" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B46" s="101" t="e">
-        <f>VLOOKUP(A46,BTP!$C$8:$C$103,1,FALSE)</f>
+        <f>VLOOKUP(A46,BTP!$C$8:$C$105,1,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="D46" s="103">
@@ -10844,10 +11502,10 @@
     </row>
     <row r="47" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A47" s="118" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B47" s="101" t="e">
-        <f>VLOOKUP(A47,BTP!$C$8:$C$103,1,FALSE)</f>
+        <f>VLOOKUP(A47,BTP!$C$8:$C$105,1,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="D47" s="103">
@@ -10914,10 +11572,10 @@
     </row>
     <row r="48" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A48" s="118" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B48" s="101" t="e">
-        <f>VLOOKUP(A48,BTP!$C$8:$C$103,1,FALSE)</f>
+        <f>VLOOKUP(A48,BTP!$C$8:$C$105,1,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="D48" s="103">
@@ -10984,10 +11642,10 @@
     </row>
     <row r="49" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A49" s="118" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B49" s="101" t="e">
-        <f>VLOOKUP(A49,BTP!$C$8:$C$103,1,FALSE)</f>
+        <f>VLOOKUP(A49,BTP!$C$8:$C$105,1,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="D49" s="103">
@@ -11054,10 +11712,10 @@
     </row>
     <row r="50" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A50" s="118" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B50" s="101" t="e">
-        <f>VLOOKUP(A50,BTP!$C$8:$C$103,1,FALSE)</f>
+        <f>VLOOKUP(A50,BTP!$C$8:$C$105,1,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="D50" s="103">
@@ -11124,10 +11782,10 @@
     </row>
     <row r="51" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A51" s="118" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B51" s="101" t="e">
-        <f>VLOOKUP(A51,BTP!$C$8:$C$103,1,FALSE)</f>
+        <f>VLOOKUP(A51,BTP!$C$8:$C$105,1,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="D51" s="103">
@@ -11194,10 +11852,10 @@
     </row>
     <row r="52" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A52" s="118" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B52" s="101" t="e">
-        <f>VLOOKUP(A52,BTP!$C$8:$C$103,1,FALSE)</f>
+        <f>VLOOKUP(A52,BTP!$C$8:$C$105,1,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="D52" s="103">
@@ -11264,10 +11922,10 @@
     </row>
     <row r="53" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A53" s="118" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B53" s="101" t="e">
-        <f>VLOOKUP(A53,BTP!$C$8:$C$103,1,FALSE)</f>
+        <f>VLOOKUP(A53,BTP!$C$8:$C$105,1,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="D53" s="103" t="e">
@@ -11315,10 +11973,10 @@
     </row>
     <row r="54" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A54" s="118" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B54" s="101" t="e">
-        <f>VLOOKUP(A54,BTP!$C$8:$C$103,1,FALSE)</f>
+        <f>VLOOKUP(A54,BTP!$C$8:$C$105,1,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="D54" s="103" t="e">
@@ -11366,10 +12024,10 @@
     </row>
     <row r="55" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A55" s="118" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B55" s="101" t="e">
-        <f>VLOOKUP(A55,BTP!$C$8:$C$103,1,FALSE)</f>
+        <f>VLOOKUP(A55,BTP!$C$8:$C$105,1,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="D55" s="103" t="e">
@@ -11417,10 +12075,10 @@
     </row>
     <row r="56" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A56" s="118" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B56" s="101" t="e">
-        <f>VLOOKUP(A56,BTP!$C$8:$C$103,1,FALSE)</f>
+        <f>VLOOKUP(A56,BTP!$C$8:$C$105,1,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="D56" s="103" t="e">
@@ -11468,10 +12126,10 @@
     </row>
     <row r="57" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A57" s="118" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B57" s="101" t="e">
-        <f>VLOOKUP(A57,BTP!$C$8:$C$103,1,FALSE)</f>
+        <f>VLOOKUP(A57,BTP!$C$8:$C$105,1,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="D57" s="103" t="e">
@@ -11519,10 +12177,10 @@
     </row>
     <row r="58" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A58" s="118" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B58" s="101" t="e">
-        <f>VLOOKUP(A58,BTP!$C$8:$C$103,1,FALSE)</f>
+        <f>VLOOKUP(A58,BTP!$C$8:$C$105,1,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="D58" s="103" t="e">
@@ -11570,10 +12228,10 @@
     </row>
     <row r="59" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A59" s="118" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B59" s="101" t="e">
-        <f>VLOOKUP(A59,BTP!$C$8:$C$103,1,FALSE)</f>
+        <f>VLOOKUP(A59,BTP!$C$8:$C$105,1,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="D59" s="103" t="e">
@@ -11621,10 +12279,10 @@
     </row>
     <row r="60" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A60" s="118" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B60" s="101" t="e">
-        <f>VLOOKUP(A60,BTP!$C$8:$C$103,1,FALSE)</f>
+        <f>VLOOKUP(A60,BTP!$C$8:$C$105,1,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="D60" s="103" t="e">
@@ -11672,10 +12330,10 @@
     </row>
     <row r="61" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A61" s="118" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B61" s="101" t="e">
-        <f>VLOOKUP(A61,BTP!$C$8:$C$103,1,FALSE)</f>
+        <f>VLOOKUP(A61,BTP!$C$8:$C$105,1,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="D61" s="103" t="e">
@@ -11723,10 +12381,10 @@
     </row>
     <row r="62" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A62" s="118" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B62" s="101" t="e">
-        <f>VLOOKUP(A62,BTP!$C$8:$C$103,1,FALSE)</f>
+        <f>VLOOKUP(A62,BTP!$C$8:$C$105,1,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="D62" s="103" t="e">
@@ -11774,10 +12432,10 @@
     </row>
     <row r="63" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A63" s="118" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B63" s="101" t="e">
-        <f>VLOOKUP(A63,BTP!$C$8:$C$103,1,FALSE)</f>
+        <f>VLOOKUP(A63,BTP!$C$8:$C$105,1,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="D63" s="103" t="e">
@@ -11825,10 +12483,10 @@
     </row>
     <row r="64" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A64" s="118" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B64" s="101" t="e">
-        <f>VLOOKUP(A64,BTP!$C$8:$C$103,1,FALSE)</f>
+        <f>VLOOKUP(A64,BTP!$C$8:$C$105,1,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="D64" s="103" t="e">
@@ -11876,10 +12534,10 @@
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A65" s="118" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B65" s="101" t="e">
-        <f>VLOOKUP(A65,BTP!$C$8:$C$103,1,FALSE)</f>
+        <f>VLOOKUP(A65,BTP!$C$8:$C$105,1,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="D65" s="103" t="e">
@@ -11927,10 +12585,10 @@
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A66" s="118" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B66" s="101" t="e">
-        <f>VLOOKUP(A66,BTP!$C$8:$C$103,1,FALSE)</f>
+        <f>VLOOKUP(A66,BTP!$C$8:$C$105,1,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="D66" s="103" t="e">
@@ -11978,10 +12636,10 @@
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A67" s="118" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B67" s="101" t="e">
-        <f>VLOOKUP(A67,BTP!$C$8:$C$103,1,FALSE)</f>
+        <f>VLOOKUP(A67,BTP!$C$8:$C$105,1,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="D67" s="103" t="e">
@@ -12029,10 +12687,10 @@
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A68" s="118" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B68" s="101" t="e">
-        <f>VLOOKUP(A68,BTP!$C$8:$C$103,1,FALSE)</f>
+        <f>VLOOKUP(A68,BTP!$C$8:$C$105,1,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="D68" s="103" t="e">
@@ -12080,10 +12738,10 @@
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A69" s="118" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B69" s="101" t="e">
-        <f>VLOOKUP(A69,BTP!$C$8:$C$103,1,FALSE)</f>
+        <f>VLOOKUP(A69,BTP!$C$8:$C$105,1,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="D69" s="103" t="e">
@@ -12131,10 +12789,10 @@
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A70" s="118" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B70" s="101" t="e">
-        <f>VLOOKUP(A70,BTP!$C$8:$C$103,1,FALSE)</f>
+        <f>VLOOKUP(A70,BTP!$C$8:$C$105,1,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="D70" s="103" t="e">
@@ -13511,11 +14169,9 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet9"/>
-  <dimension ref="A1:B37"/>
+  <dimension ref="A1:B65"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -13533,325 +14189,577 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="93" t="s">
-        <v>34</v>
+        <v>408</v>
       </c>
       <c r="B2" s="98">
         <f>_xll.qlBondMaturityDate(A2)</f>
-        <v>40756</v>
+        <v>42475</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="94" t="s">
-        <v>35</v>
-      </c>
-      <c r="B3" s="98" t="e">
+        <v>422</v>
+      </c>
+      <c r="B3" s="98">
         <f>_xll.qlBondMaturityDate(A3)</f>
-        <v>#NUM!</v>
+        <v>42628</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="94" t="s">
-        <v>36</v>
-      </c>
-      <c r="B4" s="98" t="e">
+        <v>427</v>
+      </c>
+      <c r="B4" s="98">
         <f>_xll.qlBondMaturityDate(A4)</f>
-        <v>#NUM!</v>
+        <v>42856</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="94" t="s">
-        <v>37</v>
+        <v>434</v>
       </c>
       <c r="B5" s="98">
         <f>_xll.qlBondMaturityDate(A5)</f>
-        <v>41487</v>
+        <v>42887</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="94" t="s">
-        <v>38</v>
-      </c>
-      <c r="B6" s="98" t="e">
+        <v>435</v>
+      </c>
+      <c r="B6" s="98">
         <f>_xll.qlBondMaturityDate(A6)</f>
-        <v>#NUM!</v>
+        <v>43040</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="94" t="s">
-        <v>39</v>
-      </c>
-      <c r="B7" s="98" t="e">
+        <v>436</v>
+      </c>
+      <c r="B7" s="98">
         <f>_xll.qlBondMaturityDate(A7)</f>
-        <v>#NUM!</v>
+        <v>43252</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="94" t="s">
-        <v>40</v>
+        <v>441</v>
       </c>
       <c r="B8" s="98">
         <f>_xll.qlBondMaturityDate(A8)</f>
-        <v>42217</v>
+        <v>43435</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="94" t="s">
-        <v>30</v>
-      </c>
-      <c r="B9" s="98" t="e">
+        <v>445</v>
+      </c>
+      <c r="B9" s="98">
         <f>_xll.qlBondMaturityDate(A9)</f>
-        <v>#NUM!</v>
+        <v>43586</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="94" t="s">
-        <v>41</v>
-      </c>
-      <c r="B10" s="98" t="e">
+        <v>447</v>
+      </c>
+      <c r="B10" s="98">
         <f>_xll.qlBondMaturityDate(A10)</f>
-        <v>#NUM!</v>
+        <v>43678</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="94" t="s">
-        <v>43</v>
+        <v>452</v>
       </c>
       <c r="B11" s="98">
         <f>_xll.qlBondMaturityDate(A11)</f>
-        <v>43132</v>
+        <v>43800</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="94" t="s">
-        <v>44</v>
+        <v>456</v>
       </c>
       <c r="B12" s="98">
         <f>_xll.qlBondMaturityDate(A12)</f>
-        <v>43313</v>
+        <v>43952</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="94" t="s">
-        <v>51</v>
+        <v>443</v>
       </c>
       <c r="B13" s="98">
         <f>_xll.qlBondMaturityDate(A13)</f>
-        <v>43525</v>
+        <v>44317</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="94" t="s">
-        <v>52</v>
-      </c>
-      <c r="B14" s="98" t="e">
+        <v>448</v>
+      </c>
+      <c r="B14" s="98">
         <f>_xll.qlBondMaturityDate(A14)</f>
-        <v>#NUM!</v>
+        <v>44545</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="94" t="s">
-        <v>69</v>
+        <v>455</v>
       </c>
       <c r="B15" s="98">
         <f>_xll.qlBondMaturityDate(A15)</f>
-        <v>43891</v>
+        <v>44666</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="94" t="s">
-        <v>354</v>
-      </c>
-      <c r="B16" s="98" t="e">
+        <v>30</v>
+      </c>
+      <c r="B16" s="98">
         <f>_xll.qlBondMaturityDate(A16)</f>
-        <v>#NUM!</v>
+        <v>42583</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="94" t="s">
-        <v>409</v>
+        <v>41</v>
       </c>
       <c r="B17" s="98">
         <f>_xll.qlBondMaturityDate(A17)</f>
-        <v>44440</v>
+        <v>42767</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="94" t="s">
-        <v>423</v>
+        <v>43</v>
       </c>
       <c r="B18" s="98">
         <f>_xll.qlBondMaturityDate(A18)</f>
-        <v>44621</v>
+        <v>43132</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="94" t="s">
-        <v>430</v>
+        <v>44</v>
       </c>
       <c r="B19" s="98">
         <f>_xll.qlBondMaturityDate(A19)</f>
-        <v>44805</v>
+        <v>43313</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="94" t="s">
-        <v>431</v>
+        <v>51</v>
       </c>
       <c r="B20" s="98">
         <f>_xll.qlBondMaturityDate(A20)</f>
-        <v>44866</v>
+        <v>43525</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="94" t="s">
-        <v>42</v>
-      </c>
-      <c r="B21" s="98" t="e">
+        <v>52</v>
+      </c>
+      <c r="B21" s="98">
         <f>_xll.qlBondMaturityDate(A21)</f>
-        <v>#NUM!</v>
+        <v>43709</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="94" t="s">
-        <v>20</v>
-      </c>
-      <c r="B22" s="98" t="e">
+        <v>69</v>
+      </c>
+      <c r="B22" s="98">
         <f>_xll.qlBondMaturityDate(A22)</f>
-        <v>#NUM!</v>
+        <v>43891</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="94" t="s">
-        <v>23</v>
+        <v>351</v>
       </c>
       <c r="B23" s="98">
         <f>_xll.qlBondMaturityDate(A23)</f>
-        <v>43862</v>
+        <v>44075</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="94" t="s">
-        <v>45</v>
+        <v>354</v>
       </c>
       <c r="B24" s="98">
         <f>_xll.qlBondMaturityDate(A24)</f>
-        <v>44409</v>
+        <v>44256</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="94" t="s">
-        <v>423</v>
-      </c>
-      <c r="B25" s="98" t="e">
+        <v>409</v>
+      </c>
+      <c r="B25" s="98">
         <f>_xll.qlBondMaturityDate(A25)</f>
-        <v>#NUM!</v>
+        <v>44440</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="94" t="s">
-        <v>50</v>
+        <v>423</v>
       </c>
       <c r="B26" s="98">
         <f>_xll.qlBondMaturityDate(A26)</f>
-        <v>45139</v>
+        <v>44621</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="94" t="s">
-        <v>46</v>
-      </c>
-      <c r="B27" s="98" t="e">
+        <v>429</v>
+      </c>
+      <c r="B27" s="98">
         <f>_xll.qlBondMaturityDate(A27)</f>
-        <v>#NUM!</v>
+        <v>44805</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="94" t="s">
-        <v>410</v>
-      </c>
-      <c r="B28" s="98" t="e">
+        <v>430</v>
+      </c>
+      <c r="B28" s="98">
         <f>_xll.qlBondMaturityDate(A28)</f>
-        <v>#NUM!</v>
+        <v>44866</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="94" t="s">
-        <v>47</v>
-      </c>
-      <c r="B29" s="98" t="e">
+        <v>437</v>
+      </c>
+      <c r="B29" s="98">
         <f>_xll.qlBondMaturityDate(A29)</f>
-        <v>#NUM!</v>
+        <v>45047</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="94" t="s">
-        <v>31</v>
-      </c>
-      <c r="B30" s="98" t="e">
+        <v>440</v>
+      </c>
+      <c r="B30" s="98">
         <f>_xll.qlBondMaturityDate(A30)</f>
-        <v>#NUM!</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="94" t="s">
-        <v>28</v>
-      </c>
-      <c r="B31" s="98" t="e">
+        <v>446</v>
+      </c>
+      <c r="B31" s="98">
         <f>_xll.qlBondMaturityDate(A31)</f>
-        <v>#NUM!</v>
+        <v>45536</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="94" t="s">
-        <v>32</v>
+        <v>450</v>
       </c>
       <c r="B32" s="98">
         <f>_xll.qlBondMaturityDate(A32)</f>
-        <v>47969</v>
+        <v>45627</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="94" t="s">
-        <v>48</v>
+        <v>454</v>
       </c>
       <c r="B33" s="98">
         <f>_xll.qlBondMaturityDate(A33)</f>
-        <v>48611</v>
+        <v>45809</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="94" t="s">
-        <v>49</v>
-      </c>
-      <c r="B34" s="98" t="e">
+        <v>42</v>
+      </c>
+      <c r="B34" s="98">
         <f>_xll.qlBondMaturityDate(A34)</f>
-        <v>#NUM!</v>
+        <v>42948</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="94" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B35" s="98">
         <f>_xll.qlBondMaturityDate(A35)</f>
-        <v>50072</v>
+        <v>43497</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="94" t="s">
+        <v>23</v>
+      </c>
+      <c r="B36" s="98">
+        <f>_xll.qlBondMaturityDate(A36)</f>
+        <v>43862</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" s="94" t="s">
+        <v>45</v>
+      </c>
+      <c r="B37" s="98">
+        <f>_xll.qlBondMaturityDate(A37)</f>
+        <v>44409</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" s="94" t="s">
+        <v>50</v>
+      </c>
+      <c r="B38" s="98">
+        <f>_xll.qlBondMaturityDate(A38)</f>
+        <v>45139</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" s="94" t="s">
+        <v>70</v>
+      </c>
+      <c r="B39" s="98">
+        <f>_xll.qlBondMaturityDate(A39)</f>
+        <v>45717</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" s="94" t="s">
+        <v>438</v>
+      </c>
+      <c r="B40" s="98">
+        <f>_xll.qlBondMaturityDate(A40)</f>
+        <v>46997</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" s="94" t="s">
+        <v>449</v>
+      </c>
+      <c r="B41" s="98">
+        <f>_xll.qlBondMaturityDate(A41)</f>
+        <v>47543</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" s="94" t="s">
+        <v>458</v>
+      </c>
+      <c r="B42" s="98">
+        <f>_xll.qlBondMaturityDate(A42)</f>
+        <v>48274</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" s="94" t="s">
+        <v>46</v>
+      </c>
+      <c r="B43" s="98">
+        <f>_xll.qlBondMaturityDate(A43)</f>
+        <v>45231</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" s="94" t="s">
+        <v>410</v>
+      </c>
+      <c r="B44" s="98">
+        <f>_xll.qlBondMaturityDate(A44)</f>
+        <v>46082</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" s="94" t="s">
+        <v>47</v>
+      </c>
+      <c r="B45" s="98">
+        <f>_xll.qlBondMaturityDate(A45)</f>
+        <v>46327</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" s="94" t="s">
+        <v>31</v>
+      </c>
+      <c r="B46" s="98">
+        <f>_xll.qlBondMaturityDate(A46)</f>
+        <v>46692</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" s="94" t="s">
+        <v>28</v>
+      </c>
+      <c r="B47" s="98">
+        <f>_xll.qlBondMaturityDate(A47)</f>
+        <v>47423</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" s="94" t="s">
+        <v>32</v>
+      </c>
+      <c r="B48" s="98">
+        <f>_xll.qlBondMaturityDate(A48)</f>
+        <v>47969</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" s="94" t="s">
+        <v>48</v>
+      </c>
+      <c r="B49" s="98">
+        <f>_xll.qlBondMaturityDate(A49)</f>
+        <v>48611</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" s="94" t="s">
+        <v>49</v>
+      </c>
+      <c r="B50" s="98">
+        <f>_xll.qlBondMaturityDate(A50)</f>
+        <v>49157</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" s="94" t="s">
+        <v>15</v>
+      </c>
+      <c r="B51" s="98">
+        <f>_xll.qlBondMaturityDate(A51)</f>
+        <v>50072</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" s="94" t="s">
         <v>29</v>
       </c>
-      <c r="B36" s="98" t="e">
-        <f>_xll.qlBondMaturityDate(A36)</f>
+      <c r="B52" s="98">
+        <f>_xll.qlBondMaturityDate(A52)</f>
+        <v>50983</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" s="94" t="s">
+        <v>71</v>
+      </c>
+      <c r="B53" s="98">
+        <f>_xll.qlBondMaturityDate(A53)</f>
+        <v>51380</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54" s="94" t="s">
+        <v>439</v>
+      </c>
+      <c r="B54" s="98">
+        <f>_xll.qlBondMaturityDate(A54)</f>
+        <v>52841</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55" s="94" t="s">
+        <v>453</v>
+      </c>
+      <c r="B55" s="98">
+        <f>_xll.qlBondMaturityDate(A55)</f>
+        <v>53571</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56" s="94" t="s">
+        <v>412</v>
+      </c>
+      <c r="B56" s="98" t="e">
+        <f>_xll.qlBondMaturityDate(A56)</f>
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37" s="95" t="s">
-        <v>71</v>
-      </c>
-      <c r="B37" s="98" t="e">
-        <f>_xll.qlBondMaturityDate(A37)</f>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57" s="94" t="s">
+        <v>184</v>
+      </c>
+      <c r="B57" s="98" t="e">
+        <f>_xll.qlBondMaturityDate(A57)</f>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58" s="94" t="s">
+        <v>469</v>
+      </c>
+      <c r="B58" s="98" t="e">
+        <f>_xll.qlBondMaturityDate(A58)</f>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59" s="94" t="s">
+        <v>185</v>
+      </c>
+      <c r="B59" s="98" t="e">
+        <f>_xll.qlBondMaturityDate(A59)</f>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60" s="94" t="s">
+        <v>411</v>
+      </c>
+      <c r="B60" s="98" t="e">
+        <f>_xll.qlBondMaturityDate(A60)</f>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A61" s="94" t="s">
+        <v>186</v>
+      </c>
+      <c r="B61" s="98" t="e">
+        <f>_xll.qlBondMaturityDate(A61)</f>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A62" s="94" t="s">
+        <v>470</v>
+      </c>
+      <c r="B62" s="98" t="e">
+        <f>_xll.qlBondMaturityDate(A62)</f>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A63" s="94" t="s">
+        <v>413</v>
+      </c>
+      <c r="B63" s="98" t="e">
+        <f>_xll.qlBondMaturityDate(A63)</f>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A64" s="94" t="s">
+        <v>187</v>
+      </c>
+      <c r="B64" s="98" t="e">
+        <f>_xll.qlBondMaturityDate(A64)</f>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A65" s="95" t="s">
+        <v>188</v>
+      </c>
+      <c r="B65" s="98" t="e">
+        <f>_xll.qlBondMaturityDate(A65)</f>
         <v>#NUM!</v>
       </c>
     </row>
@@ -13869,7 +14777,7 @@
   <dimension ref="A1:Q89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -14108,7 +15016,7 @@
       </c>
       <c r="M8" s="31" t="str">
         <f>_xll.qlZeroCouponBond(B8,L8,D8,E8,F8,G8,H8,I8,J8,K8,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0003106389#0000</v>
+        <v>IT0003106389#0001</v>
       </c>
       <c r="N8" s="22"/>
       <c r="O8" s="48" t="str">
@@ -14116,8 +15024,8 @@
         <v>IT0003106595</v>
       </c>
       <c r="P8" s="48" t="str">
-        <f>_xll.qlBondMaturityLookup("StrippableBTPs",$H8,BTP!$J$106)</f>
-        <v>IT0003080402</v>
+        <f>_xll.qlBondMaturityLookup("StrippableBTPs",$H8,BTP!$J$109)</f>
+        <v/>
       </c>
       <c r="Q8" s="23"/>
     </row>
@@ -14159,7 +15067,7 @@
       </c>
       <c r="M9" s="31" t="str">
         <f>_xll.qlZeroCouponBond(B9,L9,D9,E9,F9,G9,H9,I9,J9,K9,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0003204903#0000</v>
+        <v>IT0003204903#0001</v>
       </c>
       <c r="N9" s="22"/>
       <c r="O9" s="48" t="str">
@@ -14167,8 +15075,8 @@
         <v>IT0003204945</v>
       </c>
       <c r="P9" s="48" t="str">
-        <f>_xll.qlBondMaturityLookup("StrippableBTPs",$H9,BTP!$J$106)</f>
-        <v>IT0003190912</v>
+        <f>_xll.qlBondMaturityLookup("StrippableBTPs",$H9,BTP!$J$109)</f>
+        <v/>
       </c>
       <c r="Q9" s="23"/>
     </row>
@@ -14210,7 +15118,7 @@
       </c>
       <c r="M10" s="31" t="str">
         <f>_xll.qlZeroCouponBond(B10,L10,D10,E10,F10,G10,H10,I10,J10,K10,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0003398333#0000</v>
+        <v>IT0003398333#0001</v>
       </c>
       <c r="N10" s="22"/>
       <c r="O10" s="48" t="str">
@@ -14218,8 +15126,8 @@
         <v>IT0003246391</v>
       </c>
       <c r="P10" s="48" t="str">
-        <f>_xll.qlBondMaturityLookup("StrippableBTPs",$H10,BTP!$J$106)</f>
-        <v>IT0003357982</v>
+        <f>_xll.qlBondMaturityLookup("StrippableBTPs",$H10,BTP!$J$109)</f>
+        <v/>
       </c>
       <c r="Q10" s="23"/>
     </row>
@@ -14261,7 +15169,7 @@
       </c>
       <c r="M11" s="31" t="str">
         <f>_xll.qlZeroCouponBond(B11,L11,D11,E11,F11,G11,H11,I11,J11,K11,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0003474951#0000</v>
+        <v>IT0003474951#0001</v>
       </c>
       <c r="N11" s="22"/>
       <c r="O11" s="48" t="str">
@@ -14269,8 +15177,8 @@
         <v>IT0003246383</v>
       </c>
       <c r="P11" s="48" t="str">
-        <f>_xll.qlBondMaturityLookup("StrippableBTPs",$H11,BTP!$J$106)</f>
-        <v>IT0003472336</v>
+        <f>_xll.qlBondMaturityLookup("StrippableBTPs",$H11,BTP!$J$109)</f>
+        <v/>
       </c>
       <c r="Q11" s="23"/>
     </row>
@@ -14312,7 +15220,7 @@
       </c>
       <c r="M12" s="31" t="str">
         <f>_xll.qlZeroCouponBond(B12,L12,D12,E12,F12,G12,H12,I12,J12,K12,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0003631238#0000</v>
+        <v>IT0003631238#0001</v>
       </c>
       <c r="N12" s="22"/>
       <c r="O12" s="48" t="str">
@@ -14320,8 +15228,8 @@
         <v>IT0003246359</v>
       </c>
       <c r="P12" s="48" t="str">
-        <f>_xll.qlBondMaturityLookup("StrippableBTPs",$H12,BTP!$J$106)</f>
-        <v>IT0003618383</v>
+        <f>_xll.qlBondMaturityLookup("StrippableBTPs",$H12,BTP!$J$109)</f>
+        <v/>
       </c>
       <c r="Q12" s="23"/>
     </row>
@@ -14363,7 +15271,7 @@
       </c>
       <c r="M13" s="31" t="str">
         <f>_xll.qlZeroCouponBond(B13,L13,D13,E13,F13,G13,H13,I13,J13,K13,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0003725261#0000</v>
+        <v>IT0003725261#0001</v>
       </c>
       <c r="N13" s="22"/>
       <c r="O13" s="48" t="str">
@@ -14371,8 +15279,8 @@
         <v>IT0003246342</v>
       </c>
       <c r="P13" s="48" t="str">
-        <f>_xll.qlBondMaturityLookup("StrippableBTPs",$H13,BTP!$J$106)</f>
-        <v>IT0003719918</v>
+        <f>_xll.qlBondMaturityLookup("StrippableBTPs",$H13,BTP!$J$109)</f>
+        <v/>
       </c>
       <c r="Q13" s="23"/>
     </row>
@@ -14414,7 +15322,7 @@
       </c>
       <c r="M14" s="31" t="str">
         <f>_xll.qlZeroCouponBond(B14,L14,D14,E14,F14,G14,H14,I14,J14,K14,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0003850374#0000</v>
+        <v>IT0003850374#0001</v>
       </c>
       <c r="N14" s="22"/>
       <c r="O14" s="48" t="str">
@@ -14422,8 +15330,8 @@
         <v>IT0003246326</v>
       </c>
       <c r="P14" s="48" t="str">
-        <f>_xll.qlBondMaturityLookup("StrippableBTPs",$H14,BTP!$J$106)</f>
-        <v>IT0003844534</v>
+        <f>_xll.qlBondMaturityLookup("StrippableBTPs",$H14,BTP!$J$109)</f>
+        <v/>
       </c>
       <c r="Q14" s="23"/>
     </row>
@@ -14465,7 +15373,7 @@
       </c>
       <c r="M15" s="31" t="str">
         <f>_xll.qlZeroCouponBond(B15,L15,D15,E15,F15,G15,H15,I15,J15,K15,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0004038318#0000</v>
+        <v>IT0004038318#0001</v>
       </c>
       <c r="N15" s="22"/>
       <c r="O15" s="48" t="str">
@@ -14473,7 +15381,7 @@
         <v>IT0003246292</v>
       </c>
       <c r="P15" s="48" t="str">
-        <f>_xll.qlBondMaturityLookup("StrippableBTPs",$H15,BTP!$J$106)</f>
+        <f>_xll.qlBondMaturityLookup("StrippableBTPs",$H15,BTP!$J$109)</f>
         <v>IT0004019581</v>
       </c>
       <c r="Q15" s="23"/>
@@ -14516,7 +15424,7 @@
       </c>
       <c r="M16" s="31" t="str">
         <f>_xll.qlZeroCouponBond(B16,L16,D16,E16,F16,G16,H16,I16,J16,K16,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0004276322#0000</v>
+        <v>IT0004276322#0001</v>
       </c>
       <c r="N16" s="22"/>
       <c r="O16" s="48" t="str">
@@ -14524,7 +15432,7 @@
         <v>IT0003246284</v>
       </c>
       <c r="P16" s="48" t="str">
-        <f>_xll.qlBondMaturityLookup("StrippableBTPs",$H16,BTP!$J$106)</f>
+        <f>_xll.qlBondMaturityLookup("StrippableBTPs",$H16,BTP!$J$109)</f>
         <v>IT0004164775</v>
       </c>
       <c r="Q16" s="23"/>
@@ -14567,7 +15475,7 @@
       </c>
       <c r="M17" s="31" t="str">
         <f>_xll.qlZeroCouponBond(B17,L17,D17,E17,F17,G17,H17,I17,J17,K17,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0003246250#0000</v>
+        <v>IT0003246250#0001</v>
       </c>
       <c r="N17" s="22"/>
       <c r="O17" s="48" t="str">
@@ -14575,7 +15483,7 @@
         <v>IT0003246268</v>
       </c>
       <c r="P17" s="48" t="str">
-        <f>_xll.qlBondMaturityLookup("StrippableBTPs",$H17,BTP!$J$106)</f>
+        <f>_xll.qlBondMaturityLookup("StrippableBTPs",$H17,BTP!$J$109)</f>
         <v>IT0003242747</v>
       </c>
       <c r="Q17" s="23"/>
@@ -14618,7 +15526,7 @@
       </c>
       <c r="M18" s="31" t="str">
         <f>_xll.qlZeroCouponBond(B18,L18,D18,E18,F18,G18,H18,I18,J18,K18,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0004275811#0000</v>
+        <v>IT0004275811#0001</v>
       </c>
       <c r="N18" s="22"/>
       <c r="O18" s="48" t="str">
@@ -14626,7 +15534,7 @@
         <v>IT0003268486</v>
       </c>
       <c r="P18" s="48" t="str">
-        <f>_xll.qlBondMaturityLookup("StrippableBTPs",$H18,BTP!$J$106)</f>
+        <f>_xll.qlBondMaturityLookup("StrippableBTPs",$H18,BTP!$J$109)</f>
         <v>IT0004273493</v>
       </c>
       <c r="Q18" s="23"/>
@@ -14669,7 +15577,7 @@
       </c>
       <c r="M19" s="31" t="str">
         <f>_xll.qlZeroCouponBond(B19,L19,D19,E19,F19,G19,H19,I19,J19,K19,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0004363450#0000</v>
+        <v>IT0004363450#0001</v>
       </c>
       <c r="N19" s="22"/>
       <c r="O19" s="48" t="str">
@@ -14677,7 +15585,7 @@
         <v>IT0003268494</v>
       </c>
       <c r="P19" s="48" t="str">
-        <f>_xll.qlBondMaturityLookup("StrippableBTPs",$H19,BTP!$J$106)</f>
+        <f>_xll.qlBondMaturityLookup("StrippableBTPs",$H19,BTP!$J$109)</f>
         <v>IT0004361041</v>
       </c>
       <c r="Q19" s="23"/>
@@ -14720,7 +15628,7 @@
       </c>
       <c r="M20" s="31" t="str">
         <f>_xll.qlZeroCouponBond(B20,L20,D20,E20,F20,G20,H20,I20,J20,K20,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0003513105#0000</v>
+        <v>IT0003513105#0001</v>
       </c>
       <c r="N20" s="22"/>
       <c r="O20" s="48" t="str">
@@ -14728,7 +15636,7 @@
         <v>IT0003268544</v>
       </c>
       <c r="P20" s="48" t="str">
-        <f>_xll.qlBondMaturityLookup("StrippableBTPs",$H20,BTP!$J$106)</f>
+        <f>_xll.qlBondMaturityLookup("StrippableBTPs",$H20,BTP!$J$109)</f>
         <v>IT0003493258</v>
       </c>
       <c r="Q20" s="23"/>
@@ -14771,7 +15679,7 @@
       </c>
       <c r="M21" s="31" t="str">
         <f>_xll.qlZeroCouponBond(B21,L21,D21,E21,F21,G21,H21,I21,J21,K21,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0003649172#0000</v>
+        <v>IT0003649172#0001</v>
       </c>
       <c r="N21" s="22"/>
       <c r="O21" s="48" t="str">
@@ -14779,7 +15687,7 @@
         <v>IT0003268601</v>
       </c>
       <c r="P21" s="48" t="str">
-        <f>_xll.qlBondMaturityLookup("StrippableBTPs",$H21,BTP!$J$106)</f>
+        <f>_xll.qlBondMaturityLookup("StrippableBTPs",$H21,BTP!$J$109)</f>
         <v>IT0003644769</v>
       </c>
       <c r="Q21" s="23"/>
@@ -14822,7 +15730,7 @@
       </c>
       <c r="M22" s="31" t="str">
         <f>_xll.qlZeroCouponBond(B22,L22,D22,E22,F22,G22,H22,I22,J22,K22,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0004014061#0000</v>
+        <v>IT0004014061#0001</v>
       </c>
       <c r="N22" s="22"/>
       <c r="O22" s="48" t="str">
@@ -14830,7 +15738,7 @@
         <v>IT0003268700</v>
       </c>
       <c r="P22" s="48" t="str">
-        <f>_xll.qlBondMaturityLookup("StrippableBTPs",$H22,BTP!$J$106)</f>
+        <f>_xll.qlBondMaturityLookup("StrippableBTPs",$H22,BTP!$J$109)</f>
         <v>IT0004009673</v>
       </c>
       <c r="Q22" s="23"/>
@@ -14873,7 +15781,7 @@
       </c>
       <c r="M23" s="31" t="str">
         <f>_xll.qlZeroCouponBond(B23,L23,D23,E23,F23,G23,H23,I23,J23,K23,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0004359029#0000</v>
+        <v>IT0004359029#0001</v>
       </c>
       <c r="N23" s="22"/>
       <c r="O23" s="48" t="str">
@@ -14881,7 +15789,7 @@
         <v>IT0003268791</v>
       </c>
       <c r="P23" s="48" t="str">
-        <f>_xll.qlBondMaturityLookup("StrippableBTPs",$H23,BTP!$J$106)</f>
+        <f>_xll.qlBondMaturityLookup("StrippableBTPs",$H23,BTP!$J$109)</f>
         <v>IT0004356843</v>
       </c>
       <c r="Q23" s="23"/>
@@ -14924,7 +15832,7 @@
       </c>
       <c r="M24" s="31" t="str">
         <f>_xll.qlZeroCouponBond(B24,L24,D24,E24,F24,G24,H24,I24,J24,K24,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0003268460#0000</v>
+        <v>IT0003268460#0001</v>
       </c>
       <c r="N24" s="22"/>
       <c r="O24" s="48" t="str">
@@ -14932,7 +15840,7 @@
         <v>IT0003269062</v>
       </c>
       <c r="P24" s="48" t="str">
-        <f>_xll.qlBondMaturityLookup("StrippableBTPs",$H24,BTP!$J$106)</f>
+        <f>_xll.qlBondMaturityLookup("StrippableBTPs",$H24,BTP!$J$109)</f>
         <v>IT0003256820</v>
       </c>
       <c r="Q24" s="23"/>
@@ -14975,7 +15883,7 @@
       </c>
       <c r="M25" s="31" t="str">
         <f>_xll.qlZeroCouponBond(B25,L25,D25,E25,F25,G25,H25,I25,J25,K25,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0003540371#0000</v>
+        <v>IT0003540371#0001</v>
       </c>
       <c r="N25" s="22"/>
       <c r="O25" s="48" t="str">
@@ -14983,7 +15891,7 @@
         <v>IT0003540405</v>
       </c>
       <c r="P25" s="48" t="str">
-        <f>_xll.qlBondMaturityLookup("StrippableBTPs",$H25,BTP!$J$106)</f>
+        <f>_xll.qlBondMaturityLookup("StrippableBTPs",$H25,BTP!$J$109)</f>
         <v>IT0003535157</v>
       </c>
       <c r="Q25" s="23"/>
@@ -15026,7 +15934,7 @@
       </c>
       <c r="M26" s="31" t="str">
         <f>_xll.qlZeroCouponBond(B26,L26,D26,E26,F26,G26,H26,I26,J26,K26,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0004002801#0000</v>
+        <v>IT0004002801#0001</v>
       </c>
       <c r="N26" s="22"/>
       <c r="O26" s="48" t="str">
@@ -15034,7 +15942,7 @@
         <v>IT0004002850</v>
       </c>
       <c r="P26" s="48" t="str">
-        <f>_xll.qlBondMaturityLookup("StrippableBTPs",$H26,BTP!$J$106)</f>
+        <f>_xll.qlBondMaturityLookup("StrippableBTPs",$H26,BTP!$J$109)</f>
         <v>IT0003934657</v>
       </c>
       <c r="Q26" s="23"/>
@@ -15077,7 +15985,7 @@
       </c>
       <c r="M27" s="31" t="str">
         <f>_xll.qlZeroCouponBond(B27,L27,D27,E27,F27,G27,H27,I27,J27,K27,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0004288574#0000</v>
+        <v>IT0004288574#0001</v>
       </c>
       <c r="N27" s="22"/>
       <c r="O27" s="48" t="str">
@@ -15085,7 +15993,7 @@
         <v>IT0004288640</v>
       </c>
       <c r="P27" s="48" t="str">
-        <f>_xll.qlBondMaturityLookup("StrippableBTPs",$H27,BTP!$J$106)</f>
+        <f>_xll.qlBondMaturityLookup("StrippableBTPs",$H27,BTP!$J$109)</f>
         <v>IT0004286966</v>
       </c>
       <c r="Q27" s="23"/>
@@ -15105,7 +16013,7 @@
       <c r="L28" s="22"/>
       <c r="M28" s="22" t="str">
         <f>_xll.ohGroup("ResiduesFebAug",M8:M27,Permanent,,ObjectOverwrite)</f>
-        <v>ResiduesFebAug#0000</v>
+        <v>ResiduesFebAug#0001</v>
       </c>
       <c r="N28" s="22"/>
       <c r="O28" s="49"/>
@@ -15150,7 +16058,7 @@
       </c>
       <c r="M29" s="31" t="str">
         <f>_xll.qlZeroCouponBond(B29,L29,D29,E29,F29,G29,H29,I29,J29,K29,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0003106561#0000</v>
+        <v>IT0003106561#0001</v>
       </c>
       <c r="N29" s="22"/>
       <c r="O29" s="22"/>
@@ -15195,7 +16103,7 @@
       </c>
       <c r="M30" s="31" t="str">
         <f>_xll.qlZeroCouponBond(B30,L30,D30,E30,F30,G30,H30,I30,J30,K30,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0003106579#0000</v>
+        <v>IT0003106579#0001</v>
       </c>
       <c r="N30" s="22"/>
       <c r="O30" s="22"/>
@@ -15240,7 +16148,7 @@
       </c>
       <c r="M31" s="31" t="str">
         <f>_xll.qlZeroCouponBond(B31,L31,D31,E31,F31,G31,H31,I31,J31,K31,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0003106587#0000</v>
+        <v>IT0003106587#0001</v>
       </c>
       <c r="N31" s="22"/>
       <c r="O31" s="22"/>
@@ -15285,7 +16193,7 @@
       </c>
       <c r="M32" s="31" t="str">
         <f>_xll.qlZeroCouponBond(B32,L32,D32,E32,F32,G32,H32,I32,J32,K32,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0003106595#0000</v>
+        <v>IT0003106595#0001</v>
       </c>
       <c r="N32" s="22"/>
       <c r="O32" s="22"/>
@@ -15330,7 +16238,7 @@
       </c>
       <c r="M33" s="31" t="str">
         <f>_xll.qlZeroCouponBond(B33,L33,D33,E33,F33,G33,H33,I33,J33,K33,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0003204945#0000</v>
+        <v>IT0003204945#0001</v>
       </c>
       <c r="N33" s="22"/>
       <c r="O33" s="22"/>
@@ -15375,7 +16283,7 @@
       </c>
       <c r="M34" s="31" t="str">
         <f>_xll.qlZeroCouponBond(B34,L34,D34,E34,F34,G34,H34,I34,J34,K34,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0003246409#0000</v>
+        <v>IT0003246409#0001</v>
       </c>
       <c r="N34" s="22"/>
       <c r="O34" s="22"/>
@@ -15420,7 +16328,7 @@
       </c>
       <c r="M35" s="31" t="str">
         <f>_xll.qlZeroCouponBond(B35,L35,D35,E35,F35,G35,H35,I35,J35,K35,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0003246391#0000</v>
+        <v>IT0003246391#0001</v>
       </c>
       <c r="N35" s="22"/>
       <c r="O35" s="22"/>
@@ -15465,7 +16373,7 @@
       </c>
       <c r="M36" s="31" t="str">
         <f>_xll.qlZeroCouponBond(B36,L36,D36,E36,F36,G36,H36,I36,J36,K36,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0003246383#0000</v>
+        <v>IT0003246383#0001</v>
       </c>
       <c r="N36" s="22"/>
       <c r="O36" s="22"/>
@@ -15510,7 +16418,7 @@
       </c>
       <c r="M37" s="31" t="str">
         <f>_xll.qlZeroCouponBond(B37,L37,D37,E37,F37,G37,H37,I37,J37,K37,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0003246375#0000</v>
+        <v>IT0003246375#0001</v>
       </c>
       <c r="N37" s="22"/>
       <c r="O37" s="22"/>
@@ -15555,7 +16463,7 @@
       </c>
       <c r="M38" s="31" t="str">
         <f>_xll.qlZeroCouponBond(B38,L38,D38,E38,F38,G38,H38,I38,J38,K38,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0003246359#0000</v>
+        <v>IT0003246359#0001</v>
       </c>
       <c r="N38" s="22"/>
       <c r="O38" s="22"/>
@@ -15600,7 +16508,7 @@
       </c>
       <c r="M39" s="31" t="str">
         <f>_xll.qlZeroCouponBond(B39,L39,D39,E39,F39,G39,H39,I39,J39,K39,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0003246342#0000</v>
+        <v>IT0003246342#0001</v>
       </c>
       <c r="N39" s="22"/>
       <c r="O39" s="22"/>
@@ -15645,7 +16553,7 @@
       </c>
       <c r="M40" s="31" t="str">
         <f>_xll.qlZeroCouponBond(B40,L40,D40,E40,F40,G40,H40,I40,J40,K40,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0003246326#0000</v>
+        <v>IT0003246326#0001</v>
       </c>
       <c r="N40" s="22"/>
       <c r="O40" s="22"/>
@@ -15690,7 +16598,7 @@
       </c>
       <c r="M41" s="31" t="str">
         <f>_xll.qlZeroCouponBond(B41,L41,D41,E41,F41,G41,H41,I41,J41,K41,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0003246318#0000</v>
+        <v>IT0003246318#0001</v>
       </c>
       <c r="N41" s="22"/>
       <c r="O41" s="22"/>
@@ -15735,7 +16643,7 @@
       </c>
       <c r="M42" s="31" t="str">
         <f>_xll.qlZeroCouponBond(B42,L42,D42,E42,F42,G42,H42,I42,J42,K42,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0003246292#0000</v>
+        <v>IT0003246292#0001</v>
       </c>
       <c r="N42" s="22"/>
       <c r="O42" s="22"/>
@@ -15780,7 +16688,7 @@
       </c>
       <c r="M43" s="31" t="str">
         <f>_xll.qlZeroCouponBond(B43,L43,D43,E43,F43,G43,H43,I43,J43,K43,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0003246284#0000</v>
+        <v>IT0003246284#0001</v>
       </c>
       <c r="N43" s="22"/>
       <c r="O43" s="22"/>
@@ -15825,7 +16733,7 @@
       </c>
       <c r="M44" s="31" t="str">
         <f>_xll.qlZeroCouponBond(B44,L44,D44,E44,F44,G44,H44,I44,J44,K44,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0003246268#0000</v>
+        <v>IT0003246268#0001</v>
       </c>
       <c r="N44" s="22"/>
       <c r="O44" s="22"/>
@@ -15870,7 +16778,7 @@
       </c>
       <c r="M45" s="31" t="str">
         <f>_xll.qlZeroCouponBond(B45,L45,D45,E45,F45,G45,H45,I45,J45,K45,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0003268486#0000</v>
+        <v>IT0003268486#0001</v>
       </c>
       <c r="N45" s="22"/>
       <c r="O45" s="22"/>
@@ -15915,7 +16823,7 @@
       </c>
       <c r="M46" s="31" t="str">
         <f>_xll.qlZeroCouponBond(B46,L46,D46,E46,F46,G46,H46,I46,J46,K46,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0003268494#0000</v>
+        <v>IT0003268494#0001</v>
       </c>
       <c r="N46" s="22"/>
       <c r="O46" s="22"/>
@@ -15960,7 +16868,7 @@
       </c>
       <c r="M47" s="31" t="str">
         <f>_xll.qlZeroCouponBond(B47,L47,D47,E47,F47,G47,H47,I47,J47,K47,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0003268544#0000</v>
+        <v>IT0003268544#0001</v>
       </c>
       <c r="N47" s="22"/>
       <c r="O47" s="22"/>
@@ -16005,7 +16913,7 @@
       </c>
       <c r="M48" s="31" t="str">
         <f>_xll.qlZeroCouponBond(B48,L48,D48,E48,F48,G48,H48,I48,J48,K48,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0003268585#0000</v>
+        <v>IT0003268585#0001</v>
       </c>
       <c r="N48" s="22"/>
       <c r="O48" s="22"/>
@@ -16050,7 +16958,7 @@
       </c>
       <c r="M49" s="31" t="str">
         <f>_xll.qlZeroCouponBond(B49,L49,D49,E49,F49,G49,H49,I49,J49,K49,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0003268601#0000</v>
+        <v>IT0003268601#0001</v>
       </c>
       <c r="N49" s="22"/>
       <c r="O49" s="22"/>
@@ -16095,7 +17003,7 @@
       </c>
       <c r="M50" s="31" t="str">
         <f>_xll.qlZeroCouponBond(B50,L50,D50,E50,F50,G50,H50,I50,J50,K50,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0003268635#0000</v>
+        <v>IT0003268635#0001</v>
       </c>
       <c r="N50" s="22"/>
       <c r="O50" s="22"/>
@@ -16140,7 +17048,7 @@
       </c>
       <c r="M51" s="31" t="str">
         <f>_xll.qlZeroCouponBond(B51,L51,D51,E51,F51,G51,H51,I51,J51,K51,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0003268676#0000</v>
+        <v>IT0003268676#0001</v>
       </c>
       <c r="N51" s="22"/>
       <c r="O51" s="22"/>
@@ -16185,7 +17093,7 @@
       </c>
       <c r="M52" s="31" t="str">
         <f>_xll.qlZeroCouponBond(B52,L52,D52,E52,F52,G52,H52,I52,J52,K52,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0003268700#0000</v>
+        <v>IT0003268700#0001</v>
       </c>
       <c r="N52" s="22"/>
       <c r="O52" s="22"/>
@@ -16230,7 +17138,7 @@
       </c>
       <c r="M53" s="31" t="str">
         <f>_xll.qlZeroCouponBond(B53,L53,D53,E53,F53,G53,H53,I53,J53,K53,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0003268726#0000</v>
+        <v>IT0003268726#0001</v>
       </c>
       <c r="N53" s="22"/>
       <c r="O53" s="22"/>
@@ -16275,7 +17183,7 @@
       </c>
       <c r="M54" s="31" t="str">
         <f>_xll.qlZeroCouponBond(B54,L54,D54,E54,F54,G54,H54,I54,J54,K54,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0003268742#0000</v>
+        <v>IT0003268742#0001</v>
       </c>
       <c r="N54" s="22"/>
       <c r="O54" s="22"/>
@@ -16320,7 +17228,7 @@
       </c>
       <c r="M55" s="31" t="str">
         <f>_xll.qlZeroCouponBond(B55,L55,D55,E55,F55,G55,H55,I55,J55,K55,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0003268775#0000</v>
+        <v>IT0003268775#0001</v>
       </c>
       <c r="N55" s="22"/>
       <c r="O55" s="22"/>
@@ -16365,7 +17273,7 @@
       </c>
       <c r="M56" s="31" t="str">
         <f>_xll.qlZeroCouponBond(B56,L56,D56,E56,F56,G56,H56,I56,J56,K56,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0003268791#0000</v>
+        <v>IT0003268791#0001</v>
       </c>
       <c r="N56" s="22"/>
       <c r="O56" s="22"/>
@@ -16410,7 +17318,7 @@
       </c>
       <c r="M57" s="31" t="str">
         <f>_xll.qlZeroCouponBond(B57,L57,D57,E57,F57,G57,H57,I57,J57,K57,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0003268809#0000</v>
+        <v>IT0003268809#0001</v>
       </c>
       <c r="N57" s="22"/>
       <c r="O57" s="22"/>
@@ -16455,7 +17363,7 @@
       </c>
       <c r="M58" s="31" t="str">
         <f>_xll.qlZeroCouponBond(B58,L58,D58,E58,F58,G58,H58,I58,J58,K58,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0003268817#0000</v>
+        <v>IT0003268817#0001</v>
       </c>
       <c r="N58" s="22"/>
       <c r="O58" s="22"/>
@@ -16500,7 +17408,7 @@
       </c>
       <c r="M59" s="31" t="str">
         <f>_xll.qlZeroCouponBond(B59,L59,D59,E59,F59,G59,H59,I59,J59,K59,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0003268825#0000</v>
+        <v>IT0003268825#0001</v>
       </c>
       <c r="N59" s="22"/>
       <c r="O59" s="22"/>
@@ -16545,7 +17453,7 @@
       </c>
       <c r="M60" s="31" t="str">
         <f>_xll.qlZeroCouponBond(B60,L60,D60,E60,F60,G60,H60,I60,J60,K60,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0003268833#0000</v>
+        <v>IT0003268833#0001</v>
       </c>
       <c r="N60" s="22"/>
       <c r="O60" s="22"/>
@@ -16590,7 +17498,7 @@
       </c>
       <c r="M61" s="31" t="str">
         <f>_xll.qlZeroCouponBond(B61,L61,D61,E61,F61,G61,H61,I61,J61,K61,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0003268841#0000</v>
+        <v>IT0003268841#0001</v>
       </c>
       <c r="N61" s="22"/>
       <c r="O61" s="22"/>
@@ -16635,7 +17543,7 @@
       </c>
       <c r="M62" s="31" t="str">
         <f>_xll.qlZeroCouponBond(B62,L62,D62,E62,F62,G62,H62,I62,J62,K62,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0003268858#0000</v>
+        <v>IT0003268858#0001</v>
       </c>
       <c r="N62" s="22"/>
       <c r="O62" s="22"/>
@@ -16680,7 +17588,7 @@
       </c>
       <c r="M63" s="31" t="str">
         <f>_xll.qlZeroCouponBond(B63,L63,D63,E63,F63,G63,H63,I63,J63,K63,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0003268874#0000</v>
+        <v>IT0003268874#0001</v>
       </c>
       <c r="N63" s="22"/>
       <c r="O63" s="22"/>
@@ -16725,7 +17633,7 @@
       </c>
       <c r="M64" s="31" t="str">
         <f>_xll.qlZeroCouponBond(B64,L64,D64,E64,F64,G64,H64,I64,J64,K64,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0003268882#0000</v>
+        <v>IT0003268882#0001</v>
       </c>
       <c r="N64" s="22"/>
       <c r="O64" s="22"/>
@@ -16770,7 +17678,7 @@
       </c>
       <c r="M65" s="31" t="str">
         <f>_xll.qlZeroCouponBond(B65,L65,D65,E65,F65,G65,H65,I65,J65,K65,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0003268890#0000</v>
+        <v>IT0003268890#0001</v>
       </c>
       <c r="N65" s="22"/>
       <c r="O65" s="22"/>
@@ -16815,7 +17723,7 @@
       </c>
       <c r="M66" s="31" t="str">
         <f>_xll.qlZeroCouponBond(B66,L66,D66,E66,F66,G66,H66,I66,J66,K66,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0003268908#0000</v>
+        <v>IT0003268908#0001</v>
       </c>
       <c r="N66" s="22"/>
       <c r="O66" s="22"/>
@@ -16860,7 +17768,7 @@
       </c>
       <c r="M67" s="31" t="str">
         <f>_xll.qlZeroCouponBond(B67,L67,D67,E67,F67,G67,H67,I67,J67,K67,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0003268924#0000</v>
+        <v>IT0003268924#0001</v>
       </c>
       <c r="N67" s="22"/>
       <c r="O67" s="22"/>
@@ -16905,7 +17813,7 @@
       </c>
       <c r="M68" s="31" t="str">
         <f>_xll.qlZeroCouponBond(B68,L68,D68,E68,F68,G68,H68,I68,J68,K68,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0003268932#0000</v>
+        <v>IT0003268932#0001</v>
       </c>
       <c r="N68" s="22"/>
       <c r="O68" s="22"/>
@@ -16950,7 +17858,7 @@
       </c>
       <c r="M69" s="31" t="str">
         <f>_xll.qlZeroCouponBond(B69,L69,D69,E69,F69,G69,H69,I69,J69,K69,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0003268957#0000</v>
+        <v>IT0003268957#0001</v>
       </c>
       <c r="N69" s="22"/>
       <c r="O69" s="22"/>
@@ -16995,7 +17903,7 @@
       </c>
       <c r="M70" s="31" t="str">
         <f>_xll.qlZeroCouponBond(B70,L70,D70,E70,F70,G70,H70,I70,J70,K70,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0003268973#0000</v>
+        <v>IT0003268973#0001</v>
       </c>
       <c r="N70" s="22"/>
       <c r="O70" s="22"/>
@@ -17040,7 +17948,7 @@
       </c>
       <c r="M71" s="31" t="str">
         <f>_xll.qlZeroCouponBond(B71,L71,D71,E71,F71,G71,H71,I71,J71,K71,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0003268999#0000</v>
+        <v>IT0003268999#0001</v>
       </c>
       <c r="N71" s="22"/>
       <c r="O71" s="22"/>
@@ -17085,7 +17993,7 @@
       </c>
       <c r="M72" s="31" t="str">
         <f>_xll.qlZeroCouponBond(B72,L72,D72,E72,F72,G72,H72,I72,J72,K72,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0003269013#0000</v>
+        <v>IT0003269013#0001</v>
       </c>
       <c r="N72" s="22"/>
       <c r="O72" s="22"/>
@@ -17130,7 +18038,7 @@
       </c>
       <c r="M73" s="31" t="str">
         <f>_xll.qlZeroCouponBond(B73,L73,D73,E73,F73,G73,H73,I73,J73,K73,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0003269021#0000</v>
+        <v>IT0003269021#0001</v>
       </c>
       <c r="N73" s="22"/>
       <c r="O73" s="22"/>
@@ -17175,7 +18083,7 @@
       </c>
       <c r="M74" s="31" t="str">
         <f>_xll.qlZeroCouponBond(B74,L74,D74,E74,F74,G74,H74,I74,J74,K74,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0003269039#0000</v>
+        <v>IT0003269039#0001</v>
       </c>
       <c r="N74" s="22"/>
       <c r="O74" s="22"/>
@@ -17220,7 +18128,7 @@
       </c>
       <c r="M75" s="31" t="str">
         <f>_xll.qlZeroCouponBond(B75,L75,D75,E75,F75,G75,H75,I75,J75,K75,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0003269062#0000</v>
+        <v>IT0003269062#0001</v>
       </c>
       <c r="N75" s="22"/>
       <c r="O75" s="22"/>
@@ -17265,7 +18173,7 @@
       </c>
       <c r="M76" s="31" t="str">
         <f>_xll.qlZeroCouponBond(B76,L76,D76,E76,F76,G76,H76,I76,J76,K76,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0003540389#0000</v>
+        <v>IT0003540389#0001</v>
       </c>
       <c r="N76" s="22"/>
       <c r="O76" s="22"/>
@@ -17310,7 +18218,7 @@
       </c>
       <c r="M77" s="31" t="str">
         <f>_xll.qlZeroCouponBond(B77,L77,D77,E77,F77,G77,H77,I77,J77,K77,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0003540397#0000</v>
+        <v>IT0003540397#0001</v>
       </c>
       <c r="N77" s="22"/>
       <c r="O77" s="22"/>
@@ -17355,7 +18263,7 @@
       </c>
       <c r="M78" s="31" t="str">
         <f>_xll.qlZeroCouponBond(B78,L78,D78,E78,F78,G78,H78,I78,J78,K78,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0003540405#0000</v>
+        <v>IT0003540405#0001</v>
       </c>
       <c r="N78" s="22"/>
       <c r="O78" s="22"/>
@@ -17400,7 +18308,7 @@
       </c>
       <c r="M79" s="31" t="str">
         <f>_xll.qlZeroCouponBond(B79,L79,D79,E79,F79,G79,H79,I79,J79,K79,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0004002819#0000</v>
+        <v>IT0004002819#0001</v>
       </c>
       <c r="N79" s="22"/>
       <c r="O79" s="22"/>
@@ -17445,7 +18353,7 @@
       </c>
       <c r="M80" s="31" t="str">
         <f>_xll.qlZeroCouponBond(B80,L80,D80,E80,F80,G80,H80,I80,J80,K80,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0004002827#0000</v>
+        <v>IT0004002827#0001</v>
       </c>
       <c r="N80" s="22"/>
       <c r="O80" s="22"/>
@@ -17490,7 +18398,7 @@
       </c>
       <c r="M81" s="31" t="str">
         <f>_xll.qlZeroCouponBond(B81,L81,D81,E81,F81,G81,H81,I81,J81,K81,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0004002835#0000</v>
+        <v>IT0004002835#0001</v>
       </c>
       <c r="N81" s="22"/>
       <c r="O81" s="22"/>
@@ -17535,7 +18443,7 @@
       </c>
       <c r="M82" s="31" t="str">
         <f>_xll.qlZeroCouponBond(B82,L82,D82,E82,F82,G82,H82,I82,J82,K82,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0004002843#0000</v>
+        <v>IT0004002843#0001</v>
       </c>
       <c r="N82" s="22"/>
       <c r="O82" s="22"/>
@@ -17580,7 +18488,7 @@
       </c>
       <c r="M83" s="31" t="str">
         <f>_xll.qlZeroCouponBond(B83,L83,D83,E83,F83,G83,H83,I83,J83,K83,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0004002850#0000</v>
+        <v>IT0004002850#0001</v>
       </c>
       <c r="N83" s="22"/>
       <c r="O83" s="22"/>
@@ -17625,7 +18533,7 @@
       </c>
       <c r="M84" s="31" t="str">
         <f>_xll.qlZeroCouponBond(B84,L84,D84,E84,F84,G84,H84,I84,J84,K84,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0004288590#0000</v>
+        <v>IT0004288590#0001</v>
       </c>
       <c r="N84" s="22"/>
       <c r="O84" s="22"/>
@@ -17670,7 +18578,7 @@
       </c>
       <c r="M85" s="31" t="str">
         <f>_xll.qlZeroCouponBond(B85,L85,D85,E85,F85,G85,H85,I85,J85,K85,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0004288608#0000</v>
+        <v>IT0004288608#0001</v>
       </c>
       <c r="N85" s="22"/>
       <c r="O85" s="22"/>
@@ -17715,7 +18623,7 @@
       </c>
       <c r="M86" s="31" t="str">
         <f>_xll.qlZeroCouponBond(B86,L86,D86,E86,F86,G86,H86,I86,J86,K86,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0004288616#0000</v>
+        <v>IT0004288616#0001</v>
       </c>
       <c r="N86" s="22"/>
       <c r="O86" s="22"/>
@@ -17760,7 +18668,7 @@
       </c>
       <c r="M87" s="31" t="str">
         <f>_xll.qlZeroCouponBond(B87,L87,D87,E87,F87,G87,H87,I87,J87,K87,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0004288624#0000</v>
+        <v>IT0004288624#0001</v>
       </c>
       <c r="N87" s="22"/>
       <c r="O87" s="22"/>
@@ -17805,7 +18713,7 @@
       </c>
       <c r="M88" s="31" t="str">
         <f>_xll.qlZeroCouponBond(B88,L88,D88,E88,F88,G88,H88,I88,J88,K88,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0004288640#0000</v>
+        <v>IT0004288640#0001</v>
       </c>
       <c r="N88" s="22"/>
       <c r="O88" s="22"/>
@@ -17827,7 +18735,7 @@
       <c r="L89" s="45"/>
       <c r="M89" s="45" t="str">
         <f>_xll.ohGroup("CouponsFebAug",M29:M88,Permanent,,ObjectOverwrite)</f>
-        <v>CouponsFebAug#0000</v>
+        <v>CouponsFebAug#0001</v>
       </c>
       <c r="N89" s="45"/>
       <c r="O89" s="45"/>
@@ -17858,8 +18766,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:Q58"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -17867,15 +18775,15 @@
     <col min="1" max="1" width="4.28515625" style="28" customWidth="1"/>
     <col min="2" max="2" width="14.140625" style="28" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="65.7109375" style="28" customWidth="1"/>
-    <col min="4" max="4" width="9" style="28" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="5" max="5" width="6" style="28" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="6" max="6" width="9" style="28" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="7" max="7" width="7" style="28" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="8" max="8" width="17.28515625" style="28" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="9" max="9" width="10" style="28" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="10" max="10" width="11" style="28" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="11" max="11" width="17.28515625" style="28" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="12" max="12" width="19.28515625" style="28" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="9" style="28" customWidth="1" outlineLevel="1"/>
+    <col min="5" max="5" width="6" style="28" customWidth="1" outlineLevel="1"/>
+    <col min="6" max="6" width="9" style="28" customWidth="1" outlineLevel="1"/>
+    <col min="7" max="7" width="7" style="28" customWidth="1" outlineLevel="1"/>
+    <col min="8" max="8" width="17.28515625" style="28" customWidth="1" outlineLevel="1"/>
+    <col min="9" max="9" width="10" style="28" customWidth="1" outlineLevel="1"/>
+    <col min="10" max="10" width="11" style="28" customWidth="1" outlineLevel="1"/>
+    <col min="11" max="11" width="17.28515625" style="28" customWidth="1" outlineLevel="1"/>
+    <col min="12" max="12" width="19.28515625" style="28" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="20.28515625" style="28" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="2.7109375" style="28" customWidth="1"/>
     <col min="15" max="15" width="13.140625" style="28" bestFit="1" customWidth="1"/>
@@ -18098,7 +19006,7 @@
       </c>
       <c r="M8" s="31" t="str">
         <f>_xll.qlZeroCouponBond(B8,L8,D8,E8,F8,G8,H8,I8,J8,K8,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0001461844#0000</v>
+        <v>IT0001461844#0001</v>
       </c>
       <c r="N8" s="22"/>
       <c r="O8" s="48" t="str">
@@ -18106,8 +19014,8 @@
         <v>IT0001247060</v>
       </c>
       <c r="P8" s="48" t="str">
-        <f>_xll.qlBondMaturityLookup(BTP!$J$106,$H8)</f>
-        <v>IT0001448619</v>
+        <f>_xll.qlBondMaturityLookup(BTP!$J$109,$H8)</f>
+        <v/>
       </c>
       <c r="Q8" s="23"/>
     </row>
@@ -18149,7 +19057,7 @@
       </c>
       <c r="M9" s="31" t="str">
         <f>_xll.qlZeroCouponBond(B9,L9,D9,E9,F9,G9,H9,I9,J9,K9,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0001246799#0000</v>
+        <v>IT0001246799#0001</v>
       </c>
       <c r="N9" s="22"/>
       <c r="O9" s="48" t="str">
@@ -18157,7 +19065,7 @@
         <v>IT0001247326</v>
       </c>
       <c r="P9" s="48" t="str">
-        <f>_xll.qlBondMaturityLookup(BTP!$J$106,$H9)</f>
+        <f>_xll.qlBondMaturityLookup(BTP!$J$109,$H9)</f>
         <v>IT0000366655</v>
       </c>
       <c r="Q9" s="23"/>
@@ -18200,7 +19108,7 @@
       </c>
       <c r="M10" s="31" t="str">
         <f>_xll.qlZeroCouponBond(B10,L10,D10,E10,F10,G10,H10,I10,J10,K10,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0001246807#0000</v>
+        <v>IT0001246807#0001</v>
       </c>
       <c r="N10" s="22"/>
       <c r="O10" s="48" t="str">
@@ -18208,7 +19116,7 @@
         <v>IT0001247383</v>
       </c>
       <c r="P10" s="48" t="str">
-        <f>_xll.qlBondMaturityLookup(BTP!$J$106,$H10)</f>
+        <f>_xll.qlBondMaturityLookup(BTP!$J$109,$H10)</f>
         <v>IT0001086567</v>
       </c>
       <c r="Q10" s="23"/>
@@ -18251,7 +19159,7 @@
       </c>
       <c r="M11" s="31" t="str">
         <f>_xll.qlZeroCouponBond(B11,L11,D11,E11,F11,G11,H11,I11,J11,K11,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0001246815#0000</v>
+        <v>IT0001246815#0001</v>
       </c>
       <c r="N11" s="22"/>
       <c r="O11" s="48" t="str">
@@ -18259,7 +19167,7 @@
         <v>IT0001247409</v>
       </c>
       <c r="P11" s="48" t="str">
-        <f>_xll.qlBondMaturityLookup(BTP!$J$106,$H11)</f>
+        <f>_xll.qlBondMaturityLookup(BTP!$J$109,$H11)</f>
         <v>IT0001174611</v>
       </c>
       <c r="Q11" s="23"/>
@@ -18302,7 +19210,7 @@
       </c>
       <c r="M12" s="31" t="str">
         <f>_xll.qlZeroCouponBond(B12,L12,D12,E12,F12,G12,H12,I12,J12,K12,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0001312773#0000</v>
+        <v>IT0001312773#0001</v>
       </c>
       <c r="N12" s="22"/>
       <c r="O12" s="48" t="str">
@@ -18310,7 +19218,7 @@
         <v>IT0001312815</v>
       </c>
       <c r="P12" s="48" t="str">
-        <f>_xll.qlBondMaturityLookup(BTP!$J$106,$H12)</f>
+        <f>_xll.qlBondMaturityLookup(BTP!$J$109,$H12)</f>
         <v>IT0001278511</v>
       </c>
       <c r="Q12" s="23"/>
@@ -18353,7 +19261,7 @@
       </c>
       <c r="M13" s="31" t="str">
         <f>_xll.qlZeroCouponBond(B13,L13,D13,E13,F13,G13,H13,I13,J13,K13,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0001464186#0000</v>
+        <v>IT0001464186#0001</v>
       </c>
       <c r="N13" s="22"/>
       <c r="O13" s="48" t="str">
@@ -18361,7 +19269,7 @@
         <v>IT0001464210</v>
       </c>
       <c r="P13" s="48" t="str">
-        <f>_xll.qlBondMaturityLookup(BTP!$J$106,$H13)</f>
+        <f>_xll.qlBondMaturityLookup(BTP!$J$109,$H13)</f>
         <v>IT0001444378</v>
       </c>
       <c r="Q13" s="23"/>
@@ -18381,7 +19289,7 @@
       <c r="L14" s="22"/>
       <c r="M14" s="22" t="str">
         <f>_xll.ohGroup("ResiduesMayNov",M8:M13,Permanent,,ObjectOverwrite)</f>
-        <v>ResiduesMayNov#0000</v>
+        <v>ResiduesMayNov#0001</v>
       </c>
       <c r="N14" s="22"/>
       <c r="O14" s="49"/>
@@ -18426,7 +19334,7 @@
       </c>
       <c r="M15" s="31" t="str">
         <f>_xll.qlZeroCouponBond(B15,L15,D15,E15,F15,G15,H15,I15,J15,K15,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0001247052#0000</v>
+        <v>IT0001247052#0001</v>
       </c>
       <c r="N15" s="22"/>
       <c r="O15" s="22"/>
@@ -18471,7 +19379,7 @@
       </c>
       <c r="M16" s="31" t="str">
         <f>_xll.qlZeroCouponBond(B16,L16,D16,E16,F16,G16,H16,I16,J16,K16,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0001247060#0000</v>
+        <v>IT0001247060#0001</v>
       </c>
       <c r="N16" s="22"/>
       <c r="O16" s="22"/>
@@ -18516,7 +19424,7 @@
       </c>
       <c r="M17" s="31" t="str">
         <f>_xll.qlZeroCouponBond(B17,L17,D17,E17,F17,G17,H17,I17,J17,K17,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0001247078#0000</v>
+        <v>IT0001247078#0001</v>
       </c>
       <c r="N17" s="22"/>
       <c r="O17" s="22"/>
@@ -18561,7 +19469,7 @@
       </c>
       <c r="M18" s="31" t="str">
         <f>_xll.qlZeroCouponBond(B18,L18,D18,E18,F18,G18,H18,I18,J18,K18,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0001247086#0000</v>
+        <v>IT0001247086#0001</v>
       </c>
       <c r="N18" s="22"/>
       <c r="O18" s="22"/>
@@ -18606,7 +19514,7 @@
       </c>
       <c r="M19" s="31" t="str">
         <f>_xll.qlZeroCouponBond(B19,L19,D19,E19,F19,G19,H19,I19,J19,K19,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0001247094#0000</v>
+        <v>IT0001247094#0001</v>
       </c>
       <c r="N19" s="22"/>
       <c r="O19" s="22"/>
@@ -18651,7 +19559,7 @@
       </c>
       <c r="M20" s="31" t="str">
         <f>_xll.qlZeroCouponBond(B20,L20,D20,E20,F20,G20,H20,I20,J20,K20,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0001247102#0000</v>
+        <v>IT0001247102#0001</v>
       </c>
       <c r="N20" s="22"/>
       <c r="O20" s="22"/>
@@ -18696,7 +19604,7 @@
       </c>
       <c r="M21" s="31" t="str">
         <f>_xll.qlZeroCouponBond(B21,L21,D21,E21,F21,G21,H21,I21,J21,K21,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0001247110#0000</v>
+        <v>IT0001247110#0001</v>
       </c>
       <c r="N21" s="22"/>
       <c r="O21" s="22"/>
@@ -18741,7 +19649,7 @@
       </c>
       <c r="M22" s="31" t="str">
         <f>_xll.qlZeroCouponBond(B22,L22,D22,E22,F22,G22,H22,I22,J22,K22,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0001247128#0000</v>
+        <v>IT0001247128#0001</v>
       </c>
       <c r="N22" s="22"/>
       <c r="O22" s="22"/>
@@ -18786,7 +19694,7 @@
       </c>
       <c r="M23" s="31" t="str">
         <f>_xll.qlZeroCouponBond(B23,L23,D23,E23,F23,G23,H23,I23,J23,K23,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0001247136#0000</v>
+        <v>IT0001247136#0001</v>
       </c>
       <c r="N23" s="22"/>
       <c r="O23" s="22"/>
@@ -18831,7 +19739,7 @@
       </c>
       <c r="M24" s="31" t="str">
         <f>_xll.qlZeroCouponBond(B24,L24,D24,E24,F24,G24,H24,I24,J24,K24,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0001247144#0000</v>
+        <v>IT0001247144#0001</v>
       </c>
       <c r="N24" s="22"/>
       <c r="O24" s="22"/>
@@ -18876,7 +19784,7 @@
       </c>
       <c r="M25" s="31" t="str">
         <f>_xll.qlZeroCouponBond(B25,L25,D25,E25,F25,G25,H25,I25,J25,K25,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0001247151#0000</v>
+        <v>IT0001247151#0001</v>
       </c>
       <c r="N25" s="22"/>
       <c r="O25" s="22"/>
@@ -18921,7 +19829,7 @@
       </c>
       <c r="M26" s="31" t="str">
         <f>_xll.qlZeroCouponBond(B26,L26,D26,E26,F26,G26,H26,I26,J26,K26,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0001247169#0000</v>
+        <v>IT0001247169#0001</v>
       </c>
       <c r="N26" s="22"/>
       <c r="O26" s="22"/>
@@ -18966,7 +19874,7 @@
       </c>
       <c r="M27" s="31" t="str">
         <f>_xll.qlZeroCouponBond(B27,L27,D27,E27,F27,G27,H27,I27,J27,K27,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0001247177#0000</v>
+        <v>IT0001247177#0001</v>
       </c>
       <c r="N27" s="22"/>
       <c r="O27" s="22"/>
@@ -19011,7 +19919,7 @@
       </c>
       <c r="M28" s="31" t="str">
         <f>_xll.qlZeroCouponBond(B28,L28,D28,E28,F28,G28,H28,I28,J28,K28,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0001247185#0000</v>
+        <v>IT0001247185#0001</v>
       </c>
       <c r="N28" s="22"/>
       <c r="O28" s="22"/>
@@ -19056,7 +19964,7 @@
       </c>
       <c r="M29" s="31" t="str">
         <f>_xll.qlZeroCouponBond(B29,L29,D29,E29,F29,G29,H29,I29,J29,K29,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0001247193#0000</v>
+        <v>IT0001247193#0001</v>
       </c>
       <c r="N29" s="22"/>
       <c r="O29" s="22"/>
@@ -19101,7 +20009,7 @@
       </c>
       <c r="M30" s="31" t="str">
         <f>_xll.qlZeroCouponBond(B30,L30,D30,E30,F30,G30,H30,I30,J30,K30,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0001247201#0000</v>
+        <v>IT0001247201#0001</v>
       </c>
       <c r="N30" s="22"/>
       <c r="O30" s="22"/>
@@ -19146,7 +20054,7 @@
       </c>
       <c r="M31" s="31" t="str">
         <f>_xll.qlZeroCouponBond(B31,L31,D31,E31,F31,G31,H31,I31,J31,K31,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0001247219#0000</v>
+        <v>IT0001247219#0001</v>
       </c>
       <c r="N31" s="22"/>
       <c r="O31" s="22"/>
@@ -19191,7 +20099,7 @@
       </c>
       <c r="M32" s="31" t="str">
         <f>_xll.qlZeroCouponBond(B32,L32,D32,E32,F32,G32,H32,I32,J32,K32,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0001247227#0000</v>
+        <v>IT0001247227#0001</v>
       </c>
       <c r="N32" s="22"/>
       <c r="O32" s="22"/>
@@ -19236,7 +20144,7 @@
       </c>
       <c r="M33" s="31" t="str">
         <f>_xll.qlZeroCouponBond(B33,L33,D33,E33,F33,G33,H33,I33,J33,K33,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0001247235#0000</v>
+        <v>IT0001247235#0001</v>
       </c>
       <c r="N33" s="22"/>
       <c r="O33" s="22"/>
@@ -19281,7 +20189,7 @@
       </c>
       <c r="M34" s="31" t="str">
         <f>_xll.qlZeroCouponBond(B34,L34,D34,E34,F34,G34,H34,I34,J34,K34,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0001247243#0000</v>
+        <v>IT0001247243#0001</v>
       </c>
       <c r="N34" s="22"/>
       <c r="O34" s="22"/>
@@ -19326,7 +20234,7 @@
       </c>
       <c r="M35" s="31" t="str">
         <f>_xll.qlZeroCouponBond(B35,L35,D35,E35,F35,G35,H35,I35,J35,K35,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0001247250#0000</v>
+        <v>IT0001247250#0001</v>
       </c>
       <c r="N35" s="22"/>
       <c r="O35" s="22"/>
@@ -19371,7 +20279,7 @@
       </c>
       <c r="M36" s="31" t="str">
         <f>_xll.qlZeroCouponBond(B36,L36,D36,E36,F36,G36,H36,I36,J36,K36,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0001247268#0000</v>
+        <v>IT0001247268#0001</v>
       </c>
       <c r="N36" s="22"/>
       <c r="O36" s="22"/>
@@ -19416,7 +20324,7 @@
       </c>
       <c r="M37" s="31" t="str">
         <f>_xll.qlZeroCouponBond(B37,L37,D37,E37,F37,G37,H37,I37,J37,K37,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0001247276#0000</v>
+        <v>IT0001247276#0001</v>
       </c>
       <c r="N37" s="22"/>
       <c r="O37" s="22"/>
@@ -19461,7 +20369,7 @@
       </c>
       <c r="M38" s="31" t="str">
         <f>_xll.qlZeroCouponBond(B38,L38,D38,E38,F38,G38,H38,I38,J38,K38,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0001247284#0000</v>
+        <v>IT0001247284#0001</v>
       </c>
       <c r="N38" s="22"/>
       <c r="O38" s="22"/>
@@ -19506,7 +20414,7 @@
       </c>
       <c r="M39" s="31" t="str">
         <f>_xll.qlZeroCouponBond(B39,L39,D39,E39,F39,G39,H39,I39,J39,K39,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0001247292#0000</v>
+        <v>IT0001247292#0001</v>
       </c>
       <c r="N39" s="22"/>
       <c r="O39" s="22"/>
@@ -19551,7 +20459,7 @@
       </c>
       <c r="M40" s="31" t="str">
         <f>_xll.qlZeroCouponBond(B40,L40,D40,E40,F40,G40,H40,I40,J40,K40,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0001247300#0000</v>
+        <v>IT0001247300#0001</v>
       </c>
       <c r="N40" s="22"/>
       <c r="O40" s="22"/>
@@ -19596,7 +20504,7 @@
       </c>
       <c r="M41" s="31" t="str">
         <f>_xll.qlZeroCouponBond(B41,L41,D41,E41,F41,G41,H41,I41,J41,K41,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0001247318#0000</v>
+        <v>IT0001247318#0001</v>
       </c>
       <c r="N41" s="22"/>
       <c r="O41" s="22"/>
@@ -19641,7 +20549,7 @@
       </c>
       <c r="M42" s="31" t="str">
         <f>_xll.qlZeroCouponBond(B42,L42,D42,E42,F42,G42,H42,I42,J42,K42,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0001247326#0000</v>
+        <v>IT0001247326#0001</v>
       </c>
       <c r="N42" s="22"/>
       <c r="O42" s="22"/>
@@ -19686,7 +20594,7 @@
       </c>
       <c r="M43" s="31" t="str">
         <f>_xll.qlZeroCouponBond(B43,L43,D43,E43,F43,G43,H43,I43,J43,K43,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0001247334#0000</v>
+        <v>IT0001247334#0001</v>
       </c>
       <c r="N43" s="22"/>
       <c r="O43" s="22"/>
@@ -19731,7 +20639,7 @@
       </c>
       <c r="M44" s="31" t="str">
         <f>_xll.qlZeroCouponBond(B44,L44,D44,E44,F44,G44,H44,I44,J44,K44,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0001247342#0000</v>
+        <v>IT0001247342#0001</v>
       </c>
       <c r="N44" s="22"/>
       <c r="O44" s="22"/>
@@ -19776,7 +20684,7 @@
       </c>
       <c r="M45" s="31" t="str">
         <f>_xll.qlZeroCouponBond(B45,L45,D45,E45,F45,G45,H45,I45,J45,K45,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0001247359#0000</v>
+        <v>IT0001247359#0001</v>
       </c>
       <c r="N45" s="22"/>
       <c r="O45" s="22"/>
@@ -19821,7 +20729,7 @@
       </c>
       <c r="M46" s="31" t="str">
         <f>_xll.qlZeroCouponBond(B46,L46,D46,E46,F46,G46,H46,I46,J46,K46,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0001247367#0000</v>
+        <v>IT0001247367#0001</v>
       </c>
       <c r="N46" s="22"/>
       <c r="O46" s="22"/>
@@ -19866,7 +20774,7 @@
       </c>
       <c r="M47" s="31" t="str">
         <f>_xll.qlZeroCouponBond(B47,L47,D47,E47,F47,G47,H47,I47,J47,K47,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0001247375#0000</v>
+        <v>IT0001247375#0001</v>
       </c>
       <c r="N47" s="22"/>
       <c r="O47" s="22"/>
@@ -19911,7 +20819,7 @@
       </c>
       <c r="M48" s="31" t="str">
         <f>_xll.qlZeroCouponBond(B48,L48,D48,E48,F48,G48,H48,I48,J48,K48,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0001247383#0000</v>
+        <v>IT0001247383#0001</v>
       </c>
       <c r="N48" s="22"/>
       <c r="O48" s="22"/>
@@ -19956,7 +20864,7 @@
       </c>
       <c r="M49" s="31" t="str">
         <f>_xll.qlZeroCouponBond(B49,L49,D49,E49,F49,G49,H49,I49,J49,K49,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0001247391#0000</v>
+        <v>IT0001247391#0001</v>
       </c>
       <c r="N49" s="22"/>
       <c r="O49" s="22"/>
@@ -20001,7 +20909,7 @@
       </c>
       <c r="M50" s="31" t="str">
         <f>_xll.qlZeroCouponBond(B50,L50,D50,E50,F50,G50,H50,I50,J50,K50,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0001247409#0000</v>
+        <v>IT0001247409#0001</v>
       </c>
       <c r="N50" s="22"/>
       <c r="O50" s="22"/>
@@ -20046,7 +20954,7 @@
       </c>
       <c r="M51" s="31" t="str">
         <f>_xll.qlZeroCouponBond(B51,L51,D51,E51,F51,G51,H51,I51,J51,K51,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0001312781#0000</v>
+        <v>IT0001312781#0001</v>
       </c>
       <c r="N51" s="22"/>
       <c r="O51" s="22"/>
@@ -20091,7 +20999,7 @@
       </c>
       <c r="M52" s="31" t="str">
         <f>_xll.qlZeroCouponBond(B52,L52,D52,E52,F52,G52,H52,I52,J52,K52,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0001312799#0000</v>
+        <v>IT0001312799#0001</v>
       </c>
       <c r="N52" s="22"/>
       <c r="O52" s="22"/>
@@ -20136,7 +21044,7 @@
       </c>
       <c r="M53" s="31" t="str">
         <f>_xll.qlZeroCouponBond(B53,L53,D53,E53,F53,G53,H53,I53,J53,K53,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0001312807#0000</v>
+        <v>IT0001312807#0001</v>
       </c>
       <c r="N53" s="22"/>
       <c r="O53" s="22"/>
@@ -20181,7 +21089,7 @@
       </c>
       <c r="M54" s="31" t="str">
         <f>_xll.qlZeroCouponBond(B54,L54,D54,E54,F54,G54,H54,I54,J54,K54,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0001312815#0000</v>
+        <v>IT0001312815#0001</v>
       </c>
       <c r="N54" s="22"/>
       <c r="O54" s="22"/>
@@ -20226,7 +21134,7 @@
       </c>
       <c r="M55" s="31" t="str">
         <f>_xll.qlZeroCouponBond(B55,L55,D55,E55,F55,G55,H55,I55,J55,K55,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0001464194#0000</v>
+        <v>IT0001464194#0001</v>
       </c>
       <c r="N55" s="22"/>
       <c r="O55" s="22"/>
@@ -20271,7 +21179,7 @@
       </c>
       <c r="M56" s="31" t="str">
         <f>_xll.qlZeroCouponBond(B56,L56,D56,E56,F56,G56,H56,I56,J56,K56,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0001464202#0000</v>
+        <v>IT0001464202#0001</v>
       </c>
       <c r="N56" s="22"/>
       <c r="O56" s="22"/>
@@ -20316,7 +21224,7 @@
       </c>
       <c r="M57" s="31" t="str">
         <f>_xll.qlZeroCouponBond(B57,L57,D57,E57,F57,G57,H57,I57,J57,K57,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0001464210#0000</v>
+        <v>IT0001464210#0001</v>
       </c>
       <c r="N57" s="22"/>
       <c r="O57" s="22"/>
@@ -20338,7 +21246,7 @@
       <c r="L58" s="45"/>
       <c r="M58" s="45" t="str">
         <f>_xll.ohGroup("CouponsMayNov",M15:M57,Permanent,,ObjectOverwrite)</f>
-        <v>CouponsMayNov#0000</v>
+        <v>CouponsMayNov#0001</v>
       </c>
       <c r="N58" s="45"/>
       <c r="O58" s="45"/>
@@ -20654,7 +21562,7 @@
       </c>
       <c r="M12" s="31" t="str">
         <f>_xll.qlZeroCouponBond(B12,L12,D12,E12,F12,G12,H12,I12,J12,K12,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0004491343#0000</v>
+        <v>IT0004491343#0001</v>
       </c>
       <c r="N12" s="27"/>
     </row>
